--- a/BackTest/2020-01-22 BackTest FNB.xlsx
+++ b/BackTest/2020-01-22 BackTest FNB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M254"/>
+  <dimension ref="A1:M255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.2</v>
+        <v>2.205</v>
       </c>
       <c r="C2" t="n">
         <v>2.2</v>
       </c>
       <c r="D2" t="n">
-        <v>2.2</v>
+        <v>2.205</v>
       </c>
       <c r="E2" t="n">
         <v>2.2</v>
       </c>
       <c r="F2" t="n">
-        <v>239560.124</v>
+        <v>2664010.3888</v>
       </c>
       <c r="G2" t="n">
-        <v>2.208116666666669</v>
+        <v>2.208283333333336</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>2.2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.199</v>
+        <v>2.2</v>
       </c>
       <c r="D3" t="n">
         <v>2.2</v>
       </c>
       <c r="E3" t="n">
-        <v>2.199</v>
+        <v>2.2</v>
       </c>
       <c r="F3" t="n">
-        <v>38664.1758</v>
+        <v>239560.124</v>
       </c>
       <c r="G3" t="n">
-        <v>2.207933333333336</v>
+        <v>2.208116666666669</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.229</v>
+        <v>2.2</v>
       </c>
       <c r="C4" t="n">
-        <v>2.23</v>
+        <v>2.199</v>
       </c>
       <c r="D4" t="n">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="E4" t="n">
-        <v>2.229</v>
+        <v>2.199</v>
       </c>
       <c r="F4" t="n">
-        <v>383982.1009</v>
+        <v>38664.1758</v>
       </c>
       <c r="G4" t="n">
-        <v>2.208266666666669</v>
+        <v>2.207933333333336</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.23</v>
+        <v>2.229</v>
       </c>
       <c r="C5" t="n">
-        <v>2.239</v>
+        <v>2.23</v>
       </c>
       <c r="D5" t="n">
-        <v>2.239</v>
+        <v>2.23</v>
       </c>
       <c r="E5" t="n">
-        <v>2.23</v>
+        <v>2.229</v>
       </c>
       <c r="F5" t="n">
-        <v>12308.0477</v>
+        <v>383982.1009</v>
       </c>
       <c r="G5" t="n">
-        <v>2.208900000000002</v>
+        <v>2.208266666666669</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.24</v>
+        <v>2.23</v>
       </c>
       <c r="C6" t="n">
-        <v>2.24</v>
+        <v>2.239</v>
       </c>
       <c r="D6" t="n">
-        <v>2.24</v>
+        <v>2.239</v>
       </c>
       <c r="E6" t="n">
-        <v>2.24</v>
+        <v>2.23</v>
       </c>
       <c r="F6" t="n">
-        <v>240</v>
+        <v>12308.0477</v>
       </c>
       <c r="G6" t="n">
-        <v>2.209600000000002</v>
+        <v>2.208900000000002</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.239</v>
+        <v>2.24</v>
       </c>
       <c r="C7" t="n">
-        <v>2.239</v>
+        <v>2.24</v>
       </c>
       <c r="D7" t="n">
-        <v>2.239</v>
+        <v>2.24</v>
       </c>
       <c r="E7" t="n">
-        <v>2.239</v>
+        <v>2.24</v>
       </c>
       <c r="F7" t="n">
         <v>240</v>
       </c>
       <c r="G7" t="n">
-        <v>2.210283333333336</v>
+        <v>2.209600000000002</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.23</v>
+        <v>2.239</v>
       </c>
       <c r="C8" t="n">
-        <v>2.238</v>
+        <v>2.239</v>
       </c>
       <c r="D8" t="n">
         <v>2.239</v>
       </c>
       <c r="E8" t="n">
-        <v>2.23</v>
+        <v>2.239</v>
       </c>
       <c r="F8" t="n">
-        <v>20480</v>
+        <v>240</v>
       </c>
       <c r="G8" t="n">
-        <v>2.210950000000002</v>
+        <v>2.210283333333336</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="C9" t="n">
         <v>2.238</v>
       </c>
-      <c r="C9" t="n">
-        <v>2.241</v>
-      </c>
       <c r="D9" t="n">
-        <v>2.241</v>
+        <v>2.239</v>
       </c>
       <c r="E9" t="n">
-        <v>2.238</v>
+        <v>2.23</v>
       </c>
       <c r="F9" t="n">
-        <v>137478.2193</v>
+        <v>20480</v>
       </c>
       <c r="G9" t="n">
-        <v>2.211283333333335</v>
+        <v>2.210950000000002</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>2.238</v>
+      </c>
+      <c r="C10" t="n">
         <v>2.241</v>
       </c>
-      <c r="C10" t="n">
-        <v>2.242</v>
-      </c>
       <c r="D10" t="n">
-        <v>2.242</v>
+        <v>2.241</v>
       </c>
       <c r="E10" t="n">
-        <v>2.241</v>
+        <v>2.238</v>
       </c>
       <c r="F10" t="n">
-        <v>109627.9142</v>
+        <v>137478.2193</v>
       </c>
       <c r="G10" t="n">
-        <v>2.211616666666669</v>
+        <v>2.211283333333335</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>2.241</v>
       </c>
       <c r="F11" t="n">
-        <v>2272.0481</v>
+        <v>109627.9142</v>
       </c>
       <c r="G11" t="n">
-        <v>2.212400000000002</v>
+        <v>2.211616666666669</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>2.241</v>
       </c>
       <c r="C12" t="n">
-        <v>2.24</v>
+        <v>2.242</v>
       </c>
       <c r="D12" t="n">
+        <v>2.242</v>
+      </c>
+      <c r="E12" t="n">
         <v>2.241</v>
       </c>
-      <c r="E12" t="n">
-        <v>2.24</v>
-      </c>
       <c r="F12" t="n">
-        <v>72693.2531</v>
+        <v>2272.0481</v>
       </c>
       <c r="G12" t="n">
-        <v>2.213200000000002</v>
+        <v>2.212400000000002</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -821,25 +821,25 @@
         <v>2.241</v>
       </c>
       <c r="C13" t="n">
-        <v>2.241</v>
+        <v>2.24</v>
       </c>
       <c r="D13" t="n">
         <v>2.241</v>
       </c>
       <c r="E13" t="n">
-        <v>2.241</v>
+        <v>2.24</v>
       </c>
       <c r="F13" t="n">
-        <v>240</v>
+        <v>72693.2531</v>
       </c>
       <c r="G13" t="n">
-        <v>2.214016666666669</v>
+        <v>2.213200000000002</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.24</v>
+        <v>2.241</v>
       </c>
       <c r="C14" t="n">
-        <v>2.242</v>
+        <v>2.241</v>
       </c>
       <c r="D14" t="n">
-        <v>2.242</v>
+        <v>2.241</v>
       </c>
       <c r="E14" t="n">
-        <v>2.24</v>
+        <v>2.241</v>
       </c>
       <c r="F14" t="n">
-        <v>182396.7929</v>
+        <v>240</v>
       </c>
       <c r="G14" t="n">
-        <v>2.214550000000002</v>
+        <v>2.214016666666669</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.247</v>
+        <v>2.24</v>
       </c>
       <c r="C15" t="n">
-        <v>2.247</v>
+        <v>2.242</v>
       </c>
       <c r="D15" t="n">
-        <v>2.247</v>
+        <v>2.242</v>
       </c>
       <c r="E15" t="n">
-        <v>2.247</v>
+        <v>2.24</v>
       </c>
       <c r="F15" t="n">
-        <v>244</v>
+        <v>182396.7929</v>
       </c>
       <c r="G15" t="n">
-        <v>2.215483333333335</v>
+        <v>2.214550000000002</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2.245</v>
+        <v>2.247</v>
       </c>
       <c r="C16" t="n">
-        <v>2.245</v>
+        <v>2.247</v>
       </c>
       <c r="D16" t="n">
-        <v>2.245</v>
+        <v>2.247</v>
       </c>
       <c r="E16" t="n">
-        <v>2.245</v>
+        <v>2.247</v>
       </c>
       <c r="F16" t="n">
-        <v>444</v>
+        <v>244</v>
       </c>
       <c r="G16" t="n">
-        <v>2.216350000000002</v>
+        <v>2.215483333333335</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2.244</v>
+        <v>2.245</v>
       </c>
       <c r="C17" t="n">
-        <v>2.244</v>
+        <v>2.245</v>
       </c>
       <c r="D17" t="n">
-        <v>2.244</v>
+        <v>2.245</v>
       </c>
       <c r="E17" t="n">
-        <v>2.244</v>
+        <v>2.245</v>
       </c>
       <c r="F17" t="n">
         <v>444</v>
       </c>
       <c r="G17" t="n">
-        <v>2.217200000000001</v>
+        <v>2.216350000000002</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -999,16 +999,16 @@
         <v>2.244</v>
       </c>
       <c r="D18" t="n">
-        <v>2.245</v>
+        <v>2.244</v>
       </c>
       <c r="E18" t="n">
         <v>2.244</v>
       </c>
       <c r="F18" t="n">
-        <v>36981.1765</v>
+        <v>444</v>
       </c>
       <c r="G18" t="n">
-        <v>2.217450000000001</v>
+        <v>2.217200000000001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1034,22 +1034,22 @@
         <v>2.244</v>
       </c>
       <c r="D19" t="n">
-        <v>2.244</v>
+        <v>2.245</v>
       </c>
       <c r="E19" t="n">
         <v>2.244</v>
       </c>
       <c r="F19" t="n">
-        <v>20051.0695</v>
+        <v>36981.1765</v>
       </c>
       <c r="G19" t="n">
-        <v>2.218316666666668</v>
+        <v>2.217450000000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1066,19 +1066,19 @@
         <v>2.244</v>
       </c>
       <c r="C20" t="n">
-        <v>2.265</v>
+        <v>2.244</v>
       </c>
       <c r="D20" t="n">
-        <v>2.265</v>
+        <v>2.244</v>
       </c>
       <c r="E20" t="n">
         <v>2.244</v>
       </c>
       <c r="F20" t="n">
-        <v>1512107.6735</v>
+        <v>20051.0695</v>
       </c>
       <c r="G20" t="n">
-        <v>2.219533333333334</v>
+        <v>2.218316666666668</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2.26</v>
+        <v>2.244</v>
       </c>
       <c r="C21" t="n">
-        <v>2.26</v>
+        <v>2.265</v>
       </c>
       <c r="D21" t="n">
-        <v>2.26</v>
+        <v>2.265</v>
       </c>
       <c r="E21" t="n">
-        <v>2.26</v>
+        <v>2.244</v>
       </c>
       <c r="F21" t="n">
-        <v>25000</v>
+        <v>1512107.6735</v>
       </c>
       <c r="G21" t="n">
-        <v>2.220116666666668</v>
+        <v>2.219533333333334</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2.261</v>
+        <v>2.26</v>
       </c>
       <c r="C22" t="n">
-        <v>2.261</v>
+        <v>2.26</v>
       </c>
       <c r="D22" t="n">
-        <v>2.261</v>
+        <v>2.26</v>
       </c>
       <c r="E22" t="n">
-        <v>2.261</v>
+        <v>2.26</v>
       </c>
       <c r="F22" t="n">
-        <v>20462.0184</v>
+        <v>25000</v>
       </c>
       <c r="G22" t="n">
-        <v>2.220766666666667</v>
+        <v>2.220116666666668</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2.265</v>
+        <v>2.261</v>
       </c>
       <c r="C23" t="n">
         <v>2.261</v>
       </c>
       <c r="D23" t="n">
-        <v>2.272</v>
+        <v>2.261</v>
       </c>
       <c r="E23" t="n">
         <v>2.261</v>
       </c>
       <c r="F23" t="n">
-        <v>260592.1767</v>
+        <v>20462.0184</v>
       </c>
       <c r="G23" t="n">
-        <v>2.221650000000001</v>
+        <v>2.220766666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,28 +1203,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>2.265</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.261</v>
+      </c>
+      <c r="D24" t="n">
         <v>2.272</v>
       </c>
-      <c r="C24" t="n">
-        <v>2.273</v>
-      </c>
-      <c r="D24" t="n">
-        <v>2.273</v>
-      </c>
       <c r="E24" t="n">
-        <v>2.272</v>
+        <v>2.261</v>
       </c>
       <c r="F24" t="n">
-        <v>480</v>
+        <v>260592.1767</v>
       </c>
       <c r="G24" t="n">
-        <v>2.222833333333334</v>
+        <v>2.221650000000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1238,28 +1238,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2.271</v>
+        <v>2.272</v>
       </c>
       <c r="C25" t="n">
-        <v>2.278</v>
+        <v>2.273</v>
       </c>
       <c r="D25" t="n">
-        <v>2.278</v>
+        <v>2.273</v>
       </c>
       <c r="E25" t="n">
-        <v>2.261</v>
+        <v>2.272</v>
       </c>
       <c r="F25" t="n">
-        <v>225591.2251</v>
+        <v>480</v>
       </c>
       <c r="G25" t="n">
-        <v>2.2241</v>
+        <v>2.222833333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1273,28 +1273,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2.276</v>
+        <v>2.271</v>
       </c>
       <c r="C26" t="n">
-        <v>2.276</v>
+        <v>2.278</v>
       </c>
       <c r="D26" t="n">
-        <v>2.276</v>
+        <v>2.278</v>
       </c>
       <c r="E26" t="n">
-        <v>2.276</v>
+        <v>2.261</v>
       </c>
       <c r="F26" t="n">
-        <v>250</v>
+        <v>225591.2251</v>
       </c>
       <c r="G26" t="n">
-        <v>2.225316666666667</v>
+        <v>2.2241</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1311,25 +1311,25 @@
         <v>2.276</v>
       </c>
       <c r="C27" t="n">
-        <v>2.278</v>
+        <v>2.276</v>
       </c>
       <c r="D27" t="n">
-        <v>2.278</v>
+        <v>2.276</v>
       </c>
       <c r="E27" t="n">
         <v>2.276</v>
       </c>
       <c r="F27" t="n">
-        <v>844866.8533</v>
+        <v>250</v>
       </c>
       <c r="G27" t="n">
-        <v>2.226733333333334</v>
+        <v>2.225316666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>2.276</v>
+      </c>
+      <c r="C28" t="n">
         <v>2.278</v>
-      </c>
-      <c r="C28" t="n">
-        <v>2.241</v>
       </c>
       <c r="D28" t="n">
         <v>2.278</v>
       </c>
       <c r="E28" t="n">
-        <v>2.241</v>
+        <v>2.276</v>
       </c>
       <c r="F28" t="n">
-        <v>320738.0135</v>
+        <v>844866.8533</v>
       </c>
       <c r="G28" t="n">
-        <v>2.227566666666667</v>
+        <v>2.226733333333334</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2.25</v>
+        <v>2.278</v>
       </c>
       <c r="C29" t="n">
-        <v>2.25</v>
+        <v>2.241</v>
       </c>
       <c r="D29" t="n">
-        <v>2.25</v>
+        <v>2.278</v>
       </c>
       <c r="E29" t="n">
-        <v>2.25</v>
+        <v>2.241</v>
       </c>
       <c r="F29" t="n">
-        <v>230</v>
+        <v>320738.0135</v>
       </c>
       <c r="G29" t="n">
-        <v>2.228533333333333</v>
+        <v>2.227566666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1416,19 +1416,19 @@
         <v>2.25</v>
       </c>
       <c r="C30" t="n">
-        <v>2.267</v>
+        <v>2.25</v>
       </c>
       <c r="D30" t="n">
-        <v>2.267</v>
+        <v>2.25</v>
       </c>
       <c r="E30" t="n">
         <v>2.25</v>
       </c>
       <c r="F30" t="n">
-        <v>325931.6475</v>
+        <v>230</v>
       </c>
       <c r="G30" t="n">
-        <v>2.2295</v>
+        <v>2.228533333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2.263</v>
+        <v>2.25</v>
       </c>
       <c r="C31" t="n">
-        <v>2.25</v>
+        <v>2.267</v>
       </c>
       <c r="D31" t="n">
-        <v>2.263</v>
+        <v>2.267</v>
       </c>
       <c r="E31" t="n">
         <v>2.25</v>
       </c>
       <c r="F31" t="n">
-        <v>460</v>
+        <v>325931.6475</v>
       </c>
       <c r="G31" t="n">
-        <v>2.230183333333334</v>
+        <v>2.2295</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2.247</v>
+        <v>2.263</v>
       </c>
       <c r="C32" t="n">
-        <v>2.249</v>
+        <v>2.25</v>
       </c>
       <c r="D32" t="n">
-        <v>2.249</v>
+        <v>2.263</v>
       </c>
       <c r="E32" t="n">
-        <v>2.241</v>
+        <v>2.25</v>
       </c>
       <c r="F32" t="n">
-        <v>15161.7829</v>
+        <v>460</v>
       </c>
       <c r="G32" t="n">
-        <v>2.23085</v>
+        <v>2.230183333333334</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="C33" t="n">
         <v>2.249</v>
       </c>
-      <c r="C33" t="n">
-        <v>2.24</v>
-      </c>
       <c r="D33" t="n">
-        <v>2.258</v>
+        <v>2.249</v>
       </c>
       <c r="E33" t="n">
-        <v>2.24</v>
+        <v>2.241</v>
       </c>
       <c r="F33" t="n">
-        <v>335912.128</v>
+        <v>15161.7829</v>
       </c>
       <c r="G33" t="n">
-        <v>2.231366666666667</v>
+        <v>2.23085</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2.24</v>
+        <v>2.249</v>
       </c>
       <c r="C34" t="n">
         <v>2.24</v>
       </c>
       <c r="D34" t="n">
-        <v>2.24</v>
+        <v>2.258</v>
       </c>
       <c r="E34" t="n">
         <v>2.24</v>
       </c>
       <c r="F34" t="n">
-        <v>230</v>
+        <v>335912.128</v>
       </c>
       <c r="G34" t="n">
-        <v>2.23215</v>
+        <v>2.231366666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2.238</v>
+        <v>2.24</v>
       </c>
       <c r="C35" t="n">
         <v>2.24</v>
@@ -1597,13 +1597,13 @@
         <v>2.24</v>
       </c>
       <c r="E35" t="n">
-        <v>2.238</v>
+        <v>2.24</v>
       </c>
       <c r="F35" t="n">
-        <v>560049.1161</v>
+        <v>230</v>
       </c>
       <c r="G35" t="n">
-        <v>2.232466666666667</v>
+        <v>2.23215</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2.242</v>
+        <v>2.238</v>
       </c>
       <c r="C36" t="n">
-        <v>2.25</v>
+        <v>2.24</v>
       </c>
       <c r="D36" t="n">
-        <v>2.25</v>
+        <v>2.24</v>
       </c>
       <c r="E36" t="n">
-        <v>2.242</v>
+        <v>2.238</v>
       </c>
       <c r="F36" t="n">
-        <v>3877.0436</v>
+        <v>560049.1161</v>
       </c>
       <c r="G36" t="n">
-        <v>2.23295</v>
+        <v>2.232466666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>2.242</v>
+      </c>
+      <c r="C37" t="n">
         <v>2.25</v>
       </c>
-      <c r="C37" t="n">
-        <v>2.257</v>
-      </c>
       <c r="D37" t="n">
-        <v>2.257</v>
+        <v>2.25</v>
       </c>
       <c r="E37" t="n">
-        <v>2.25</v>
+        <v>2.242</v>
       </c>
       <c r="F37" t="n">
-        <v>20000</v>
+        <v>3877.0436</v>
       </c>
       <c r="G37" t="n">
-        <v>2.23355</v>
+        <v>2.23295</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2.257</v>
+        <v>2.25</v>
       </c>
       <c r="C38" t="n">
         <v>2.257</v>
@@ -1702,13 +1702,13 @@
         <v>2.257</v>
       </c>
       <c r="E38" t="n">
-        <v>2.257</v>
+        <v>2.25</v>
       </c>
       <c r="F38" t="n">
-        <v>1644</v>
+        <v>20000</v>
       </c>
       <c r="G38" t="n">
-        <v>2.2339</v>
+        <v>2.23355</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2.254</v>
+        <v>2.257</v>
       </c>
       <c r="C39" t="n">
         <v>2.257</v>
@@ -1737,13 +1737,13 @@
         <v>2.257</v>
       </c>
       <c r="E39" t="n">
-        <v>2.254</v>
+        <v>2.257</v>
       </c>
       <c r="F39" t="n">
-        <v>80240</v>
+        <v>1644</v>
       </c>
       <c r="G39" t="n">
-        <v>2.2342</v>
+        <v>2.2339</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2.253</v>
+        <v>2.254</v>
       </c>
       <c r="C40" t="n">
-        <v>2.24</v>
+        <v>2.257</v>
       </c>
       <c r="D40" t="n">
-        <v>2.253</v>
+        <v>2.257</v>
       </c>
       <c r="E40" t="n">
-        <v>2.24</v>
+        <v>2.254</v>
       </c>
       <c r="F40" t="n">
-        <v>46214.7599</v>
+        <v>80240</v>
       </c>
       <c r="G40" t="n">
-        <v>2.234216666666667</v>
+        <v>2.2342</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>2.253</v>
+      </c>
+      <c r="C41" t="n">
         <v>2.24</v>
       </c>
-      <c r="C41" t="n">
-        <v>2.237</v>
-      </c>
       <c r="D41" t="n">
+        <v>2.253</v>
+      </c>
+      <c r="E41" t="n">
         <v>2.24</v>
       </c>
-      <c r="E41" t="n">
-        <v>2.237</v>
-      </c>
       <c r="F41" t="n">
-        <v>3740</v>
+        <v>46214.7599</v>
       </c>
       <c r="G41" t="n">
-        <v>2.23465</v>
+        <v>2.234216666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2.236</v>
+        <v>2.24</v>
       </c>
       <c r="C42" t="n">
-        <v>2.235</v>
+        <v>2.237</v>
       </c>
       <c r="D42" t="n">
-        <v>2.236</v>
+        <v>2.24</v>
       </c>
       <c r="E42" t="n">
-        <v>2.235</v>
+        <v>2.237</v>
       </c>
       <c r="F42" t="n">
-        <v>41893.0992</v>
+        <v>3740</v>
       </c>
       <c r="G42" t="n">
-        <v>2.234583333333334</v>
+        <v>2.23465</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2.23</v>
+        <v>2.236</v>
       </c>
       <c r="C43" t="n">
-        <v>2.23</v>
+        <v>2.235</v>
       </c>
       <c r="D43" t="n">
-        <v>2.23</v>
+        <v>2.236</v>
       </c>
       <c r="E43" t="n">
-        <v>2.23</v>
+        <v>2.235</v>
       </c>
       <c r="F43" t="n">
-        <v>310848.4761</v>
+        <v>41893.0992</v>
       </c>
       <c r="G43" t="n">
-        <v>2.2351</v>
+        <v>2.234583333333334</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2.213</v>
+        <v>2.23</v>
       </c>
       <c r="C44" t="n">
-        <v>2.213</v>
+        <v>2.23</v>
       </c>
       <c r="D44" t="n">
-        <v>2.213</v>
+        <v>2.23</v>
       </c>
       <c r="E44" t="n">
-        <v>2.213</v>
+        <v>2.23</v>
       </c>
       <c r="F44" t="n">
-        <v>230</v>
+        <v>310848.4761</v>
       </c>
       <c r="G44" t="n">
-        <v>2.235333333333333</v>
+        <v>2.2351</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2.24</v>
+        <v>2.213</v>
       </c>
       <c r="C45" t="n">
-        <v>2.24</v>
+        <v>2.213</v>
       </c>
       <c r="D45" t="n">
-        <v>2.24</v>
+        <v>2.213</v>
       </c>
       <c r="E45" t="n">
-        <v>2.24</v>
+        <v>2.213</v>
       </c>
       <c r="F45" t="n">
-        <v>26221.0744</v>
+        <v>230</v>
       </c>
       <c r="G45" t="n">
-        <v>2.235833333333333</v>
+        <v>2.235333333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1976,28 +1976,32 @@
         <v>2.24</v>
       </c>
       <c r="C46" t="n">
-        <v>2.25</v>
+        <v>2.24</v>
       </c>
       <c r="D46" t="n">
-        <v>2.25</v>
+        <v>2.24</v>
       </c>
       <c r="E46" t="n">
         <v>2.24</v>
       </c>
       <c r="F46" t="n">
-        <v>430210.5599</v>
+        <v>26221.0744</v>
       </c>
       <c r="G46" t="n">
-        <v>2.236499999999999</v>
+        <v>2.235833333333333</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>2.213</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2.213</v>
+      </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
@@ -2011,29 +2015,37 @@
         <v>2.24</v>
       </c>
       <c r="C47" t="n">
-        <v>2.24</v>
+        <v>2.25</v>
       </c>
       <c r="D47" t="n">
-        <v>2.24</v>
+        <v>2.25</v>
       </c>
       <c r="E47" t="n">
         <v>2.24</v>
       </c>
       <c r="F47" t="n">
-        <v>230</v>
+        <v>430210.5599</v>
       </c>
       <c r="G47" t="n">
-        <v>2.23715</v>
+        <v>2.236499999999999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K47" t="n">
+        <v>2.213</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2046,19 +2058,19 @@
         <v>2.24</v>
       </c>
       <c r="C48" t="n">
-        <v>2.23</v>
+        <v>2.24</v>
       </c>
       <c r="D48" t="n">
         <v>2.24</v>
       </c>
       <c r="E48" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="F48" t="n">
-        <v>70798.6679</v>
+        <v>230</v>
       </c>
       <c r="G48" t="n">
-        <v>2.237633333333333</v>
+        <v>2.23715</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2067,8 +2079,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>2.213</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2084,16 +2102,16 @@
         <v>2.23</v>
       </c>
       <c r="D49" t="n">
-        <v>2.249</v>
+        <v>2.24</v>
       </c>
       <c r="E49" t="n">
-        <v>2.23</v>
+        <v>2.22</v>
       </c>
       <c r="F49" t="n">
-        <v>696</v>
+        <v>70798.6679</v>
       </c>
       <c r="G49" t="n">
-        <v>2.237683333333333</v>
+        <v>2.237633333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2116,19 +2134,19 @@
         <v>2.24</v>
       </c>
       <c r="C50" t="n">
-        <v>2.256</v>
+        <v>2.23</v>
       </c>
       <c r="D50" t="n">
-        <v>2.256</v>
+        <v>2.249</v>
       </c>
       <c r="E50" t="n">
-        <v>2.24</v>
+        <v>2.23</v>
       </c>
       <c r="F50" t="n">
-        <v>230</v>
+        <v>696</v>
       </c>
       <c r="G50" t="n">
-        <v>2.238166666666666</v>
+        <v>2.237683333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2166,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2.23</v>
+        <v>2.24</v>
       </c>
       <c r="C51" t="n">
-        <v>2.23</v>
+        <v>2.256</v>
       </c>
       <c r="D51" t="n">
-        <v>2.23</v>
+        <v>2.256</v>
       </c>
       <c r="E51" t="n">
-        <v>2.23</v>
+        <v>2.24</v>
       </c>
       <c r="F51" t="n">
         <v>230</v>
       </c>
       <c r="G51" t="n">
-        <v>2.238616666666666</v>
+        <v>2.238166666666666</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2201,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="C52" t="n">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="D52" t="n">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="E52" t="n">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="F52" t="n">
-        <v>806.2804</v>
+        <v>230</v>
       </c>
       <c r="G52" t="n">
-        <v>2.239399999999999</v>
+        <v>2.238616666666666</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2236,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2.234</v>
+        <v>2.25</v>
       </c>
       <c r="C53" t="n">
-        <v>2.245</v>
+        <v>2.25</v>
       </c>
       <c r="D53" t="n">
-        <v>2.245</v>
+        <v>2.25</v>
       </c>
       <c r="E53" t="n">
-        <v>2.234</v>
+        <v>2.25</v>
       </c>
       <c r="F53" t="n">
-        <v>2449.850497772828</v>
+        <v>806.2804</v>
       </c>
       <c r="G53" t="n">
-        <v>2.240099999999999</v>
+        <v>2.239399999999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2271,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2.23</v>
+        <v>2.234</v>
       </c>
       <c r="C54" t="n">
-        <v>2.23</v>
+        <v>2.245</v>
       </c>
       <c r="D54" t="n">
-        <v>2.23</v>
+        <v>2.245</v>
       </c>
       <c r="E54" t="n">
-        <v>2.23</v>
+        <v>2.234</v>
       </c>
       <c r="F54" t="n">
-        <v>230</v>
+        <v>2449.850497772828</v>
       </c>
       <c r="G54" t="n">
-        <v>2.240549999999999</v>
+        <v>2.240099999999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2306,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2.243</v>
+        <v>2.23</v>
       </c>
       <c r="C55" t="n">
-        <v>2.243</v>
+        <v>2.23</v>
       </c>
       <c r="D55" t="n">
-        <v>2.243</v>
+        <v>2.23</v>
       </c>
       <c r="E55" t="n">
-        <v>2.243</v>
+        <v>2.23</v>
       </c>
       <c r="F55" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="G55" t="n">
-        <v>2.241099999999999</v>
+        <v>2.240549999999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2341,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2.217</v>
+        <v>2.243</v>
       </c>
       <c r="C56" t="n">
-        <v>2.217</v>
+        <v>2.243</v>
       </c>
       <c r="D56" t="n">
-        <v>2.217</v>
+        <v>2.243</v>
       </c>
       <c r="E56" t="n">
-        <v>2.217</v>
+        <v>2.243</v>
       </c>
       <c r="F56" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="G56" t="n">
-        <v>2.241216666666666</v>
+        <v>2.241099999999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2376,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2.236</v>
+        <v>2.217</v>
       </c>
       <c r="C57" t="n">
-        <v>2.236</v>
+        <v>2.217</v>
       </c>
       <c r="D57" t="n">
-        <v>2.236</v>
+        <v>2.217</v>
       </c>
       <c r="E57" t="n">
-        <v>2.236</v>
+        <v>2.217</v>
       </c>
       <c r="F57" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="G57" t="n">
-        <v>2.241649999999999</v>
+        <v>2.241216666666666</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2411,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2.22</v>
+        <v>2.236</v>
       </c>
       <c r="C58" t="n">
-        <v>2.22</v>
+        <v>2.236</v>
       </c>
       <c r="D58" t="n">
-        <v>2.22</v>
+        <v>2.236</v>
       </c>
       <c r="E58" t="n">
-        <v>2.22</v>
+        <v>2.236</v>
       </c>
       <c r="F58" t="n">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="G58" t="n">
-        <v>2.241499999999998</v>
+        <v>2.241649999999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2446,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2.23</v>
+        <v>2.22</v>
       </c>
       <c r="C59" t="n">
         <v>2.22</v>
       </c>
       <c r="D59" t="n">
-        <v>2.23</v>
+        <v>2.22</v>
       </c>
       <c r="E59" t="n">
         <v>2.22</v>
       </c>
       <c r="F59" t="n">
-        <v>1167.8387</v>
+        <v>227</v>
       </c>
       <c r="G59" t="n">
-        <v>2.241733333333332</v>
+        <v>2.241499999999998</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2481,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2.224</v>
+        <v>2.23</v>
       </c>
       <c r="C60" t="n">
-        <v>2.224</v>
+        <v>2.22</v>
       </c>
       <c r="D60" t="n">
-        <v>2.224</v>
+        <v>2.23</v>
       </c>
       <c r="E60" t="n">
-        <v>2.224</v>
+        <v>2.22</v>
       </c>
       <c r="F60" t="n">
-        <v>21110.2276</v>
+        <v>1167.8387</v>
       </c>
       <c r="G60" t="n">
-        <v>2.242049999999998</v>
+        <v>2.241733333333332</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2516,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2.22</v>
+        <v>2.224</v>
       </c>
       <c r="C61" t="n">
-        <v>2.22</v>
+        <v>2.224</v>
       </c>
       <c r="D61" t="n">
-        <v>2.22</v>
+        <v>2.224</v>
       </c>
       <c r="E61" t="n">
-        <v>2.22</v>
+        <v>2.224</v>
       </c>
       <c r="F61" t="n">
-        <v>230</v>
+        <v>21110.2276</v>
       </c>
       <c r="G61" t="n">
-        <v>2.242383333333331</v>
+        <v>2.242049999999998</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,35 +2551,31 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2.226</v>
+        <v>2.22</v>
       </c>
       <c r="C62" t="n">
-        <v>2.226</v>
+        <v>2.22</v>
       </c>
       <c r="D62" t="n">
-        <v>2.226</v>
+        <v>2.22</v>
       </c>
       <c r="E62" t="n">
-        <v>2.226</v>
+        <v>2.22</v>
       </c>
       <c r="F62" t="n">
-        <v>2500</v>
+        <v>230</v>
       </c>
       <c r="G62" t="n">
-        <v>2.242816666666665</v>
+        <v>2.242383333333331</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="K62" t="n">
-        <v>2.22</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
@@ -2584,28 +2598,20 @@
         <v>2.226</v>
       </c>
       <c r="F63" t="n">
-        <v>230</v>
+        <v>2500</v>
       </c>
       <c r="G63" t="n">
-        <v>2.243266666666665</v>
+        <v>2.242816666666665</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>2.226</v>
-      </c>
-      <c r="K63" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2615,22 +2621,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2.229</v>
+        <v>2.226</v>
       </c>
       <c r="C64" t="n">
-        <v>2.229</v>
+        <v>2.226</v>
       </c>
       <c r="D64" t="n">
-        <v>2.229</v>
+        <v>2.226</v>
       </c>
       <c r="E64" t="n">
-        <v>2.229</v>
+        <v>2.226</v>
       </c>
       <c r="F64" t="n">
-        <v>6495.9594</v>
+        <v>230</v>
       </c>
       <c r="G64" t="n">
-        <v>2.243249999999998</v>
+        <v>2.243266666666665</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2639,14 +2645,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2656,22 +2656,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2.23</v>
+        <v>2.229</v>
       </c>
       <c r="C65" t="n">
-        <v>2.24</v>
+        <v>2.229</v>
       </c>
       <c r="D65" t="n">
-        <v>2.24</v>
+        <v>2.229</v>
       </c>
       <c r="E65" t="n">
-        <v>2.23</v>
+        <v>2.229</v>
       </c>
       <c r="F65" t="n">
-        <v>2682.139112946429</v>
+        <v>6495.9594</v>
       </c>
       <c r="G65" t="n">
-        <v>2.243266666666665</v>
+        <v>2.243249999999998</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2691,7 +2691,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2.229</v>
+        <v>2.23</v>
       </c>
       <c r="C66" t="n">
         <v>2.24</v>
@@ -2700,10 +2700,10 @@
         <v>2.24</v>
       </c>
       <c r="E66" t="n">
-        <v>2.229</v>
+        <v>2.23</v>
       </c>
       <c r="F66" t="n">
-        <v>27482.88848705357</v>
+        <v>2682.139112946429</v>
       </c>
       <c r="G66" t="n">
         <v>2.243266666666665</v>
@@ -2726,10 +2726,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>2.229</v>
+      </c>
+      <c r="C67" t="n">
         <v>2.24</v>
-      </c>
-      <c r="C67" t="n">
-        <v>2.229</v>
       </c>
       <c r="D67" t="n">
         <v>2.24</v>
@@ -2738,10 +2738,10 @@
         <v>2.229</v>
       </c>
       <c r="F67" t="n">
-        <v>2147.111512946429</v>
+        <v>27482.88848705357</v>
       </c>
       <c r="G67" t="n">
-        <v>2.243099999999999</v>
+        <v>2.243266666666665</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2761,22 +2761,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2.239</v>
+        <v>2.24</v>
       </c>
       <c r="C68" t="n">
-        <v>2.239</v>
+        <v>2.229</v>
       </c>
       <c r="D68" t="n">
-        <v>2.239</v>
+        <v>2.24</v>
       </c>
       <c r="E68" t="n">
-        <v>2.239</v>
+        <v>2.229</v>
       </c>
       <c r="F68" t="n">
-        <v>670.2637999999999</v>
+        <v>2147.111512946429</v>
       </c>
       <c r="G68" t="n">
-        <v>2.243116666666666</v>
+        <v>2.243099999999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2796,38 +2796,32 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2.229</v>
+        <v>2.239</v>
       </c>
       <c r="C69" t="n">
-        <v>2.226</v>
+        <v>2.239</v>
       </c>
       <c r="D69" t="n">
-        <v>2.229</v>
+        <v>2.239</v>
       </c>
       <c r="E69" t="n">
-        <v>2.226</v>
+        <v>2.239</v>
       </c>
       <c r="F69" t="n">
-        <v>145539.1444</v>
+        <v>670.2637999999999</v>
       </c>
       <c r="G69" t="n">
-        <v>2.242866666666665</v>
+        <v>2.243116666666666</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>2.239</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2837,38 +2831,32 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>2.229</v>
+      </c>
+      <c r="C70" t="n">
         <v>2.226</v>
-      </c>
-      <c r="C70" t="n">
-        <v>2.22</v>
       </c>
       <c r="D70" t="n">
         <v>2.229</v>
       </c>
       <c r="E70" t="n">
-        <v>2.22</v>
+        <v>2.226</v>
       </c>
       <c r="F70" t="n">
-        <v>7693.6809</v>
+        <v>145539.1444</v>
       </c>
       <c r="G70" t="n">
-        <v>2.242499999999999</v>
+        <v>2.242866666666665</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>2.226</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2878,10 +2866,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>2.226</v>
+      </c>
+      <c r="C71" t="n">
         <v>2.22</v>
-      </c>
-      <c r="C71" t="n">
-        <v>2.229</v>
       </c>
       <c r="D71" t="n">
         <v>2.229</v>
@@ -2890,26 +2878,20 @@
         <v>2.22</v>
       </c>
       <c r="F71" t="n">
-        <v>41832.336</v>
+        <v>7693.6809</v>
       </c>
       <c r="G71" t="n">
-        <v>2.242283333333333</v>
+        <v>2.242499999999999</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>2.22</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2919,22 +2901,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2.221</v>
+        <v>2.22</v>
       </c>
       <c r="C72" t="n">
-        <v>2.221</v>
+        <v>2.229</v>
       </c>
       <c r="D72" t="n">
-        <v>2.221</v>
+        <v>2.229</v>
       </c>
       <c r="E72" t="n">
-        <v>2.221</v>
+        <v>2.22</v>
       </c>
       <c r="F72" t="n">
-        <v>230</v>
+        <v>41832.336</v>
       </c>
       <c r="G72" t="n">
-        <v>2.241966666666666</v>
+        <v>2.242283333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2944,11 +2926,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2958,22 +2936,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2.222</v>
+        <v>2.221</v>
       </c>
       <c r="C73" t="n">
-        <v>2.222</v>
+        <v>2.221</v>
       </c>
       <c r="D73" t="n">
-        <v>2.222</v>
+        <v>2.221</v>
       </c>
       <c r="E73" t="n">
-        <v>2.222</v>
+        <v>2.221</v>
       </c>
       <c r="F73" t="n">
         <v>230</v>
       </c>
       <c r="G73" t="n">
-        <v>2.241649999999999</v>
+        <v>2.241966666666666</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2983,11 +2961,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2997,22 +2971,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2.229</v>
+        <v>2.222</v>
       </c>
       <c r="C74" t="n">
-        <v>2.229</v>
+        <v>2.222</v>
       </c>
       <c r="D74" t="n">
-        <v>2.229</v>
+        <v>2.222</v>
       </c>
       <c r="E74" t="n">
-        <v>2.221</v>
+        <v>2.222</v>
       </c>
       <c r="F74" t="n">
-        <v>1700524.5815</v>
+        <v>230</v>
       </c>
       <c r="G74" t="n">
-        <v>2.241433333333333</v>
+        <v>2.241649999999999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3022,11 +2996,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3039,7 +3009,7 @@
         <v>2.229</v>
       </c>
       <c r="C75" t="n">
-        <v>2.221</v>
+        <v>2.229</v>
       </c>
       <c r="D75" t="n">
         <v>2.229</v>
@@ -3048,10 +3018,10 @@
         <v>2.221</v>
       </c>
       <c r="F75" t="n">
-        <v>1629.8158</v>
+        <v>1700524.5815</v>
       </c>
       <c r="G75" t="n">
-        <v>2.241</v>
+        <v>2.241433333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3061,11 +3031,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3078,19 +3044,19 @@
         <v>2.229</v>
       </c>
       <c r="C76" t="n">
-        <v>2.229</v>
+        <v>2.221</v>
       </c>
       <c r="D76" t="n">
         <v>2.229</v>
       </c>
       <c r="E76" t="n">
-        <v>2.229</v>
+        <v>2.221</v>
       </c>
       <c r="F76" t="n">
-        <v>712377.5621</v>
+        <v>1629.8158</v>
       </c>
       <c r="G76" t="n">
-        <v>2.240733333333333</v>
+        <v>2.241</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3100,11 +3066,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3114,22 +3076,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2.243</v>
+        <v>2.229</v>
       </c>
       <c r="C77" t="n">
-        <v>2.243</v>
+        <v>2.229</v>
       </c>
       <c r="D77" t="n">
-        <v>2.243</v>
+        <v>2.229</v>
       </c>
       <c r="E77" t="n">
-        <v>2.243</v>
+        <v>2.229</v>
       </c>
       <c r="F77" t="n">
-        <v>95334.6314</v>
+        <v>712377.5621</v>
       </c>
       <c r="G77" t="n">
-        <v>2.240716666666666</v>
+        <v>2.240733333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3139,11 +3101,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3156,19 +3114,19 @@
         <v>2.243</v>
       </c>
       <c r="C78" t="n">
-        <v>2.23</v>
+        <v>2.243</v>
       </c>
       <c r="D78" t="n">
-        <v>2.25</v>
+        <v>2.243</v>
       </c>
       <c r="E78" t="n">
-        <v>2.23</v>
+        <v>2.243</v>
       </c>
       <c r="F78" t="n">
-        <v>371538.0221</v>
+        <v>95334.6314</v>
       </c>
       <c r="G78" t="n">
-        <v>2.240483333333333</v>
+        <v>2.240716666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3178,11 +3136,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3192,10 +3146,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2.23</v>
+        <v>2.243</v>
       </c>
       <c r="C79" t="n">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="D79" t="n">
         <v>2.25</v>
@@ -3204,10 +3158,10 @@
         <v>2.23</v>
       </c>
       <c r="F79" t="n">
-        <v>1830234.9636</v>
+        <v>371538.0221</v>
       </c>
       <c r="G79" t="n">
-        <v>2.240583333333333</v>
+        <v>2.240483333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3217,11 +3171,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3231,22 +3181,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2.249</v>
+        <v>2.23</v>
       </c>
       <c r="C80" t="n">
-        <v>2.249</v>
+        <v>2.25</v>
       </c>
       <c r="D80" t="n">
-        <v>2.249</v>
+        <v>2.25</v>
       </c>
       <c r="E80" t="n">
-        <v>2.249</v>
+        <v>2.23</v>
       </c>
       <c r="F80" t="n">
-        <v>892230.2026</v>
+        <v>1830234.9636</v>
       </c>
       <c r="G80" t="n">
-        <v>2.240316666666666</v>
+        <v>2.240583333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3256,11 +3206,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3270,22 +3216,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2.245</v>
+        <v>2.249</v>
       </c>
       <c r="C81" t="n">
-        <v>2.244</v>
+        <v>2.249</v>
       </c>
       <c r="D81" t="n">
-        <v>2.245</v>
+        <v>2.249</v>
       </c>
       <c r="E81" t="n">
-        <v>2.244</v>
+        <v>2.249</v>
       </c>
       <c r="F81" t="n">
-        <v>2500</v>
+        <v>892230.2026</v>
       </c>
       <c r="G81" t="n">
-        <v>2.24005</v>
+        <v>2.240316666666666</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3295,11 +3241,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3309,22 +3251,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2.248</v>
+        <v>2.245</v>
       </c>
       <c r="C82" t="n">
-        <v>2.248</v>
+        <v>2.244</v>
       </c>
       <c r="D82" t="n">
-        <v>2.248</v>
+        <v>2.245</v>
       </c>
       <c r="E82" t="n">
-        <v>2.248</v>
+        <v>2.244</v>
       </c>
       <c r="F82" t="n">
-        <v>230</v>
+        <v>2500</v>
       </c>
       <c r="G82" t="n">
-        <v>2.239833333333333</v>
+        <v>2.24005</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3334,11 +3276,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3348,22 +3286,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2.242</v>
+        <v>2.248</v>
       </c>
       <c r="C83" t="n">
-        <v>2.232</v>
+        <v>2.248</v>
       </c>
       <c r="D83" t="n">
-        <v>2.242</v>
+        <v>2.248</v>
       </c>
       <c r="E83" t="n">
-        <v>2.232</v>
+        <v>2.248</v>
       </c>
       <c r="F83" t="n">
-        <v>4794.955</v>
+        <v>230</v>
       </c>
       <c r="G83" t="n">
-        <v>2.23935</v>
+        <v>2.239833333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3373,11 +3311,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3387,22 +3321,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2.249</v>
+        <v>2.242</v>
       </c>
       <c r="C84" t="n">
-        <v>2.249</v>
+        <v>2.232</v>
       </c>
       <c r="D84" t="n">
-        <v>2.249</v>
+        <v>2.242</v>
       </c>
       <c r="E84" t="n">
-        <v>2.249</v>
+        <v>2.232</v>
       </c>
       <c r="F84" t="n">
-        <v>240</v>
+        <v>4794.955</v>
       </c>
       <c r="G84" t="n">
-        <v>2.23895</v>
+        <v>2.23935</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3412,11 +3346,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3426,22 +3356,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2.232</v>
+        <v>2.249</v>
       </c>
       <c r="C85" t="n">
-        <v>2.232</v>
+        <v>2.249</v>
       </c>
       <c r="D85" t="n">
-        <v>2.232</v>
+        <v>2.249</v>
       </c>
       <c r="E85" t="n">
-        <v>2.232</v>
+        <v>2.249</v>
       </c>
       <c r="F85" t="n">
-        <v>3832.6851</v>
+        <v>240</v>
       </c>
       <c r="G85" t="n">
-        <v>2.238183333333333</v>
+        <v>2.23895</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3451,11 +3381,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3465,22 +3391,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2.23</v>
+        <v>2.232</v>
       </c>
       <c r="C86" t="n">
-        <v>2.23</v>
+        <v>2.232</v>
       </c>
       <c r="D86" t="n">
-        <v>2.23</v>
+        <v>2.232</v>
       </c>
       <c r="E86" t="n">
-        <v>2.23</v>
+        <v>2.232</v>
       </c>
       <c r="F86" t="n">
-        <v>64234.6807</v>
+        <v>3832.6851</v>
       </c>
       <c r="G86" t="n">
-        <v>2.237416666666666</v>
+        <v>2.238183333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3490,11 +3416,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3516,10 +3438,10 @@
         <v>2.23</v>
       </c>
       <c r="F87" t="n">
-        <v>83275.455</v>
+        <v>64234.6807</v>
       </c>
       <c r="G87" t="n">
-        <v>2.236616666666666</v>
+        <v>2.237416666666666</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3529,11 +3451,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3543,22 +3461,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2.227</v>
+        <v>2.23</v>
       </c>
       <c r="C88" t="n">
-        <v>2.224</v>
+        <v>2.23</v>
       </c>
       <c r="D88" t="n">
-        <v>2.227</v>
+        <v>2.23</v>
       </c>
       <c r="E88" t="n">
-        <v>2.224</v>
+        <v>2.23</v>
       </c>
       <c r="F88" t="n">
-        <v>166822.2323</v>
+        <v>83275.455</v>
       </c>
       <c r="G88" t="n">
-        <v>2.236333333333333</v>
+        <v>2.236616666666666</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3568,11 +3486,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3582,22 +3496,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2.226</v>
+        <v>2.227</v>
       </c>
       <c r="C89" t="n">
-        <v>2.249</v>
+        <v>2.224</v>
       </c>
       <c r="D89" t="n">
-        <v>2.249</v>
+        <v>2.227</v>
       </c>
       <c r="E89" t="n">
-        <v>2.226</v>
+        <v>2.224</v>
       </c>
       <c r="F89" t="n">
-        <v>9350.4146</v>
+        <v>166822.2323</v>
       </c>
       <c r="G89" t="n">
-        <v>2.236316666666666</v>
+        <v>2.236333333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3607,11 +3521,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3621,22 +3531,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2.247</v>
+        <v>2.226</v>
       </c>
       <c r="C90" t="n">
-        <v>2.247</v>
+        <v>2.249</v>
       </c>
       <c r="D90" t="n">
-        <v>2.247</v>
+        <v>2.249</v>
       </c>
       <c r="E90" t="n">
-        <v>2.247</v>
+        <v>2.226</v>
       </c>
       <c r="F90" t="n">
-        <v>444</v>
+        <v>9350.4146</v>
       </c>
       <c r="G90" t="n">
-        <v>2.235983333333332</v>
+        <v>2.236316666666666</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3646,11 +3556,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3663,19 +3569,19 @@
         <v>2.247</v>
       </c>
       <c r="C91" t="n">
-        <v>2.225</v>
+        <v>2.247</v>
       </c>
       <c r="D91" t="n">
-        <v>2.249</v>
+        <v>2.247</v>
       </c>
       <c r="E91" t="n">
-        <v>2.225</v>
+        <v>2.247</v>
       </c>
       <c r="F91" t="n">
-        <v>998810.8617</v>
+        <v>444</v>
       </c>
       <c r="G91" t="n">
-        <v>2.235566666666665</v>
+        <v>2.235983333333332</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3685,11 +3591,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3699,22 +3601,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2.224</v>
+        <v>2.247</v>
       </c>
       <c r="C92" t="n">
-        <v>2.224</v>
+        <v>2.225</v>
       </c>
       <c r="D92" t="n">
-        <v>2.224</v>
+        <v>2.249</v>
       </c>
       <c r="E92" t="n">
-        <v>2.224</v>
+        <v>2.225</v>
       </c>
       <c r="F92" t="n">
-        <v>52069.2409</v>
+        <v>998810.8617</v>
       </c>
       <c r="G92" t="n">
-        <v>2.235149999999999</v>
+        <v>2.235566666666665</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3724,11 +3626,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3741,19 +3639,19 @@
         <v>2.224</v>
       </c>
       <c r="C93" t="n">
-        <v>2.222</v>
+        <v>2.224</v>
       </c>
       <c r="D93" t="n">
         <v>2.224</v>
       </c>
       <c r="E93" t="n">
-        <v>2.222</v>
+        <v>2.224</v>
       </c>
       <c r="F93" t="n">
-        <v>1196876.9486</v>
+        <v>52069.2409</v>
       </c>
       <c r="G93" t="n">
-        <v>2.234849999999999</v>
+        <v>2.235149999999999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3763,11 +3661,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3777,22 +3671,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2.221</v>
+        <v>2.224</v>
       </c>
       <c r="C94" t="n">
-        <v>2.221</v>
+        <v>2.222</v>
       </c>
       <c r="D94" t="n">
-        <v>2.221</v>
+        <v>2.224</v>
       </c>
       <c r="E94" t="n">
-        <v>2.221</v>
+        <v>2.222</v>
       </c>
       <c r="F94" t="n">
-        <v>3383.8637</v>
+        <v>1196876.9486</v>
       </c>
       <c r="G94" t="n">
-        <v>2.234533333333332</v>
+        <v>2.234849999999999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3802,11 +3696,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3816,22 +3706,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2.225</v>
+        <v>2.221</v>
       </c>
       <c r="C95" t="n">
-        <v>2.225</v>
+        <v>2.221</v>
       </c>
       <c r="D95" t="n">
-        <v>2.225</v>
+        <v>2.221</v>
       </c>
       <c r="E95" t="n">
-        <v>2.225</v>
+        <v>2.221</v>
       </c>
       <c r="F95" t="n">
-        <v>716306.3293</v>
+        <v>3383.8637</v>
       </c>
       <c r="G95" t="n">
-        <v>2.234283333333332</v>
+        <v>2.234533333333332</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3841,11 +3731,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3855,22 +3741,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2.219</v>
+        <v>2.225</v>
       </c>
       <c r="C96" t="n">
-        <v>2.219</v>
+        <v>2.225</v>
       </c>
       <c r="D96" t="n">
-        <v>2.219</v>
+        <v>2.225</v>
       </c>
       <c r="E96" t="n">
-        <v>2.219</v>
+        <v>2.225</v>
       </c>
       <c r="F96" t="n">
-        <v>114999.6511</v>
+        <v>716306.3293</v>
       </c>
       <c r="G96" t="n">
-        <v>2.233766666666665</v>
+        <v>2.234283333333332</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3880,11 +3766,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3894,22 +3776,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2.23</v>
+        <v>2.219</v>
       </c>
       <c r="C97" t="n">
-        <v>2.23</v>
+        <v>2.219</v>
       </c>
       <c r="D97" t="n">
-        <v>2.23</v>
+        <v>2.219</v>
       </c>
       <c r="E97" t="n">
-        <v>2.23</v>
+        <v>2.219</v>
       </c>
       <c r="F97" t="n">
-        <v>2918.0456</v>
+        <v>114999.6511</v>
       </c>
       <c r="G97" t="n">
-        <v>2.233316666666665</v>
+        <v>2.233766666666665</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3919,11 +3801,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3936,19 +3814,19 @@
         <v>2.23</v>
       </c>
       <c r="C98" t="n">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="D98" t="n">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="E98" t="n">
         <v>2.23</v>
       </c>
       <c r="F98" t="n">
-        <v>178550.6979</v>
+        <v>2918.0456</v>
       </c>
       <c r="G98" t="n">
-        <v>2.233199999999998</v>
+        <v>2.233316666666665</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3958,11 +3836,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3972,7 +3846,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2.248</v>
+        <v>2.23</v>
       </c>
       <c r="C99" t="n">
         <v>2.25</v>
@@ -3981,13 +3855,13 @@
         <v>2.25</v>
       </c>
       <c r="E99" t="n">
-        <v>2.244</v>
+        <v>2.23</v>
       </c>
       <c r="F99" t="n">
-        <v>183951.5553</v>
+        <v>178550.6979</v>
       </c>
       <c r="G99" t="n">
-        <v>2.233083333333331</v>
+        <v>2.233199999999998</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3997,11 +3871,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4011,10 +3881,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
+        <v>2.248</v>
+      </c>
+      <c r="C100" t="n">
         <v>2.25</v>
-      </c>
-      <c r="C100" t="n">
-        <v>2.244</v>
       </c>
       <c r="D100" t="n">
         <v>2.25</v>
@@ -4023,10 +3893,10 @@
         <v>2.244</v>
       </c>
       <c r="F100" t="n">
-        <v>2689.8504</v>
+        <v>183951.5553</v>
       </c>
       <c r="G100" t="n">
-        <v>2.233149999999998</v>
+        <v>2.233083333333331</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4036,11 +3906,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4053,19 +3919,19 @@
         <v>2.25</v>
       </c>
       <c r="C101" t="n">
-        <v>2.274</v>
+        <v>2.244</v>
       </c>
       <c r="D101" t="n">
-        <v>2.275</v>
+        <v>2.25</v>
       </c>
       <c r="E101" t="n">
-        <v>2.25</v>
+        <v>2.244</v>
       </c>
       <c r="F101" t="n">
-        <v>44482.00624114286</v>
+        <v>2689.8504</v>
       </c>
       <c r="G101" t="n">
-        <v>2.233766666666665</v>
+        <v>2.233149999999998</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4075,11 +3941,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4089,22 +3951,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2.272</v>
+        <v>2.25</v>
       </c>
       <c r="C102" t="n">
-        <v>2.272</v>
+        <v>2.274</v>
       </c>
       <c r="D102" t="n">
-        <v>2.272</v>
+        <v>2.275</v>
       </c>
       <c r="E102" t="n">
-        <v>2.272</v>
+        <v>2.25</v>
       </c>
       <c r="F102" t="n">
-        <v>240</v>
+        <v>44482.00624114286</v>
       </c>
       <c r="G102" t="n">
-        <v>2.234383333333331</v>
+        <v>2.233766666666665</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4114,11 +3976,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4128,22 +3986,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2.27</v>
+        <v>2.272</v>
       </c>
       <c r="C103" t="n">
-        <v>2.27</v>
+        <v>2.272</v>
       </c>
       <c r="D103" t="n">
-        <v>2.27</v>
+        <v>2.272</v>
       </c>
       <c r="E103" t="n">
-        <v>2.27</v>
+        <v>2.272</v>
       </c>
       <c r="F103" t="n">
-        <v>1950.3136</v>
+        <v>240</v>
       </c>
       <c r="G103" t="n">
-        <v>2.235049999999998</v>
+        <v>2.234383333333331</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4153,11 +4011,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4167,22 +4021,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2.269</v>
+        <v>2.27</v>
       </c>
       <c r="C104" t="n">
-        <v>2.244</v>
+        <v>2.27</v>
       </c>
       <c r="D104" t="n">
-        <v>2.269</v>
+        <v>2.27</v>
       </c>
       <c r="E104" t="n">
-        <v>2.244</v>
+        <v>2.27</v>
       </c>
       <c r="F104" t="n">
-        <v>1441105.0334</v>
+        <v>1950.3136</v>
       </c>
       <c r="G104" t="n">
-        <v>2.235566666666664</v>
+        <v>2.235049999999998</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4192,11 +4046,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4206,22 +4056,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2.244</v>
+        <v>2.269</v>
       </c>
       <c r="C105" t="n">
         <v>2.244</v>
       </c>
       <c r="D105" t="n">
-        <v>2.244</v>
+        <v>2.269</v>
       </c>
       <c r="E105" t="n">
         <v>2.244</v>
       </c>
       <c r="F105" t="n">
-        <v>444</v>
+        <v>1441105.0334</v>
       </c>
       <c r="G105" t="n">
-        <v>2.235633333333331</v>
+        <v>2.235566666666664</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4231,11 +4081,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4245,22 +4091,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2.257</v>
+        <v>2.244</v>
       </c>
       <c r="C106" t="n">
-        <v>2.257</v>
+        <v>2.244</v>
       </c>
       <c r="D106" t="n">
-        <v>2.257</v>
+        <v>2.244</v>
       </c>
       <c r="E106" t="n">
-        <v>2.257</v>
+        <v>2.244</v>
       </c>
       <c r="F106" t="n">
         <v>444</v>
       </c>
       <c r="G106" t="n">
-        <v>2.235749999999998</v>
+        <v>2.235633333333331</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4270,11 +4116,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4284,22 +4126,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2.254</v>
+        <v>2.257</v>
       </c>
       <c r="C107" t="n">
-        <v>2.254</v>
+        <v>2.257</v>
       </c>
       <c r="D107" t="n">
-        <v>2.254</v>
+        <v>2.257</v>
       </c>
       <c r="E107" t="n">
-        <v>2.254</v>
+        <v>2.257</v>
       </c>
       <c r="F107" t="n">
-        <v>1200</v>
+        <v>444</v>
       </c>
       <c r="G107" t="n">
-        <v>2.235983333333331</v>
+        <v>2.235749999999998</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4309,11 +4151,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4323,22 +4161,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2.255</v>
+        <v>2.254</v>
       </c>
       <c r="C108" t="n">
-        <v>2.255</v>
+        <v>2.254</v>
       </c>
       <c r="D108" t="n">
-        <v>2.255</v>
+        <v>2.254</v>
       </c>
       <c r="E108" t="n">
-        <v>2.255</v>
+        <v>2.254</v>
       </c>
       <c r="F108" t="n">
-        <v>240</v>
+        <v>1200</v>
       </c>
       <c r="G108" t="n">
-        <v>2.236399999999998</v>
+        <v>2.235983333333331</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4348,11 +4186,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4374,10 +4208,10 @@
         <v>2.255</v>
       </c>
       <c r="F109" t="n">
-        <v>8869.179700000001</v>
+        <v>240</v>
       </c>
       <c r="G109" t="n">
-        <v>2.236816666666664</v>
+        <v>2.236399999999998</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4387,11 +4221,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4413,10 +4243,10 @@
         <v>2.255</v>
       </c>
       <c r="F110" t="n">
-        <v>39845.6626</v>
+        <v>8869.179700000001</v>
       </c>
       <c r="G110" t="n">
-        <v>2.236799999999997</v>
+        <v>2.236816666666664</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4426,11 +4256,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4440,22 +4266,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2.26</v>
+        <v>2.255</v>
       </c>
       <c r="C111" t="n">
-        <v>2.272</v>
+        <v>2.255</v>
       </c>
       <c r="D111" t="n">
-        <v>2.272</v>
+        <v>2.255</v>
       </c>
       <c r="E111" t="n">
-        <v>2.26</v>
+        <v>2.255</v>
       </c>
       <c r="F111" t="n">
-        <v>1031414.7472</v>
+        <v>39845.6626</v>
       </c>
       <c r="G111" t="n">
-        <v>2.237499999999998</v>
+        <v>2.236799999999997</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4465,11 +4291,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4479,7 +4301,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2.272</v>
+        <v>2.26</v>
       </c>
       <c r="C112" t="n">
         <v>2.272</v>
@@ -4488,13 +4310,13 @@
         <v>2.272</v>
       </c>
       <c r="E112" t="n">
-        <v>2.272</v>
+        <v>2.26</v>
       </c>
       <c r="F112" t="n">
-        <v>29750</v>
+        <v>1031414.7472</v>
       </c>
       <c r="G112" t="n">
-        <v>2.237866666666664</v>
+        <v>2.237499999999998</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4504,11 +4326,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4530,10 +4348,10 @@
         <v>2.272</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9125</v>
+        <v>29750</v>
       </c>
       <c r="G113" t="n">
-        <v>2.238316666666664</v>
+        <v>2.237866666666664</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4543,11 +4361,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4557,22 +4371,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2.247</v>
+        <v>2.272</v>
       </c>
       <c r="C114" t="n">
-        <v>2.241</v>
+        <v>2.272</v>
       </c>
       <c r="D114" t="n">
-        <v>2.247</v>
+        <v>2.272</v>
       </c>
       <c r="E114" t="n">
-        <v>2.241</v>
+        <v>2.272</v>
       </c>
       <c r="F114" t="n">
-        <v>216690.093</v>
+        <v>0.9125</v>
       </c>
       <c r="G114" t="n">
-        <v>2.238499999999997</v>
+        <v>2.238316666666664</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4582,11 +4396,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4596,22 +4406,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2.236</v>
+        <v>2.247</v>
       </c>
       <c r="C115" t="n">
-        <v>2.223</v>
+        <v>2.241</v>
       </c>
       <c r="D115" t="n">
-        <v>2.236</v>
+        <v>2.247</v>
       </c>
       <c r="E115" t="n">
-        <v>2.223</v>
+        <v>2.241</v>
       </c>
       <c r="F115" t="n">
-        <v>4920169.138</v>
+        <v>216690.093</v>
       </c>
       <c r="G115" t="n">
-        <v>2.238166666666665</v>
+        <v>2.238499999999997</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4621,11 +4431,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4635,22 +4441,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2.222</v>
+        <v>2.236</v>
       </c>
       <c r="C116" t="n">
-        <v>2.22</v>
+        <v>2.223</v>
       </c>
       <c r="D116" t="n">
-        <v>2.222</v>
+        <v>2.236</v>
       </c>
       <c r="E116" t="n">
-        <v>2.22</v>
+        <v>2.223</v>
       </c>
       <c r="F116" t="n">
-        <v>222222</v>
+        <v>4920169.138</v>
       </c>
       <c r="G116" t="n">
-        <v>2.238216666666665</v>
+        <v>2.238166666666665</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4660,11 +4466,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4674,22 +4476,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2.23</v>
+        <v>2.222</v>
       </c>
       <c r="C117" t="n">
-        <v>2.23</v>
+        <v>2.22</v>
       </c>
       <c r="D117" t="n">
-        <v>2.23</v>
+        <v>2.222</v>
       </c>
       <c r="E117" t="n">
-        <v>2.23</v>
+        <v>2.22</v>
       </c>
       <c r="F117" t="n">
-        <v>240</v>
+        <v>222222</v>
       </c>
       <c r="G117" t="n">
-        <v>2.238116666666664</v>
+        <v>2.238216666666665</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4699,11 +4501,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4728,7 +4526,7 @@
         <v>240</v>
       </c>
       <c r="G118" t="n">
-        <v>2.238283333333331</v>
+        <v>2.238116666666664</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4738,11 +4536,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4755,19 +4549,19 @@
         <v>2.23</v>
       </c>
       <c r="C119" t="n">
-        <v>2.231</v>
+        <v>2.23</v>
       </c>
       <c r="D119" t="n">
-        <v>2.231</v>
+        <v>2.23</v>
       </c>
       <c r="E119" t="n">
         <v>2.23</v>
       </c>
       <c r="F119" t="n">
-        <v>113922.0258</v>
+        <v>240</v>
       </c>
       <c r="G119" t="n">
-        <v>2.238466666666664</v>
+        <v>2.238283333333331</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4777,11 +4571,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4791,22 +4581,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2.221</v>
+        <v>2.23</v>
       </c>
       <c r="C120" t="n">
-        <v>2.221</v>
+        <v>2.231</v>
       </c>
       <c r="D120" t="n">
-        <v>2.221</v>
+        <v>2.231</v>
       </c>
       <c r="E120" t="n">
-        <v>2.221</v>
+        <v>2.23</v>
       </c>
       <c r="F120" t="n">
-        <v>226.0121</v>
+        <v>113922.0258</v>
       </c>
       <c r="G120" t="n">
-        <v>2.238416666666665</v>
+        <v>2.238466666666664</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4816,11 +4606,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4830,22 +4616,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>2.23</v>
+        <v>2.221</v>
       </c>
       <c r="C121" t="n">
-        <v>2.23</v>
+        <v>2.221</v>
       </c>
       <c r="D121" t="n">
-        <v>2.23</v>
+        <v>2.221</v>
       </c>
       <c r="E121" t="n">
-        <v>2.23</v>
+        <v>2.221</v>
       </c>
       <c r="F121" t="n">
-        <v>32171.0443</v>
+        <v>226.0121</v>
       </c>
       <c r="G121" t="n">
-        <v>2.238583333333331</v>
+        <v>2.238416666666665</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4855,11 +4641,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4881,10 +4663,10 @@
         <v>2.23</v>
       </c>
       <c r="F122" t="n">
-        <v>14710.1206</v>
+        <v>32171.0443</v>
       </c>
       <c r="G122" t="n">
-        <v>2.238649999999998</v>
+        <v>2.238583333333331</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4894,11 +4676,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4908,22 +4686,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2.239</v>
+        <v>2.23</v>
       </c>
       <c r="C123" t="n">
-        <v>2.221</v>
+        <v>2.23</v>
       </c>
       <c r="D123" t="n">
-        <v>2.239</v>
+        <v>2.23</v>
       </c>
       <c r="E123" t="n">
-        <v>2.221</v>
+        <v>2.23</v>
       </c>
       <c r="F123" t="n">
-        <v>981415.3451</v>
+        <v>14710.1206</v>
       </c>
       <c r="G123" t="n">
-        <v>2.238566666666664</v>
+        <v>2.238649999999998</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4933,11 +4711,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4947,22 +4721,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>2.25</v>
+        <v>2.239</v>
       </c>
       <c r="C124" t="n">
-        <v>2.25</v>
+        <v>2.221</v>
       </c>
       <c r="D124" t="n">
-        <v>2.25</v>
+        <v>2.239</v>
       </c>
       <c r="E124" t="n">
-        <v>2.25</v>
+        <v>2.221</v>
       </c>
       <c r="F124" t="n">
-        <v>240</v>
+        <v>981415.3451</v>
       </c>
       <c r="G124" t="n">
-        <v>2.238916666666664</v>
+        <v>2.238566666666664</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4972,11 +4746,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4986,22 +4756,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>2.245</v>
+        <v>2.25</v>
       </c>
       <c r="C125" t="n">
-        <v>2.245</v>
+        <v>2.25</v>
       </c>
       <c r="D125" t="n">
-        <v>2.245</v>
+        <v>2.25</v>
       </c>
       <c r="E125" t="n">
-        <v>2.245</v>
+        <v>2.25</v>
       </c>
       <c r="F125" t="n">
-        <v>444</v>
+        <v>240</v>
       </c>
       <c r="G125" t="n">
-        <v>2.238999999999997</v>
+        <v>2.238916666666664</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5011,11 +4781,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5037,10 +4803,10 @@
         <v>2.245</v>
       </c>
       <c r="F126" t="n">
-        <v>240</v>
+        <v>444</v>
       </c>
       <c r="G126" t="n">
-        <v>2.239083333333331</v>
+        <v>2.238999999999997</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5050,11 +4816,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5064,22 +4826,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>2.25</v>
+        <v>2.245</v>
       </c>
       <c r="C127" t="n">
-        <v>2.25</v>
+        <v>2.245</v>
       </c>
       <c r="D127" t="n">
-        <v>2.25</v>
+        <v>2.245</v>
       </c>
       <c r="E127" t="n">
-        <v>2.25</v>
+        <v>2.245</v>
       </c>
       <c r="F127" t="n">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G127" t="n">
-        <v>2.23943333333333</v>
+        <v>2.239083333333331</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5089,11 +4851,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5115,10 +4873,10 @@
         <v>2.25</v>
       </c>
       <c r="F128" t="n">
-        <v>19566.3916</v>
+        <v>244</v>
       </c>
       <c r="G128" t="n">
-        <v>2.239616666666663</v>
+        <v>2.23943333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5128,11 +4886,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5142,22 +4896,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>2.253</v>
+        <v>2.25</v>
       </c>
       <c r="C129" t="n">
-        <v>2.253</v>
+        <v>2.25</v>
       </c>
       <c r="D129" t="n">
-        <v>2.253</v>
+        <v>2.25</v>
       </c>
       <c r="E129" t="n">
-        <v>2.253</v>
+        <v>2.25</v>
       </c>
       <c r="F129" t="n">
-        <v>240</v>
+        <v>19566.3916</v>
       </c>
       <c r="G129" t="n">
-        <v>2.240066666666664</v>
+        <v>2.239616666666663</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5167,11 +4921,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5181,22 +4931,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>2.241</v>
+        <v>2.253</v>
       </c>
       <c r="C130" t="n">
-        <v>2.241</v>
+        <v>2.253</v>
       </c>
       <c r="D130" t="n">
-        <v>2.241</v>
+        <v>2.253</v>
       </c>
       <c r="E130" t="n">
-        <v>2.241</v>
+        <v>2.253</v>
       </c>
       <c r="F130" t="n">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G130" t="n">
-        <v>2.240416666666664</v>
+        <v>2.240066666666664</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5206,11 +4956,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5220,22 +4966,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>2.234</v>
+        <v>2.241</v>
       </c>
       <c r="C131" t="n">
-        <v>2.234</v>
+        <v>2.241</v>
       </c>
       <c r="D131" t="n">
-        <v>2.234</v>
+        <v>2.241</v>
       </c>
       <c r="E131" t="n">
-        <v>2.221</v>
+        <v>2.241</v>
       </c>
       <c r="F131" t="n">
-        <v>192029.8373</v>
+        <v>244</v>
       </c>
       <c r="G131" t="n">
-        <v>2.240499999999997</v>
+        <v>2.240416666666664</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5245,11 +4991,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5268,13 +5010,13 @@
         <v>2.234</v>
       </c>
       <c r="E132" t="n">
-        <v>2.234</v>
+        <v>2.221</v>
       </c>
       <c r="F132" t="n">
-        <v>240</v>
+        <v>192029.8373</v>
       </c>
       <c r="G132" t="n">
-        <v>2.240716666666664</v>
+        <v>2.240499999999997</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5284,11 +5026,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5298,22 +5036,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>2.221</v>
+        <v>2.234</v>
       </c>
       <c r="C133" t="n">
-        <v>2.221</v>
+        <v>2.234</v>
       </c>
       <c r="D133" t="n">
-        <v>2.221</v>
+        <v>2.234</v>
       </c>
       <c r="E133" t="n">
-        <v>2.221</v>
+        <v>2.234</v>
       </c>
       <c r="F133" t="n">
-        <v>225.2525</v>
+        <v>240</v>
       </c>
       <c r="G133" t="n">
-        <v>2.240699999999997</v>
+        <v>2.240716666666664</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5323,11 +5061,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5337,22 +5071,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>2.234</v>
+        <v>2.221</v>
       </c>
       <c r="C134" t="n">
-        <v>2.234</v>
+        <v>2.221</v>
       </c>
       <c r="D134" t="n">
-        <v>2.234</v>
+        <v>2.221</v>
       </c>
       <c r="E134" t="n">
-        <v>2.234</v>
+        <v>2.221</v>
       </c>
       <c r="F134" t="n">
-        <v>240</v>
+        <v>225.2525</v>
       </c>
       <c r="G134" t="n">
-        <v>2.240783333333331</v>
+        <v>2.240699999999997</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5362,11 +5096,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5376,22 +5106,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>2.229</v>
+        <v>2.234</v>
       </c>
       <c r="C135" t="n">
-        <v>2.225</v>
+        <v>2.234</v>
       </c>
       <c r="D135" t="n">
-        <v>2.229</v>
+        <v>2.234</v>
       </c>
       <c r="E135" t="n">
-        <v>2.225</v>
+        <v>2.234</v>
       </c>
       <c r="F135" t="n">
-        <v>1644</v>
+        <v>240</v>
       </c>
       <c r="G135" t="n">
-        <v>2.240849999999997</v>
+        <v>2.240783333333331</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5401,11 +5131,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5415,22 +5141,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>2.234</v>
+        <v>2.229</v>
       </c>
       <c r="C136" t="n">
-        <v>2.234</v>
+        <v>2.225</v>
       </c>
       <c r="D136" t="n">
-        <v>2.234</v>
+        <v>2.229</v>
       </c>
       <c r="E136" t="n">
-        <v>2.234</v>
+        <v>2.225</v>
       </c>
       <c r="F136" t="n">
-        <v>240</v>
+        <v>1644</v>
       </c>
       <c r="G136" t="n">
-        <v>2.24093333333333</v>
+        <v>2.240849999999997</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5440,11 +5166,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5454,7 +5176,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>2.221</v>
+        <v>2.234</v>
       </c>
       <c r="C137" t="n">
         <v>2.234</v>
@@ -5463,13 +5185,13 @@
         <v>2.234</v>
       </c>
       <c r="E137" t="n">
-        <v>2.221</v>
+        <v>2.234</v>
       </c>
       <c r="F137" t="n">
-        <v>3240</v>
+        <v>240</v>
       </c>
       <c r="G137" t="n">
-        <v>2.240783333333331</v>
+        <v>2.24093333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5479,11 +5201,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5493,22 +5211,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>2.227</v>
+        <v>2.221</v>
       </c>
       <c r="C138" t="n">
-        <v>2.217</v>
+        <v>2.234</v>
       </c>
       <c r="D138" t="n">
-        <v>2.227</v>
+        <v>2.234</v>
       </c>
       <c r="E138" t="n">
-        <v>2.217</v>
+        <v>2.221</v>
       </c>
       <c r="F138" t="n">
-        <v>180693.2127</v>
+        <v>3240</v>
       </c>
       <c r="G138" t="n">
-        <v>2.240566666666664</v>
+        <v>2.240783333333331</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5518,11 +5236,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5532,22 +5246,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>2.234</v>
+        <v>2.227</v>
       </c>
       <c r="C139" t="n">
-        <v>2.234</v>
+        <v>2.217</v>
       </c>
       <c r="D139" t="n">
-        <v>2.234</v>
+        <v>2.227</v>
       </c>
       <c r="E139" t="n">
-        <v>2.234</v>
+        <v>2.217</v>
       </c>
       <c r="F139" t="n">
-        <v>240</v>
+        <v>180693.2127</v>
       </c>
       <c r="G139" t="n">
-        <v>2.240299999999998</v>
+        <v>2.240566666666664</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5557,11 +5271,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5583,10 +5293,10 @@
         <v>2.234</v>
       </c>
       <c r="F140" t="n">
-        <v>5521.1032</v>
+        <v>240</v>
       </c>
       <c r="G140" t="n">
-        <v>2.240049999999998</v>
+        <v>2.240299999999998</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5596,11 +5306,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5622,10 +5328,10 @@
         <v>2.234</v>
       </c>
       <c r="F141" t="n">
-        <v>29316.534</v>
+        <v>5521.1032</v>
       </c>
       <c r="G141" t="n">
-        <v>2.239883333333331</v>
+        <v>2.240049999999998</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5635,11 +5341,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5649,22 +5351,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>2.225</v>
+        <v>2.234</v>
       </c>
       <c r="C142" t="n">
-        <v>2.215</v>
+        <v>2.234</v>
       </c>
       <c r="D142" t="n">
-        <v>2.225</v>
+        <v>2.234</v>
       </c>
       <c r="E142" t="n">
-        <v>2.215</v>
+        <v>2.234</v>
       </c>
       <c r="F142" t="n">
-        <v>551811.6326</v>
+        <v>29316.534</v>
       </c>
       <c r="G142" t="n">
-        <v>2.239333333333332</v>
+        <v>2.239883333333331</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5674,11 +5376,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5688,22 +5386,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>2.221</v>
+        <v>2.225</v>
       </c>
       <c r="C143" t="n">
-        <v>2.233</v>
+        <v>2.215</v>
       </c>
       <c r="D143" t="n">
-        <v>2.233</v>
+        <v>2.225</v>
       </c>
       <c r="E143" t="n">
-        <v>2.212</v>
+        <v>2.215</v>
       </c>
       <c r="F143" t="n">
-        <v>200240</v>
+        <v>551811.6326</v>
       </c>
       <c r="G143" t="n">
-        <v>2.239349999999999</v>
+        <v>2.239333333333332</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5713,11 +5411,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5727,22 +5421,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>2.23</v>
+        <v>2.221</v>
       </c>
       <c r="C144" t="n">
-        <v>2.212</v>
+        <v>2.233</v>
       </c>
       <c r="D144" t="n">
-        <v>2.23</v>
+        <v>2.233</v>
       </c>
       <c r="E144" t="n">
         <v>2.212</v>
       </c>
       <c r="F144" t="n">
-        <v>670.1251</v>
+        <v>200240</v>
       </c>
       <c r="G144" t="n">
-        <v>2.238733333333331</v>
+        <v>2.239349999999999</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5752,11 +5446,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5766,22 +5456,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>2.233</v>
+        <v>2.23</v>
       </c>
       <c r="C145" t="n">
-        <v>2.233</v>
+        <v>2.212</v>
       </c>
       <c r="D145" t="n">
-        <v>2.233</v>
+        <v>2.23</v>
       </c>
       <c r="E145" t="n">
-        <v>2.233</v>
+        <v>2.212</v>
       </c>
       <c r="F145" t="n">
-        <v>240</v>
+        <v>670.1251</v>
       </c>
       <c r="G145" t="n">
-        <v>2.238749999999998</v>
+        <v>2.238733333333331</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5791,11 +5481,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5811,32 +5497,26 @@
         <v>2.233</v>
       </c>
       <c r="D146" t="n">
-        <v>2.234</v>
+        <v>2.233</v>
       </c>
       <c r="E146" t="n">
         <v>2.233</v>
       </c>
       <c r="F146" t="n">
-        <v>13351.1737</v>
+        <v>240</v>
       </c>
       <c r="G146" t="n">
-        <v>2.238799999999999</v>
+        <v>2.238749999999998</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>2.233</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5846,38 +5526,32 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>2.23</v>
+        <v>2.233</v>
       </c>
       <c r="C147" t="n">
-        <v>2.23</v>
+        <v>2.233</v>
       </c>
       <c r="D147" t="n">
-        <v>2.23</v>
+        <v>2.234</v>
       </c>
       <c r="E147" t="n">
-        <v>2.23</v>
+        <v>2.233</v>
       </c>
       <c r="F147" t="n">
-        <v>240</v>
+        <v>13351.1737</v>
       </c>
       <c r="G147" t="n">
         <v>2.238799999999999</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>2.233</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5899,10 +5573,10 @@
         <v>2.23</v>
       </c>
       <c r="F148" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="G148" t="n">
-        <v>2.238899999999999</v>
+        <v>2.238799999999999</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5912,11 +5586,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5938,10 +5608,10 @@
         <v>2.23</v>
       </c>
       <c r="F149" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="G149" t="n">
-        <v>2.238583333333332</v>
+        <v>2.238899999999999</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5951,11 +5621,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5977,10 +5643,10 @@
         <v>2.23</v>
       </c>
       <c r="F150" t="n">
-        <v>8968.609899999999</v>
+        <v>240</v>
       </c>
       <c r="G150" t="n">
-        <v>2.238299999999998</v>
+        <v>2.238583333333332</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5990,11 +5656,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6004,22 +5666,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>2.228</v>
+        <v>2.23</v>
       </c>
       <c r="C151" t="n">
-        <v>2.228</v>
+        <v>2.23</v>
       </c>
       <c r="D151" t="n">
-        <v>2.228</v>
+        <v>2.23</v>
       </c>
       <c r="E151" t="n">
-        <v>2.228</v>
+        <v>2.23</v>
       </c>
       <c r="F151" t="n">
-        <v>240</v>
+        <v>8968.609899999999</v>
       </c>
       <c r="G151" t="n">
-        <v>2.238349999999998</v>
+        <v>2.238299999999998</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6029,11 +5691,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6055,10 +5713,10 @@
         <v>2.228</v>
       </c>
       <c r="F152" t="n">
-        <v>41000</v>
+        <v>240</v>
       </c>
       <c r="G152" t="n">
-        <v>2.238416666666665</v>
+        <v>2.238349999999998</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6068,11 +5726,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6082,22 +5736,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>2.23</v>
+        <v>2.228</v>
       </c>
       <c r="C153" t="n">
-        <v>2.23</v>
+        <v>2.228</v>
       </c>
       <c r="D153" t="n">
-        <v>2.23</v>
+        <v>2.228</v>
       </c>
       <c r="E153" t="n">
-        <v>2.23</v>
+        <v>2.228</v>
       </c>
       <c r="F153" t="n">
-        <v>240</v>
+        <v>41000</v>
       </c>
       <c r="G153" t="n">
-        <v>2.238549999999998</v>
+        <v>2.238416666666665</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6107,11 +5761,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6121,22 +5771,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>2.228</v>
+        <v>2.23</v>
       </c>
       <c r="C154" t="n">
-        <v>2.216</v>
+        <v>2.23</v>
       </c>
       <c r="D154" t="n">
-        <v>2.228</v>
+        <v>2.23</v>
       </c>
       <c r="E154" t="n">
-        <v>2.216</v>
+        <v>2.23</v>
       </c>
       <c r="F154" t="n">
-        <v>139645.0909</v>
+        <v>240</v>
       </c>
       <c r="G154" t="n">
-        <v>2.238466666666665</v>
+        <v>2.238549999999998</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6146,11 +5796,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6160,22 +5806,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>2.216</v>
+        <v>2.228</v>
       </c>
       <c r="C155" t="n">
         <v>2.216</v>
       </c>
       <c r="D155" t="n">
-        <v>2.216</v>
+        <v>2.228</v>
       </c>
       <c r="E155" t="n">
         <v>2.216</v>
       </c>
       <c r="F155" t="n">
-        <v>244</v>
+        <v>139645.0909</v>
       </c>
       <c r="G155" t="n">
-        <v>2.238316666666665</v>
+        <v>2.238466666666665</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6185,11 +5831,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6199,22 +5841,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>2.214</v>
+        <v>2.216</v>
       </c>
       <c r="C156" t="n">
-        <v>2.23</v>
+        <v>2.216</v>
       </c>
       <c r="D156" t="n">
-        <v>2.23</v>
+        <v>2.216</v>
       </c>
       <c r="E156" t="n">
-        <v>2.214</v>
+        <v>2.216</v>
       </c>
       <c r="F156" t="n">
-        <v>57070.5601</v>
+        <v>244</v>
       </c>
       <c r="G156" t="n">
-        <v>2.238499999999999</v>
+        <v>2.238316666666665</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6224,11 +5866,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6238,38 +5876,32 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>2.227</v>
+        <v>2.214</v>
       </c>
       <c r="C157" t="n">
-        <v>2.214</v>
+        <v>2.23</v>
       </c>
       <c r="D157" t="n">
-        <v>2.227</v>
+        <v>2.23</v>
       </c>
       <c r="E157" t="n">
         <v>2.214</v>
       </c>
       <c r="F157" t="n">
-        <v>240.0125</v>
+        <v>57070.5601</v>
       </c>
       <c r="G157" t="n">
-        <v>2.238233333333332</v>
+        <v>2.238499999999999</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>2.23</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6279,38 +5911,32 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>2.229</v>
+        <v>2.227</v>
       </c>
       <c r="C158" t="n">
-        <v>2.229</v>
+        <v>2.214</v>
       </c>
       <c r="D158" t="n">
-        <v>2.229</v>
+        <v>2.227</v>
       </c>
       <c r="E158" t="n">
-        <v>2.229</v>
+        <v>2.214</v>
       </c>
       <c r="F158" t="n">
-        <v>250</v>
+        <v>240.0125</v>
       </c>
       <c r="G158" t="n">
-        <v>2.237883333333332</v>
+        <v>2.238233333333332</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>2.214</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6323,35 +5949,29 @@
         <v>2.229</v>
       </c>
       <c r="C159" t="n">
-        <v>2.234</v>
+        <v>2.229</v>
       </c>
       <c r="D159" t="n">
-        <v>2.234</v>
+        <v>2.229</v>
       </c>
       <c r="E159" t="n">
         <v>2.229</v>
       </c>
       <c r="F159" t="n">
-        <v>51717.1507</v>
+        <v>250</v>
       </c>
       <c r="G159" t="n">
-        <v>2.237616666666666</v>
+        <v>2.237883333333332</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>2.229</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6361,22 +5981,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>2.231</v>
+        <v>2.229</v>
       </c>
       <c r="C160" t="n">
-        <v>2.231</v>
+        <v>2.234</v>
       </c>
       <c r="D160" t="n">
-        <v>2.231</v>
+        <v>2.234</v>
       </c>
       <c r="E160" t="n">
-        <v>2.231</v>
+        <v>2.229</v>
       </c>
       <c r="F160" t="n">
-        <v>444</v>
+        <v>51717.1507</v>
       </c>
       <c r="G160" t="n">
-        <v>2.237399999999999</v>
+        <v>2.237616666666666</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6386,11 +6006,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6400,22 +6016,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>2.23</v>
+        <v>2.231</v>
       </c>
       <c r="C161" t="n">
-        <v>2.23</v>
+        <v>2.231</v>
       </c>
       <c r="D161" t="n">
-        <v>2.23</v>
+        <v>2.231</v>
       </c>
       <c r="E161" t="n">
-        <v>2.23</v>
+        <v>2.231</v>
       </c>
       <c r="F161" t="n">
-        <v>245135.4295</v>
+        <v>444</v>
       </c>
       <c r="G161" t="n">
-        <v>2.236666666666665</v>
+        <v>2.237399999999999</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6425,11 +6041,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6439,22 +6051,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>2.231</v>
+        <v>2.23</v>
       </c>
       <c r="C162" t="n">
-        <v>2.231</v>
+        <v>2.23</v>
       </c>
       <c r="D162" t="n">
-        <v>2.231</v>
+        <v>2.23</v>
       </c>
       <c r="E162" t="n">
-        <v>2.231</v>
+        <v>2.23</v>
       </c>
       <c r="F162" t="n">
-        <v>109556</v>
+        <v>245135.4295</v>
       </c>
       <c r="G162" t="n">
-        <v>2.235983333333332</v>
+        <v>2.236666666666665</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6464,11 +6076,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6478,22 +6086,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>2.234</v>
+        <v>2.231</v>
       </c>
       <c r="C163" t="n">
-        <v>2.23</v>
+        <v>2.231</v>
       </c>
       <c r="D163" t="n">
-        <v>2.234</v>
+        <v>2.231</v>
       </c>
       <c r="E163" t="n">
-        <v>2.23</v>
+        <v>2.231</v>
       </c>
       <c r="F163" t="n">
-        <v>386846.8595</v>
+        <v>109556</v>
       </c>
       <c r="G163" t="n">
-        <v>2.235316666666665</v>
+        <v>2.235983333333332</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6503,11 +6111,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6517,22 +6121,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>2.24</v>
+        <v>2.234</v>
       </c>
       <c r="C164" t="n">
-        <v>2.241</v>
+        <v>2.23</v>
       </c>
       <c r="D164" t="n">
-        <v>2.241</v>
+        <v>2.234</v>
       </c>
       <c r="E164" t="n">
-        <v>2.24</v>
+        <v>2.23</v>
       </c>
       <c r="F164" t="n">
-        <v>536.4075</v>
+        <v>386846.8595</v>
       </c>
       <c r="G164" t="n">
-        <v>2.235266666666666</v>
+        <v>2.235316666666665</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6542,11 +6146,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6556,22 +6156,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>2.23</v>
+        <v>2.24</v>
       </c>
       <c r="C165" t="n">
-        <v>2.23</v>
+        <v>2.241</v>
       </c>
       <c r="D165" t="n">
-        <v>2.23</v>
+        <v>2.241</v>
       </c>
       <c r="E165" t="n">
-        <v>2.23</v>
+        <v>2.24</v>
       </c>
       <c r="F165" t="n">
-        <v>181818</v>
+        <v>536.4075</v>
       </c>
       <c r="G165" t="n">
-        <v>2.235033333333332</v>
+        <v>2.235266666666666</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6581,11 +6181,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6607,10 +6203,10 @@
         <v>2.23</v>
       </c>
       <c r="F166" t="n">
-        <v>83928.2319</v>
+        <v>181818</v>
       </c>
       <c r="G166" t="n">
-        <v>2.234583333333332</v>
+        <v>2.235033333333332</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6620,11 +6216,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6634,22 +6226,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>2.22</v>
+        <v>2.23</v>
       </c>
       <c r="C167" t="n">
-        <v>2.22</v>
+        <v>2.23</v>
       </c>
       <c r="D167" t="n">
-        <v>2.22</v>
+        <v>2.23</v>
       </c>
       <c r="E167" t="n">
-        <v>2.22</v>
+        <v>2.23</v>
       </c>
       <c r="F167" t="n">
-        <v>52170.924</v>
+        <v>83928.2319</v>
       </c>
       <c r="G167" t="n">
-        <v>2.234016666666665</v>
+        <v>2.234583333333332</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6659,11 +6251,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6673,22 +6261,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>2.219</v>
+        <v>2.22</v>
       </c>
       <c r="C168" t="n">
-        <v>2.219</v>
+        <v>2.22</v>
       </c>
       <c r="D168" t="n">
-        <v>2.219</v>
+        <v>2.22</v>
       </c>
       <c r="E168" t="n">
-        <v>2.219</v>
+        <v>2.22</v>
       </c>
       <c r="F168" t="n">
-        <v>416702.5197</v>
+        <v>52170.924</v>
       </c>
       <c r="G168" t="n">
-        <v>2.233416666666665</v>
+        <v>2.234016666666665</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6698,11 +6286,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6724,10 +6308,10 @@
         <v>2.219</v>
       </c>
       <c r="F169" t="n">
-        <v>244</v>
+        <v>416702.5197</v>
       </c>
       <c r="G169" t="n">
-        <v>2.232816666666665</v>
+        <v>2.233416666666665</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6737,11 +6321,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6763,10 +6343,10 @@
         <v>2.219</v>
       </c>
       <c r="F170" t="n">
-        <v>45097.7468</v>
+        <v>244</v>
       </c>
       <c r="G170" t="n">
-        <v>2.232216666666665</v>
+        <v>2.232816666666665</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6776,11 +6356,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6802,10 +6378,10 @@
         <v>2.219</v>
       </c>
       <c r="F171" t="n">
-        <v>173206.9478</v>
+        <v>45097.7468</v>
       </c>
       <c r="G171" t="n">
-        <v>2.231333333333332</v>
+        <v>2.232216666666665</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6815,11 +6391,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6829,22 +6401,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>2.23</v>
+        <v>2.219</v>
       </c>
       <c r="C172" t="n">
-        <v>2.23</v>
+        <v>2.219</v>
       </c>
       <c r="D172" t="n">
-        <v>2.23</v>
+        <v>2.219</v>
       </c>
       <c r="E172" t="n">
-        <v>2.23</v>
+        <v>2.219</v>
       </c>
       <c r="F172" t="n">
-        <v>4959.7681</v>
+        <v>173206.9478</v>
       </c>
       <c r="G172" t="n">
-        <v>2.230633333333332</v>
+        <v>2.231333333333332</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6854,11 +6426,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6868,22 +6436,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>2.241</v>
+        <v>2.23</v>
       </c>
       <c r="C173" t="n">
-        <v>2.259</v>
+        <v>2.23</v>
       </c>
       <c r="D173" t="n">
-        <v>2.259</v>
+        <v>2.23</v>
       </c>
       <c r="E173" t="n">
-        <v>2.241</v>
+        <v>2.23</v>
       </c>
       <c r="F173" t="n">
-        <v>51197.5373</v>
+        <v>4959.7681</v>
       </c>
       <c r="G173" t="n">
-        <v>2.230416666666665</v>
+        <v>2.230633333333332</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6893,11 +6461,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6907,7 +6471,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>2.259</v>
+        <v>2.241</v>
       </c>
       <c r="C174" t="n">
         <v>2.259</v>
@@ -6916,13 +6480,13 @@
         <v>2.259</v>
       </c>
       <c r="E174" t="n">
-        <v>2.259</v>
+        <v>2.241</v>
       </c>
       <c r="F174" t="n">
-        <v>1802.4627</v>
+        <v>51197.5373</v>
       </c>
       <c r="G174" t="n">
-        <v>2.230716666666665</v>
+        <v>2.230416666666665</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6932,11 +6496,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6946,22 +6506,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>2.258</v>
+        <v>2.259</v>
       </c>
       <c r="C175" t="n">
-        <v>2.256</v>
+        <v>2.259</v>
       </c>
       <c r="D175" t="n">
-        <v>2.258</v>
+        <v>2.259</v>
       </c>
       <c r="E175" t="n">
-        <v>2.24</v>
+        <v>2.259</v>
       </c>
       <c r="F175" t="n">
-        <v>32684</v>
+        <v>1802.4627</v>
       </c>
       <c r="G175" t="n">
-        <v>2.231266666666664</v>
+        <v>2.230716666666665</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6971,11 +6531,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6985,22 +6541,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>2.25</v>
+        <v>2.258</v>
       </c>
       <c r="C176" t="n">
-        <v>2.23</v>
+        <v>2.256</v>
       </c>
       <c r="D176" t="n">
-        <v>2.25</v>
+        <v>2.258</v>
       </c>
       <c r="E176" t="n">
-        <v>2.23</v>
+        <v>2.24</v>
       </c>
       <c r="F176" t="n">
-        <v>53031.6824</v>
+        <v>32684</v>
       </c>
       <c r="G176" t="n">
-        <v>2.231433333333331</v>
+        <v>2.231266666666664</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7010,11 +6566,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7024,19 +6576,19 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="C177" t="n">
         <v>2.23</v>
       </c>
       <c r="D177" t="n">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="E177" t="n">
         <v>2.23</v>
       </c>
       <c r="F177" t="n">
-        <v>314661.5027</v>
+        <v>53031.6824</v>
       </c>
       <c r="G177" t="n">
         <v>2.231433333333331</v>
@@ -7049,11 +6601,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7063,22 +6611,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>2.246</v>
+        <v>2.23</v>
       </c>
       <c r="C178" t="n">
-        <v>2.246</v>
+        <v>2.23</v>
       </c>
       <c r="D178" t="n">
-        <v>2.246</v>
+        <v>2.23</v>
       </c>
       <c r="E178" t="n">
-        <v>2.246</v>
+        <v>2.23</v>
       </c>
       <c r="F178" t="n">
-        <v>223.1251</v>
+        <v>314661.5027</v>
       </c>
       <c r="G178" t="n">
-        <v>2.231699999999998</v>
+        <v>2.231433333333331</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7088,11 +6636,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7102,22 +6646,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>2.245</v>
+        <v>2.246</v>
       </c>
       <c r="C179" t="n">
-        <v>2.245</v>
+        <v>2.246</v>
       </c>
       <c r="D179" t="n">
-        <v>2.245</v>
+        <v>2.246</v>
       </c>
       <c r="E179" t="n">
-        <v>2.245</v>
+        <v>2.246</v>
       </c>
       <c r="F179" t="n">
-        <v>115792.7071</v>
+        <v>223.1251</v>
       </c>
       <c r="G179" t="n">
-        <v>2.231933333333331</v>
+        <v>2.231699999999998</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7127,11 +6671,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7141,22 +6681,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>2.248</v>
+        <v>2.245</v>
       </c>
       <c r="C180" t="n">
-        <v>2.249</v>
+        <v>2.245</v>
       </c>
       <c r="D180" t="n">
-        <v>2.249</v>
+        <v>2.245</v>
       </c>
       <c r="E180" t="n">
-        <v>2.248</v>
+        <v>2.245</v>
       </c>
       <c r="F180" t="n">
-        <v>325704.3131</v>
+        <v>115792.7071</v>
       </c>
       <c r="G180" t="n">
-        <v>2.232399999999998</v>
+        <v>2.231933333333331</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7166,11 +6706,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7180,7 +6716,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>2.249</v>
+        <v>2.248</v>
       </c>
       <c r="C181" t="n">
         <v>2.249</v>
@@ -7189,13 +6725,13 @@
         <v>2.249</v>
       </c>
       <c r="E181" t="n">
-        <v>2.249</v>
+        <v>2.248</v>
       </c>
       <c r="F181" t="n">
-        <v>26741.566</v>
+        <v>325704.3131</v>
       </c>
       <c r="G181" t="n">
-        <v>2.232716666666664</v>
+        <v>2.232399999999998</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7205,11 +6741,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7219,22 +6751,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>2.25</v>
+        <v>2.249</v>
       </c>
       <c r="C182" t="n">
-        <v>2.25</v>
+        <v>2.249</v>
       </c>
       <c r="D182" t="n">
-        <v>2.25</v>
+        <v>2.249</v>
       </c>
       <c r="E182" t="n">
-        <v>2.25</v>
+        <v>2.249</v>
       </c>
       <c r="F182" t="n">
-        <v>22020.3358</v>
+        <v>26741.566</v>
       </c>
       <c r="G182" t="n">
-        <v>2.233049999999998</v>
+        <v>2.232716666666664</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7244,11 +6776,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7270,10 +6798,10 @@
         <v>2.25</v>
       </c>
       <c r="F183" t="n">
-        <v>444.505</v>
+        <v>22020.3358</v>
       </c>
       <c r="G183" t="n">
-        <v>2.233533333333332</v>
+        <v>2.233049999999998</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7283,11 +6811,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7297,22 +6821,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>2.246</v>
+        <v>2.25</v>
       </c>
       <c r="C184" t="n">
-        <v>2.245</v>
+        <v>2.25</v>
       </c>
       <c r="D184" t="n">
-        <v>2.246</v>
+        <v>2.25</v>
       </c>
       <c r="E184" t="n">
-        <v>2.245</v>
+        <v>2.25</v>
       </c>
       <c r="F184" t="n">
-        <v>770.3846</v>
+        <v>444.505</v>
       </c>
       <c r="G184" t="n">
-        <v>2.233449999999998</v>
+        <v>2.233533333333332</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7322,11 +6846,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7336,22 +6856,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
+        <v>2.246</v>
+      </c>
+      <c r="C185" t="n">
         <v>2.245</v>
       </c>
-      <c r="C185" t="n">
-        <v>2.247</v>
-      </c>
       <c r="D185" t="n">
-        <v>2.247</v>
+        <v>2.246</v>
       </c>
       <c r="E185" t="n">
         <v>2.245</v>
       </c>
       <c r="F185" t="n">
-        <v>889.2164</v>
+        <v>770.3846</v>
       </c>
       <c r="G185" t="n">
-        <v>2.233483333333332</v>
+        <v>2.233449999999998</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7361,11 +6881,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7375,7 +6891,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>2.247</v>
+        <v>2.245</v>
       </c>
       <c r="C186" t="n">
         <v>2.247</v>
@@ -7384,13 +6900,13 @@
         <v>2.247</v>
       </c>
       <c r="E186" t="n">
-        <v>2.247</v>
+        <v>2.245</v>
       </c>
       <c r="F186" t="n">
-        <v>553.7474999999999</v>
+        <v>889.2164</v>
       </c>
       <c r="G186" t="n">
-        <v>2.233516666666665</v>
+        <v>2.233483333333332</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7400,11 +6916,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7426,10 +6938,10 @@
         <v>2.247</v>
       </c>
       <c r="F187" t="n">
-        <v>77566.7041</v>
+        <v>553.7474999999999</v>
       </c>
       <c r="G187" t="n">
-        <v>2.233466666666665</v>
+        <v>2.233516666666665</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7439,11 +6951,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7456,19 +6964,19 @@
         <v>2.247</v>
       </c>
       <c r="C188" t="n">
-        <v>2.235</v>
+        <v>2.247</v>
       </c>
       <c r="D188" t="n">
         <v>2.247</v>
       </c>
       <c r="E188" t="n">
-        <v>2.235</v>
+        <v>2.247</v>
       </c>
       <c r="F188" t="n">
-        <v>799832.1689</v>
+        <v>77566.7041</v>
       </c>
       <c r="G188" t="n">
-        <v>2.233216666666666</v>
+        <v>2.233466666666665</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7478,11 +6986,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7492,22 +6996,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="C189" t="n">
         <v>2.235</v>
       </c>
-      <c r="C189" t="n">
-        <v>2.23</v>
-      </c>
       <c r="D189" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="E189" t="n">
         <v>2.235</v>
       </c>
-      <c r="E189" t="n">
-        <v>2.23</v>
-      </c>
       <c r="F189" t="n">
-        <v>419297.8533</v>
+        <v>799832.1689</v>
       </c>
       <c r="G189" t="n">
-        <v>2.232833333333332</v>
+        <v>2.233216666666666</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7517,11 +7021,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7531,22 +7031,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>2.23</v>
+        <v>2.235</v>
       </c>
       <c r="C190" t="n">
         <v>2.23</v>
       </c>
       <c r="D190" t="n">
-        <v>2.23</v>
+        <v>2.235</v>
       </c>
       <c r="E190" t="n">
         <v>2.23</v>
       </c>
       <c r="F190" t="n">
-        <v>67713.0045</v>
+        <v>419297.8533</v>
       </c>
       <c r="G190" t="n">
-        <v>2.232649999999998</v>
+        <v>2.232833333333332</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7556,11 +7056,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7582,10 +7078,10 @@
         <v>2.23</v>
       </c>
       <c r="F191" t="n">
-        <v>395412.0156</v>
+        <v>67713.0045</v>
       </c>
       <c r="G191" t="n">
-        <v>2.232583333333331</v>
+        <v>2.232649999999998</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7595,11 +7091,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7612,19 +7104,19 @@
         <v>2.23</v>
       </c>
       <c r="C192" t="n">
-        <v>2.219</v>
+        <v>2.23</v>
       </c>
       <c r="D192" t="n">
         <v>2.23</v>
       </c>
       <c r="E192" t="n">
-        <v>2.219</v>
+        <v>2.23</v>
       </c>
       <c r="F192" t="n">
-        <v>213765.9989</v>
+        <v>395412.0156</v>
       </c>
       <c r="G192" t="n">
-        <v>2.232333333333331</v>
+        <v>2.232583333333331</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7634,11 +7126,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7648,22 +7136,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>2.24</v>
+        <v>2.23</v>
       </c>
       <c r="C193" t="n">
-        <v>2.24</v>
+        <v>2.219</v>
       </c>
       <c r="D193" t="n">
-        <v>2.24</v>
+        <v>2.23</v>
       </c>
       <c r="E193" t="n">
-        <v>2.24</v>
+        <v>2.219</v>
       </c>
       <c r="F193" t="n">
-        <v>31765.9989</v>
+        <v>213765.9989</v>
       </c>
       <c r="G193" t="n">
-        <v>2.232649999999998</v>
+        <v>2.232333333333331</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7673,11 +7161,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7687,22 +7171,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>2.247</v>
+        <v>2.24</v>
       </c>
       <c r="C194" t="n">
-        <v>2.247</v>
+        <v>2.24</v>
       </c>
       <c r="D194" t="n">
-        <v>2.247</v>
+        <v>2.24</v>
       </c>
       <c r="E194" t="n">
-        <v>2.247</v>
+        <v>2.24</v>
       </c>
       <c r="F194" t="n">
-        <v>5000</v>
+        <v>31765.9989</v>
       </c>
       <c r="G194" t="n">
-        <v>2.232866666666664</v>
+        <v>2.232649999999998</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7712,11 +7196,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7741,7 +7221,7 @@
         <v>5000</v>
       </c>
       <c r="G195" t="n">
-        <v>2.233233333333331</v>
+        <v>2.232866666666664</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7751,11 +7231,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7768,19 +7244,19 @@
         <v>2.247</v>
       </c>
       <c r="C196" t="n">
-        <v>2.257</v>
+        <v>2.247</v>
       </c>
       <c r="D196" t="n">
-        <v>2.257</v>
+        <v>2.247</v>
       </c>
       <c r="E196" t="n">
         <v>2.247</v>
       </c>
       <c r="F196" t="n">
-        <v>125000</v>
+        <v>5000</v>
       </c>
       <c r="G196" t="n">
-        <v>2.233616666666664</v>
+        <v>2.233233333333331</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7790,11 +7266,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7804,22 +7276,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="C197" t="n">
         <v>2.257</v>
       </c>
-      <c r="C197" t="n">
-        <v>2.258</v>
-      </c>
       <c r="D197" t="n">
-        <v>2.258</v>
+        <v>2.257</v>
       </c>
       <c r="E197" t="n">
-        <v>2.257</v>
+        <v>2.247</v>
       </c>
       <c r="F197" t="n">
-        <v>288000</v>
+        <v>125000</v>
       </c>
       <c r="G197" t="n">
-        <v>2.234016666666664</v>
+        <v>2.233616666666664</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7829,11 +7301,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7843,22 +7311,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>2.256</v>
+        <v>2.257</v>
       </c>
       <c r="C198" t="n">
+        <v>2.258</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2.258</v>
+      </c>
+      <c r="E198" t="n">
         <v>2.257</v>
       </c>
-      <c r="D198" t="n">
-        <v>2.257</v>
-      </c>
-      <c r="E198" t="n">
-        <v>2.256</v>
-      </c>
       <c r="F198" t="n">
-        <v>484940.1927</v>
+        <v>288000</v>
       </c>
       <c r="G198" t="n">
-        <v>2.23468333333333</v>
+        <v>2.234016666666664</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7868,11 +7336,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7894,10 +7358,10 @@
         <v>2.256</v>
       </c>
       <c r="F199" t="n">
-        <v>47294.0641</v>
+        <v>484940.1927</v>
       </c>
       <c r="G199" t="n">
-        <v>2.235066666666663</v>
+        <v>2.23468333333333</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7907,11 +7371,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7924,19 +7384,19 @@
         <v>2.256</v>
       </c>
       <c r="C200" t="n">
-        <v>2.256</v>
+        <v>2.257</v>
       </c>
       <c r="D200" t="n">
-        <v>2.256</v>
+        <v>2.257</v>
       </c>
       <c r="E200" t="n">
         <v>2.256</v>
       </c>
       <c r="F200" t="n">
-        <v>21893.6011</v>
+        <v>47294.0641</v>
       </c>
       <c r="G200" t="n">
-        <v>2.23543333333333</v>
+        <v>2.235066666666663</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7946,11 +7406,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7972,10 +7428,10 @@
         <v>2.256</v>
       </c>
       <c r="F201" t="n">
-        <v>87865.4436</v>
+        <v>21893.6011</v>
       </c>
       <c r="G201" t="n">
-        <v>2.235799999999997</v>
+        <v>2.23543333333333</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7985,11 +7441,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8011,10 +7463,10 @@
         <v>2.256</v>
       </c>
       <c r="F202" t="n">
-        <v>328121.3801</v>
+        <v>87865.4436</v>
       </c>
       <c r="G202" t="n">
-        <v>2.23648333333333</v>
+        <v>2.235799999999997</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -8024,11 +7476,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8038,22 +7486,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>2.231</v>
+        <v>2.256</v>
       </c>
       <c r="C203" t="n">
-        <v>2.231</v>
+        <v>2.256</v>
       </c>
       <c r="D203" t="n">
-        <v>2.231</v>
+        <v>2.256</v>
       </c>
       <c r="E203" t="n">
-        <v>2.231</v>
+        <v>2.256</v>
       </c>
       <c r="F203" t="n">
-        <v>21284.6139</v>
+        <v>328121.3801</v>
       </c>
       <c r="G203" t="n">
-        <v>2.236449999999996</v>
+        <v>2.23648333333333</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -8063,11 +7511,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8089,10 +7533,10 @@
         <v>2.231</v>
       </c>
       <c r="F204" t="n">
-        <v>198000</v>
+        <v>21284.6139</v>
       </c>
       <c r="G204" t="n">
-        <v>2.236766666666663</v>
+        <v>2.236449999999996</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8102,11 +7546,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8116,22 +7556,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>2.254</v>
+        <v>2.231</v>
       </c>
       <c r="C205" t="n">
-        <v>2.254</v>
+        <v>2.231</v>
       </c>
       <c r="D205" t="n">
-        <v>2.254</v>
+        <v>2.231</v>
       </c>
       <c r="E205" t="n">
-        <v>2.254</v>
+        <v>2.231</v>
       </c>
       <c r="F205" t="n">
-        <v>300</v>
+        <v>198000</v>
       </c>
       <c r="G205" t="n">
-        <v>2.237116666666663</v>
+        <v>2.236766666666663</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8141,11 +7581,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8167,10 +7603,10 @@
         <v>2.254</v>
       </c>
       <c r="F206" t="n">
-        <v>443.6557231588287</v>
+        <v>300</v>
       </c>
       <c r="G206" t="n">
-        <v>2.237466666666663</v>
+        <v>2.237116666666663</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8180,11 +7616,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8194,19 +7626,19 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>2.23</v>
+        <v>2.254</v>
       </c>
       <c r="C207" t="n">
-        <v>2.23</v>
+        <v>2.254</v>
       </c>
       <c r="D207" t="n">
-        <v>2.23</v>
+        <v>2.254</v>
       </c>
       <c r="E207" t="n">
-        <v>2.23</v>
+        <v>2.254</v>
       </c>
       <c r="F207" t="n">
-        <v>32424.6501</v>
+        <v>443.6557231588287</v>
       </c>
       <c r="G207" t="n">
         <v>2.237466666666663</v>
@@ -8219,11 +7651,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8236,19 +7664,19 @@
         <v>2.23</v>
       </c>
       <c r="C208" t="n">
-        <v>2.22</v>
+        <v>2.23</v>
       </c>
       <c r="D208" t="n">
         <v>2.23</v>
       </c>
       <c r="E208" t="n">
-        <v>2.22</v>
+        <v>2.23</v>
       </c>
       <c r="F208" t="n">
-        <v>1508477.8679</v>
+        <v>32424.6501</v>
       </c>
       <c r="G208" t="n">
-        <v>2.237299999999996</v>
+        <v>2.237466666666663</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8258,11 +7686,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8272,22 +7696,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>2.22</v>
+        <v>2.23</v>
       </c>
       <c r="C209" t="n">
         <v>2.22</v>
       </c>
       <c r="D209" t="n">
-        <v>2.22</v>
+        <v>2.23</v>
       </c>
       <c r="E209" t="n">
         <v>2.22</v>
       </c>
       <c r="F209" t="n">
-        <v>36671.7576</v>
+        <v>1508477.8679</v>
       </c>
       <c r="G209" t="n">
-        <v>2.23713333333333</v>
+        <v>2.237299999999996</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8297,11 +7721,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8323,10 +7743,10 @@
         <v>2.22</v>
       </c>
       <c r="F210" t="n">
-        <v>14000</v>
+        <v>36671.7576</v>
       </c>
       <c r="G210" t="n">
-        <v>2.236966666666663</v>
+        <v>2.23713333333333</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8336,11 +7756,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8350,22 +7766,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>2.23</v>
+        <v>2.22</v>
       </c>
       <c r="C211" t="n">
-        <v>2.23</v>
+        <v>2.22</v>
       </c>
       <c r="D211" t="n">
-        <v>2.23</v>
+        <v>2.22</v>
       </c>
       <c r="E211" t="n">
-        <v>2.23</v>
+        <v>2.22</v>
       </c>
       <c r="F211" t="n">
-        <v>1325780.5944</v>
+        <v>14000</v>
       </c>
       <c r="G211" t="n">
-        <v>2.236999999999996</v>
+        <v>2.236966666666663</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8375,11 +7791,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8389,22 +7801,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>2.229</v>
+        <v>2.23</v>
       </c>
       <c r="C212" t="n">
-        <v>2.229</v>
+        <v>2.23</v>
       </c>
       <c r="D212" t="n">
-        <v>2.229</v>
+        <v>2.23</v>
       </c>
       <c r="E212" t="n">
-        <v>2.229</v>
+        <v>2.23</v>
       </c>
       <c r="F212" t="n">
-        <v>250</v>
+        <v>1325780.5944</v>
       </c>
       <c r="G212" t="n">
-        <v>2.237016666666663</v>
+        <v>2.236999999999996</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8414,11 +7826,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8440,10 +7848,10 @@
         <v>2.229</v>
       </c>
       <c r="F213" t="n">
-        <v>35850</v>
+        <v>250</v>
       </c>
       <c r="G213" t="n">
-        <v>2.236999999999997</v>
+        <v>2.237016666666663</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8453,11 +7861,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8467,22 +7871,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>2.219</v>
+        <v>2.229</v>
       </c>
       <c r="C214" t="n">
-        <v>2.219</v>
+        <v>2.229</v>
       </c>
       <c r="D214" t="n">
-        <v>2.219</v>
+        <v>2.229</v>
       </c>
       <c r="E214" t="n">
-        <v>2.219</v>
+        <v>2.229</v>
       </c>
       <c r="F214" t="n">
-        <v>225.5252</v>
+        <v>35850</v>
       </c>
       <c r="G214" t="n">
-        <v>2.237049999999996</v>
+        <v>2.236999999999997</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8492,11 +7896,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8506,22 +7906,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>2.23</v>
+        <v>2.219</v>
       </c>
       <c r="C215" t="n">
-        <v>2.239</v>
+        <v>2.219</v>
       </c>
       <c r="D215" t="n">
-        <v>2.239</v>
+        <v>2.219</v>
       </c>
       <c r="E215" t="n">
-        <v>2.23</v>
+        <v>2.219</v>
       </c>
       <c r="F215" t="n">
-        <v>424967.9681</v>
+        <v>225.5252</v>
       </c>
       <c r="G215" t="n">
-        <v>2.23743333333333</v>
+        <v>2.237049999999996</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8531,11 +7931,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8545,7 +7941,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>2.239</v>
+        <v>2.23</v>
       </c>
       <c r="C216" t="n">
         <v>2.239</v>
@@ -8554,13 +7950,13 @@
         <v>2.239</v>
       </c>
       <c r="E216" t="n">
-        <v>2.239</v>
+        <v>2.23</v>
       </c>
       <c r="F216" t="n">
-        <v>11108.1257</v>
+        <v>424967.9681</v>
       </c>
       <c r="G216" t="n">
-        <v>2.23758333333333</v>
+        <v>2.23743333333333</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8570,11 +7966,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8584,22 +7976,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>2.24</v>
+        <v>2.239</v>
       </c>
       <c r="C217" t="n">
-        <v>2.24</v>
+        <v>2.239</v>
       </c>
       <c r="D217" t="n">
-        <v>2.24</v>
+        <v>2.239</v>
       </c>
       <c r="E217" t="n">
-        <v>2.24</v>
+        <v>2.239</v>
       </c>
       <c r="F217" t="n">
-        <v>392.1001</v>
+        <v>11108.1257</v>
       </c>
       <c r="G217" t="n">
-        <v>2.238016666666664</v>
+        <v>2.23758333333333</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8609,11 +8001,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8623,22 +8011,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>2.245</v>
+        <v>2.24</v>
       </c>
       <c r="C218" t="n">
-        <v>2.247</v>
+        <v>2.24</v>
       </c>
       <c r="D218" t="n">
-        <v>2.247</v>
+        <v>2.24</v>
       </c>
       <c r="E218" t="n">
-        <v>2.245</v>
+        <v>2.24</v>
       </c>
       <c r="F218" t="n">
-        <v>666</v>
+        <v>392.1001</v>
       </c>
       <c r="G218" t="n">
-        <v>2.238316666666663</v>
+        <v>2.238016666666664</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8648,11 +8036,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8662,22 +8046,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>2.249</v>
+        <v>2.245</v>
       </c>
       <c r="C219" t="n">
-        <v>2.249</v>
+        <v>2.247</v>
       </c>
       <c r="D219" t="n">
-        <v>2.249</v>
+        <v>2.247</v>
       </c>
       <c r="E219" t="n">
-        <v>2.249</v>
+        <v>2.245</v>
       </c>
       <c r="F219" t="n">
-        <v>334</v>
+        <v>666</v>
       </c>
       <c r="G219" t="n">
-        <v>2.238566666666663</v>
+        <v>2.238316666666663</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8687,11 +8071,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8701,22 +8081,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>2.245</v>
+        <v>2.249</v>
       </c>
       <c r="C220" t="n">
-        <v>2.245</v>
+        <v>2.249</v>
       </c>
       <c r="D220" t="n">
-        <v>2.245</v>
+        <v>2.249</v>
       </c>
       <c r="E220" t="n">
-        <v>2.245</v>
+        <v>2.249</v>
       </c>
       <c r="F220" t="n">
-        <v>44886.212</v>
+        <v>334</v>
       </c>
       <c r="G220" t="n">
-        <v>2.238799999999996</v>
+        <v>2.238566666666663</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8726,11 +8106,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8740,19 +8116,19 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>2.23</v>
+        <v>2.245</v>
       </c>
       <c r="C221" t="n">
-        <v>2.23</v>
+        <v>2.245</v>
       </c>
       <c r="D221" t="n">
-        <v>2.23</v>
+        <v>2.245</v>
       </c>
       <c r="E221" t="n">
-        <v>2.23</v>
+        <v>2.245</v>
       </c>
       <c r="F221" t="n">
-        <v>7391.4682</v>
+        <v>44886.212</v>
       </c>
       <c r="G221" t="n">
         <v>2.238799999999996</v>
@@ -8765,11 +8141,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8779,22 +8151,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>2.245</v>
+        <v>2.23</v>
       </c>
       <c r="C222" t="n">
-        <v>2.245</v>
+        <v>2.23</v>
       </c>
       <c r="D222" t="n">
-        <v>2.245</v>
+        <v>2.23</v>
       </c>
       <c r="E222" t="n">
-        <v>2.245</v>
+        <v>2.23</v>
       </c>
       <c r="F222" t="n">
-        <v>75882.63860000001</v>
+        <v>7391.4682</v>
       </c>
       <c r="G222" t="n">
-        <v>2.23903333333333</v>
+        <v>2.238799999999996</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8804,11 +8176,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8821,19 +8189,19 @@
         <v>2.245</v>
       </c>
       <c r="C223" t="n">
-        <v>2.25</v>
+        <v>2.245</v>
       </c>
       <c r="D223" t="n">
-        <v>2.25</v>
+        <v>2.245</v>
       </c>
       <c r="E223" t="n">
         <v>2.245</v>
       </c>
       <c r="F223" t="n">
-        <v>71730</v>
+        <v>75882.63860000001</v>
       </c>
       <c r="G223" t="n">
-        <v>2.239366666666663</v>
+        <v>2.23903333333333</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8843,11 +8211,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8857,22 +8221,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>2.228</v>
+        <v>2.245</v>
       </c>
       <c r="C224" t="n">
-        <v>2.225</v>
+        <v>2.25</v>
       </c>
       <c r="D224" t="n">
-        <v>2.228</v>
+        <v>2.25</v>
       </c>
       <c r="E224" t="n">
-        <v>2.225</v>
+        <v>2.245</v>
       </c>
       <c r="F224" t="n">
-        <v>384133.8475</v>
+        <v>71730</v>
       </c>
       <c r="G224" t="n">
-        <v>2.239099999999996</v>
+        <v>2.239366666666663</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8882,11 +8246,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8896,22 +8256,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>2.224</v>
+        <v>2.228</v>
       </c>
       <c r="C225" t="n">
-        <v>2.224</v>
+        <v>2.225</v>
       </c>
       <c r="D225" t="n">
-        <v>2.224</v>
+        <v>2.228</v>
       </c>
       <c r="E225" t="n">
-        <v>2.224</v>
+        <v>2.225</v>
       </c>
       <c r="F225" t="n">
-        <v>52334.3464</v>
+        <v>384133.8475</v>
       </c>
       <c r="G225" t="n">
-        <v>2.238999999999996</v>
+        <v>2.239099999999996</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8921,11 +8281,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8935,22 +8291,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>2.248</v>
+        <v>2.224</v>
       </c>
       <c r="C226" t="n">
-        <v>2.248</v>
+        <v>2.224</v>
       </c>
       <c r="D226" t="n">
-        <v>2.248</v>
+        <v>2.224</v>
       </c>
       <c r="E226" t="n">
-        <v>2.248</v>
+        <v>2.224</v>
       </c>
       <c r="F226" t="n">
-        <v>250</v>
+        <v>52334.3464</v>
       </c>
       <c r="G226" t="n">
-        <v>2.239299999999996</v>
+        <v>2.238999999999996</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8960,11 +8316,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8974,7 +8326,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>2.247</v>
+        <v>2.248</v>
       </c>
       <c r="C227" t="n">
         <v>2.248</v>
@@ -8983,13 +8335,13 @@
         <v>2.248</v>
       </c>
       <c r="E227" t="n">
-        <v>2.247</v>
+        <v>2.248</v>
       </c>
       <c r="F227" t="n">
-        <v>34611.4615</v>
+        <v>250</v>
       </c>
       <c r="G227" t="n">
-        <v>2.239766666666663</v>
+        <v>2.239299999999996</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8999,11 +8351,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9013,22 +8361,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>2.23</v>
+        <v>2.247</v>
       </c>
       <c r="C228" t="n">
-        <v>2.23</v>
+        <v>2.248</v>
       </c>
       <c r="D228" t="n">
-        <v>2.23</v>
+        <v>2.248</v>
       </c>
       <c r="E228" t="n">
-        <v>2.23</v>
+        <v>2.247</v>
       </c>
       <c r="F228" t="n">
-        <v>18246.8049</v>
+        <v>34611.4615</v>
       </c>
       <c r="G228" t="n">
-        <v>2.239949999999996</v>
+        <v>2.239766666666663</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -9038,11 +8386,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9052,22 +8396,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>2.24</v>
+        <v>2.23</v>
       </c>
       <c r="C229" t="n">
-        <v>2.24</v>
+        <v>2.23</v>
       </c>
       <c r="D229" t="n">
-        <v>2.24</v>
+        <v>2.23</v>
       </c>
       <c r="E229" t="n">
-        <v>2.24</v>
+        <v>2.23</v>
       </c>
       <c r="F229" t="n">
-        <v>225</v>
+        <v>18246.8049</v>
       </c>
       <c r="G229" t="n">
-        <v>2.240299999999996</v>
+        <v>2.239949999999996</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -9077,11 +8421,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9103,10 +8443,10 @@
         <v>2.24</v>
       </c>
       <c r="F230" t="n">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="G230" t="n">
-        <v>2.240649999999996</v>
+        <v>2.240299999999996</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -9116,11 +8456,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9130,7 +8466,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>2.23</v>
+        <v>2.24</v>
       </c>
       <c r="C231" t="n">
         <v>2.24</v>
@@ -9139,13 +8475,13 @@
         <v>2.24</v>
       </c>
       <c r="E231" t="n">
-        <v>2.23</v>
+        <v>2.24</v>
       </c>
       <c r="F231" t="n">
-        <v>83079.96520000001</v>
+        <v>244</v>
       </c>
       <c r="G231" t="n">
-        <v>2.240999999999997</v>
+        <v>2.240649999999996</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -9155,11 +8491,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9169,22 +8501,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>2.239</v>
+        <v>2.23</v>
       </c>
       <c r="C232" t="n">
-        <v>2.239</v>
+        <v>2.24</v>
       </c>
       <c r="D232" t="n">
-        <v>2.239</v>
+        <v>2.24</v>
       </c>
       <c r="E232" t="n">
-        <v>2.239</v>
+        <v>2.23</v>
       </c>
       <c r="F232" t="n">
-        <v>164760.9248</v>
+        <v>83079.96520000001</v>
       </c>
       <c r="G232" t="n">
-        <v>2.241149999999997</v>
+        <v>2.240999999999997</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -9194,11 +8526,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9211,19 +8539,19 @@
         <v>2.239</v>
       </c>
       <c r="C233" t="n">
-        <v>2.24</v>
+        <v>2.239</v>
       </c>
       <c r="D233" t="n">
-        <v>2.24</v>
+        <v>2.239</v>
       </c>
       <c r="E233" t="n">
         <v>2.239</v>
       </c>
       <c r="F233" t="n">
-        <v>30000</v>
+        <v>164760.9248</v>
       </c>
       <c r="G233" t="n">
-        <v>2.240833333333331</v>
+        <v>2.241149999999997</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9233,11 +8561,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9247,22 +8571,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>2.225</v>
+        <v>2.239</v>
       </c>
       <c r="C234" t="n">
-        <v>2.224</v>
+        <v>2.24</v>
       </c>
       <c r="D234" t="n">
-        <v>2.225</v>
+        <v>2.24</v>
       </c>
       <c r="E234" t="n">
-        <v>2.224</v>
+        <v>2.239</v>
       </c>
       <c r="F234" t="n">
-        <v>543981.1777</v>
+        <v>30000</v>
       </c>
       <c r="G234" t="n">
-        <v>2.240249999999997</v>
+        <v>2.240833333333331</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9272,11 +8596,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9286,22 +8606,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>2.24</v>
+        <v>2.225</v>
       </c>
       <c r="C235" t="n">
-        <v>2.24</v>
+        <v>2.224</v>
       </c>
       <c r="D235" t="n">
-        <v>2.24</v>
+        <v>2.225</v>
       </c>
       <c r="E235" t="n">
-        <v>2.24</v>
+        <v>2.224</v>
       </c>
       <c r="F235" t="n">
-        <v>240</v>
+        <v>543981.1777</v>
       </c>
       <c r="G235" t="n">
-        <v>2.239983333333331</v>
+        <v>2.240249999999997</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9311,11 +8631,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9337,10 +8653,10 @@
         <v>2.24</v>
       </c>
       <c r="F236" t="n">
-        <v>505000</v>
+        <v>240</v>
       </c>
       <c r="G236" t="n">
-        <v>2.240149999999998</v>
+        <v>2.239983333333331</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9350,11 +8666,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9364,22 +8676,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>2.237</v>
+        <v>2.24</v>
       </c>
       <c r="C237" t="n">
-        <v>2.232</v>
+        <v>2.24</v>
       </c>
       <c r="D237" t="n">
-        <v>2.237</v>
+        <v>2.24</v>
       </c>
       <c r="E237" t="n">
-        <v>2.232</v>
+        <v>2.24</v>
       </c>
       <c r="F237" t="n">
-        <v>180000</v>
+        <v>505000</v>
       </c>
       <c r="G237" t="n">
-        <v>2.240183333333332</v>
+        <v>2.240149999999998</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9389,11 +8701,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9403,22 +8711,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
+        <v>2.237</v>
+      </c>
+      <c r="C238" t="n">
         <v>2.232</v>
       </c>
-      <c r="C238" t="n">
-        <v>2.239</v>
-      </c>
       <c r="D238" t="n">
-        <v>2.239</v>
+        <v>2.237</v>
       </c>
       <c r="E238" t="n">
         <v>2.232</v>
       </c>
       <c r="F238" t="n">
-        <v>42673</v>
+        <v>180000</v>
       </c>
       <c r="G238" t="n">
-        <v>2.240066666666665</v>
+        <v>2.240183333333332</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9428,11 +8736,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9445,19 +8749,19 @@
         <v>2.232</v>
       </c>
       <c r="C239" t="n">
-        <v>2.224</v>
+        <v>2.239</v>
       </c>
       <c r="D239" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="E239" t="n">
         <v>2.232</v>
       </c>
-      <c r="E239" t="n">
-        <v>2.224</v>
-      </c>
       <c r="F239" t="n">
-        <v>20000</v>
+        <v>42673</v>
       </c>
       <c r="G239" t="n">
-        <v>2.239716666666665</v>
+        <v>2.240066666666665</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9467,11 +8771,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9481,22 +8781,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>2.239</v>
+        <v>2.232</v>
       </c>
       <c r="C240" t="n">
-        <v>2.239</v>
+        <v>2.224</v>
       </c>
       <c r="D240" t="n">
-        <v>2.239</v>
+        <v>2.232</v>
       </c>
       <c r="E240" t="n">
-        <v>2.239</v>
+        <v>2.224</v>
       </c>
       <c r="F240" t="n">
-        <v>244</v>
+        <v>20000</v>
       </c>
       <c r="G240" t="n">
-        <v>2.239549999999998</v>
+        <v>2.239716666666665</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9506,11 +8806,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9520,22 +8816,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>2.224</v>
+        <v>2.239</v>
       </c>
       <c r="C241" t="n">
-        <v>2.224</v>
+        <v>2.239</v>
       </c>
       <c r="D241" t="n">
-        <v>2.224</v>
+        <v>2.239</v>
       </c>
       <c r="E241" t="n">
-        <v>2.224</v>
+        <v>2.239</v>
       </c>
       <c r="F241" t="n">
-        <v>704755.2665</v>
+        <v>244</v>
       </c>
       <c r="G241" t="n">
-        <v>2.239133333333331</v>
+        <v>2.239549999999998</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9545,11 +8841,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9559,22 +8851,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>2.239</v>
+        <v>2.224</v>
       </c>
       <c r="C242" t="n">
-        <v>2.219</v>
+        <v>2.224</v>
       </c>
       <c r="D242" t="n">
-        <v>2.239</v>
+        <v>2.224</v>
       </c>
       <c r="E242" t="n">
-        <v>2.219</v>
+        <v>2.224</v>
       </c>
       <c r="F242" t="n">
-        <v>774465.6132</v>
+        <v>704755.2665</v>
       </c>
       <c r="G242" t="n">
-        <v>2.238616666666664</v>
+        <v>2.239133333333331</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9584,11 +8876,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9598,22 +8886,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>2.233</v>
+        <v>2.239</v>
       </c>
       <c r="C243" t="n">
-        <v>2.233</v>
+        <v>2.219</v>
       </c>
       <c r="D243" t="n">
-        <v>2.233</v>
+        <v>2.239</v>
       </c>
       <c r="E243" t="n">
-        <v>2.233</v>
+        <v>2.219</v>
       </c>
       <c r="F243" t="n">
-        <v>444</v>
+        <v>774465.6132</v>
       </c>
       <c r="G243" t="n">
-        <v>2.238333333333331</v>
+        <v>2.238616666666664</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9623,11 +8911,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9637,22 +8921,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>2.226</v>
+        <v>2.233</v>
       </c>
       <c r="C244" t="n">
-        <v>2.226</v>
+        <v>2.233</v>
       </c>
       <c r="D244" t="n">
-        <v>2.226</v>
+        <v>2.233</v>
       </c>
       <c r="E244" t="n">
-        <v>2.226</v>
+        <v>2.233</v>
       </c>
       <c r="F244" t="n">
         <v>444</v>
       </c>
       <c r="G244" t="n">
-        <v>2.238016666666665</v>
+        <v>2.238333333333331</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9662,11 +8946,7 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9676,22 +8956,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>2.238</v>
+        <v>2.226</v>
       </c>
       <c r="C245" t="n">
-        <v>2.238</v>
+        <v>2.226</v>
       </c>
       <c r="D245" t="n">
-        <v>2.238</v>
+        <v>2.226</v>
       </c>
       <c r="E245" t="n">
-        <v>2.238</v>
+        <v>2.226</v>
       </c>
       <c r="F245" t="n">
-        <v>14792.389</v>
+        <v>444</v>
       </c>
       <c r="G245" t="n">
-        <v>2.237866666666664</v>
+        <v>2.238016666666665</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9701,11 +8981,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9727,10 +9003,10 @@
         <v>2.238</v>
       </c>
       <c r="F246" t="n">
-        <v>244</v>
+        <v>14792.389</v>
       </c>
       <c r="G246" t="n">
-        <v>2.237716666666664</v>
+        <v>2.237866666666664</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9740,11 +9016,7 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9754,22 +9026,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>2.234</v>
+        <v>2.238</v>
       </c>
       <c r="C247" t="n">
-        <v>2.234</v>
+        <v>2.238</v>
       </c>
       <c r="D247" t="n">
-        <v>2.234</v>
+        <v>2.238</v>
       </c>
       <c r="E247" t="n">
-        <v>2.234</v>
+        <v>2.238</v>
       </c>
       <c r="F247" t="n">
-        <v>444</v>
+        <v>244</v>
       </c>
       <c r="G247" t="n">
-        <v>2.237499999999998</v>
+        <v>2.237716666666664</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9779,11 +9051,7 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9793,22 +9061,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>2.226</v>
+        <v>2.234</v>
       </c>
       <c r="C248" t="n">
-        <v>2.216</v>
+        <v>2.234</v>
       </c>
       <c r="D248" t="n">
-        <v>2.226</v>
+        <v>2.234</v>
       </c>
       <c r="E248" t="n">
-        <v>2.216</v>
+        <v>2.234</v>
       </c>
       <c r="F248" t="n">
-        <v>63566.0765</v>
+        <v>444</v>
       </c>
       <c r="G248" t="n">
-        <v>2.237183333333332</v>
+        <v>2.237499999999998</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9818,11 +9086,7 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9832,22 +9096,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>2.238</v>
+        <v>2.226</v>
       </c>
       <c r="C249" t="n">
-        <v>2.238</v>
+        <v>2.216</v>
       </c>
       <c r="D249" t="n">
-        <v>2.238</v>
+        <v>2.226</v>
       </c>
       <c r="E249" t="n">
-        <v>2.238</v>
+        <v>2.216</v>
       </c>
       <c r="F249" t="n">
-        <v>240</v>
+        <v>63566.0765</v>
       </c>
       <c r="G249" t="n">
-        <v>2.237316666666665</v>
+        <v>2.237183333333332</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9857,11 +9121,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9874,19 +9134,19 @@
         <v>2.238</v>
       </c>
       <c r="C250" t="n">
-        <v>2.237</v>
+        <v>2.238</v>
       </c>
       <c r="D250" t="n">
         <v>2.238</v>
       </c>
       <c r="E250" t="n">
-        <v>2.216</v>
+        <v>2.238</v>
       </c>
       <c r="F250" t="n">
-        <v>22686.3358</v>
+        <v>240</v>
       </c>
       <c r="G250" t="n">
-        <v>2.237433333333331</v>
+        <v>2.237316666666665</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9896,11 +9156,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9910,22 +9166,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>2.236</v>
+        <v>2.238</v>
       </c>
       <c r="C251" t="n">
-        <v>2.236</v>
+        <v>2.237</v>
       </c>
       <c r="D251" t="n">
-        <v>2.236</v>
+        <v>2.238</v>
       </c>
       <c r="E251" t="n">
-        <v>2.236</v>
+        <v>2.216</v>
       </c>
       <c r="F251" t="n">
-        <v>444</v>
+        <v>22686.3358</v>
       </c>
       <c r="G251" t="n">
-        <v>2.237533333333332</v>
+        <v>2.237433333333331</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9935,11 +9191,7 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9961,10 +9213,10 @@
         <v>2.236</v>
       </c>
       <c r="F252" t="n">
-        <v>1000386.0117</v>
+        <v>444</v>
       </c>
       <c r="G252" t="n">
-        <v>2.237816666666665</v>
+        <v>2.237533333333332</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9974,11 +9226,7 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9988,22 +9236,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>2.234</v>
+        <v>2.236</v>
       </c>
       <c r="C253" t="n">
-        <v>2.235</v>
+        <v>2.236</v>
       </c>
       <c r="D253" t="n">
-        <v>2.235</v>
+        <v>2.236</v>
       </c>
       <c r="E253" t="n">
-        <v>2.216</v>
+        <v>2.236</v>
       </c>
       <c r="F253" t="n">
-        <v>1634202.5101</v>
+        <v>1000386.0117</v>
       </c>
       <c r="G253" t="n">
-        <v>2.237733333333332</v>
+        <v>2.237816666666665</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -10013,11 +9261,7 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10027,22 +9271,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>2.233</v>
+        <v>2.234</v>
       </c>
       <c r="C254" t="n">
-        <v>2.233</v>
+        <v>2.235</v>
       </c>
       <c r="D254" t="n">
-        <v>2.233</v>
+        <v>2.235</v>
       </c>
       <c r="E254" t="n">
-        <v>2.233</v>
+        <v>2.216</v>
       </c>
       <c r="F254" t="n">
-        <v>444</v>
+        <v>1634202.5101</v>
       </c>
       <c r="G254" t="n">
-        <v>2.237499999999998</v>
+        <v>2.237733333333332</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -10052,12 +9296,43 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>2.233</v>
+      </c>
+      <c r="C255" t="n">
+        <v>2.233</v>
+      </c>
+      <c r="D255" t="n">
+        <v>2.233</v>
+      </c>
+      <c r="E255" t="n">
+        <v>2.233</v>
+      </c>
+      <c r="F255" t="n">
+        <v>444</v>
+      </c>
+      <c r="G255" t="n">
+        <v>2.237499999999998</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-22 BackTest FNB.xlsx
+++ b/BackTest/2020-01-22 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-638043.3093999998</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-856594.7929999998</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-2919691.9949</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-2919691.9949</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-2919691.9949</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-2919465.9824</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -1342,14 +1342,10 @@
         <v>-12466478.3977</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.192</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2.192</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
@@ -1382,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>2.192</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1421,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>2.192</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -3404,7 +3388,7 @@
         <v>-12994898.56899999</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3437,7 +3421,7 @@
         <v>-13330810.697</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3470,7 +3454,7 @@
         <v>-13330810.697</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3503,7 +3487,7 @@
         <v>-13330810.697</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -5714,7 +5698,7 @@
         <v>-11993154.38095663</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5747,7 +5731,7 @@
         <v>-11995104.69455663</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5780,7 +5764,7 @@
         <v>-13436209.72795663</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5813,7 +5797,7 @@
         <v>-13436209.72795663</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5879,7 +5863,7 @@
         <v>-13436965.72795663</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5945,7 +5929,7 @@
         <v>-13436725.72795663</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6011,7 +5995,7 @@
         <v>-12405310.98075663</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6044,7 +6028,7 @@
         <v>-12405310.98075663</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6077,7 +6061,7 @@
         <v>-12405310.98075663</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6110,7 +6094,7 @@
         <v>-12622001.07375663</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6143,7 +6127,7 @@
         <v>-17542170.21175663</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6176,7 +6160,7 @@
         <v>-17764392.21175663</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6209,7 +6193,7 @@
         <v>-17764152.21175663</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6242,7 +6226,7 @@
         <v>-17764152.21175663</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6473,7 +6457,7 @@
         <v>-18599904.49885663</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6506,7 +6490,7 @@
         <v>-18599904.49885663</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6539,7 +6523,7 @@
         <v>-18599660.49885663</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6572,7 +6556,7 @@
         <v>-18599660.49885663</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6638,7 +6622,7 @@
         <v>-18599664.49885663</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6671,7 +6655,7 @@
         <v>-18791694.33615663</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7925,14 +7909,10 @@
         <v>-20529651.27685662</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I228" t="n">
-        <v>2.219</v>
-      </c>
-      <c r="J228" t="n">
-        <v>2.219</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
@@ -7962,7 +7942,7 @@
         <v>-20529651.27685662</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>2.219</v>
@@ -7970,11 +7950,7 @@
       <c r="J229" t="n">
         <v>2.219</v>
       </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8003,7 +7979,7 @@
         <v>-20529651.27685662</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>2.219</v>
@@ -8044,11 +8020,19 @@
         <v>-20524691.50875662</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>2.219</v>
+      </c>
+      <c r="J231" t="n">
+        <v>2.219</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8176,7 +8160,7 @@
         <v>-20559209.65385662</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8407,7 +8391,7 @@
         <v>-20327054.58695662</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8671,10 +8655,14 @@
         <v>-21546065.77735662</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="J250" t="n">
+        <v>2.23</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
@@ -8704,11 +8692,19 @@
         <v>-21759831.77625662</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="J251" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8737,11 +8733,19 @@
         <v>-21728065.77735662</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>2.219</v>
+      </c>
+      <c r="J252" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8770,11 +8774,17 @@
         <v>-21723065.77735662</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8806,8 +8816,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8836,11 +8852,17 @@
         <v>-21598065.77735662</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8872,8 +8894,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8902,11 +8930,17 @@
         <v>-21795005.97005662</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8935,11 +8969,17 @@
         <v>-21795005.97005662</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8971,8 +9011,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9004,8 +9050,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9034,11 +9086,17 @@
         <v>-21816899.57115662</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9070,8 +9128,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9102,9 +9166,17 @@
       <c r="H263" t="n">
         <v>1</v>
       </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="I263" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="J263" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9133,11 +9205,19 @@
         <v>-21837884.18505662</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="J264" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9166,11 +9246,17 @@
         <v>-21837884.18505662</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9202,8 +9288,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9232,11 +9324,19 @@
         <v>-23378786.70305661</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="J267" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9265,11 +9365,19 @@
         <v>-23378786.70305661</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J268" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9298,11 +9406,19 @@
         <v>-23378786.70305661</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J269" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9331,11 +9447,19 @@
         <v>-22053006.10865662</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J270" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9364,11 +9488,19 @@
         <v>-22053256.10865662</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="J271" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9397,11 +9529,19 @@
         <v>-22053256.10865662</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>2.229</v>
+      </c>
+      <c r="J272" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9432,9 +9572,17 @@
       <c r="H273" t="n">
         <v>1</v>
       </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="I273" t="n">
+        <v>2.229</v>
+      </c>
+      <c r="J273" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9463,11 +9611,19 @@
         <v>-21628513.66575661</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>2.219</v>
+      </c>
+      <c r="J274" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9499,8 +9655,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9532,8 +9694,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9565,8 +9733,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9598,8 +9772,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9631,8 +9811,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9664,8 +9850,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9694,11 +9886,19 @@
         <v>-21603516.60725661</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="J281" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9730,8 +9930,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9763,8 +9969,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9796,8 +10008,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9829,8 +10047,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9862,8 +10086,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9895,8 +10125,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9928,8 +10164,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9961,8 +10203,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9994,8 +10242,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10027,8 +10281,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10060,8 +10320,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10093,8 +10359,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10126,8 +10398,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10159,8 +10437,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10192,8 +10476,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10225,8 +10515,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10258,8 +10554,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10291,8 +10593,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10324,8 +10632,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10357,8 +10671,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10390,8 +10710,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10423,8 +10749,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10456,8 +10788,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10489,8 +10827,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10522,8 +10866,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10555,8 +10905,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10588,8 +10944,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10621,8 +10983,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10654,8 +11022,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10687,8 +11061,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10720,8 +11100,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10753,8 +11139,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10786,8 +11178,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10819,8 +11217,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10852,8 +11256,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10885,8 +11295,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10918,8 +11334,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10951,8 +11373,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10984,8 +11412,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11017,8 +11451,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11047,11 +11487,19 @@
         <v>-28362150.61915662</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>2.232</v>
+      </c>
+      <c r="J322" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11083,14 +11531,20 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
       <c r="M323" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest FNB.xlsx
+++ b/BackTest/2020-01-22 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-638043.3093999998</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-856594.7929999998</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-2919691.9949</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-2919691.9949</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-2919691.9949</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-2919465.9824</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-15562314.1904</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-15562070.1904</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-15562958.1904</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-15562958.1904</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-14050850.5169</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-14075850.5169</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-14055388.4985</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-14055388.4985</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -4741,10 +4741,14 @@
         <v>-13406606.60319776</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2.221</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
@@ -4777,8 +4781,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +4820,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +4859,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4873,11 +4895,19 @@
         <v>-10899999.64399776</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>2.229</v>
+      </c>
+      <c r="J136" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +4939,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4942,8 +4978,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4975,8 +5017,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5056,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5041,8 +5095,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5134,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5173,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5140,8 +5212,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5173,8 +5251,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5206,8 +5290,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5239,8 +5329,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5272,8 +5368,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +5407,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +5446,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5371,8 +5485,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5404,8 +5524,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5437,8 +5563,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5470,8 +5602,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +5641,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5536,8 +5680,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +5719,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +5758,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5635,8 +5797,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5668,8 +5836,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5701,8 +5875,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +5911,17 @@
         <v>-11995104.69455663</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +5950,17 @@
         <v>-13436209.72795663</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5797,11 +5989,17 @@
         <v>-13436209.72795663</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5833,8 +6031,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5863,11 +6067,17 @@
         <v>-13436965.72795663</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5899,8 +6109,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5932,8 +6148,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5965,8 +6187,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5995,11 +6223,17 @@
         <v>-12405310.98075663</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6028,11 +6262,17 @@
         <v>-12405310.98075663</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6061,11 +6301,17 @@
         <v>-12405310.98075663</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6094,11 +6340,17 @@
         <v>-12622001.07375663</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6127,11 +6379,17 @@
         <v>-17542170.21175663</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6160,11 +6418,17 @@
         <v>-17764392.21175663</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6193,11 +6457,17 @@
         <v>-17764152.21175663</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6226,11 +6496,17 @@
         <v>-17764152.21175663</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6262,8 +6538,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6295,8 +6577,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6328,8 +6616,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6361,8 +6655,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6394,8 +6694,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6427,8 +6733,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6457,11 +6769,17 @@
         <v>-18599904.49885663</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6493,10 +6811,16 @@
         <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L185" t="n">
-        <v>1</v>
+        <v>1.005805943268798</v>
       </c>
       <c r="M185" t="inlineStr"/>
     </row>
@@ -6556,7 +6880,7 @@
         <v>-18599660.49885663</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6622,7 +6946,7 @@
         <v>-18599664.49885663</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7942,14 +8266,10 @@
         <v>-20529651.27685662</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>2.219</v>
-      </c>
-      <c r="J229" t="n">
-        <v>2.219</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
@@ -7987,11 +8307,7 @@
       <c r="J230" t="n">
         <v>2.219</v>
       </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8061,11 +8377,19 @@
         <v>-20473493.97145662</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="J232" t="n">
+        <v>2.219</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8655,14 +8979,10 @@
         <v>-21546065.77735662</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="J250" t="n">
-        <v>2.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
@@ -8692,2305 +9012,1953 @@
         <v>-21759831.77625662</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="J251" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K251" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="C252" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="D252" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="E252" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="F252" t="n">
+        <v>31765.9989</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-21728065.77735662</v>
+      </c>
+      <c r="H252" t="n">
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>2.219</v>
+      </c>
+      <c r="J252" t="n">
+        <v>2.219</v>
+      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="C253" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="D253" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="E253" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="F253" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-21723065.77735662</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>2.219</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="C254" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="D254" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="E254" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="F254" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-21723065.77735662</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>2.219</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="C255" t="n">
+        <v>2.257</v>
+      </c>
+      <c r="D255" t="n">
+        <v>2.257</v>
+      </c>
+      <c r="E255" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="F255" t="n">
+        <v>125000</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-21598065.77735662</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>2.257</v>
+      </c>
+      <c r="C256" t="n">
+        <v>2.258</v>
+      </c>
+      <c r="D256" t="n">
+        <v>2.258</v>
+      </c>
+      <c r="E256" t="n">
+        <v>2.257</v>
+      </c>
+      <c r="F256" t="n">
+        <v>288000</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-21310065.77735662</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="C257" t="n">
+        <v>2.257</v>
+      </c>
+      <c r="D257" t="n">
+        <v>2.257</v>
+      </c>
+      <c r="E257" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="F257" t="n">
+        <v>484940.1927</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-21795005.97005662</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="C258" t="n">
+        <v>2.257</v>
+      </c>
+      <c r="D258" t="n">
+        <v>2.257</v>
+      </c>
+      <c r="E258" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="F258" t="n">
+        <v>47294.0641</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-21795005.97005662</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="C259" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="D259" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="E259" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="F259" t="n">
+        <v>21893.6011</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-21816899.57115662</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="C260" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="D260" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="E260" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="F260" t="n">
+        <v>87865.4436</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-21816899.57115662</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="C261" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="D261" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="E261" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="F261" t="n">
+        <v>328121.3801</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-21816899.57115662</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="C262" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="D262" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="E262" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="F262" t="n">
+        <v>21284.6139</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-21838184.18505662</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="C263" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="D263" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="E263" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="F263" t="n">
+        <v>198000</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-21838184.18505662</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>2.254</v>
+      </c>
+      <c r="C264" t="n">
+        <v>2.254</v>
+      </c>
+      <c r="D264" t="n">
+        <v>2.254</v>
+      </c>
+      <c r="E264" t="n">
+        <v>2.254</v>
+      </c>
+      <c r="F264" t="n">
+        <v>300</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-21837884.18505662</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>2.254</v>
+      </c>
+      <c r="C265" t="n">
+        <v>2.254</v>
+      </c>
+      <c r="D265" t="n">
+        <v>2.254</v>
+      </c>
+      <c r="E265" t="n">
+        <v>2.254</v>
+      </c>
+      <c r="F265" t="n">
+        <v>443.6557231588287</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-21837884.18505662</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="C266" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="D266" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="E266" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="F266" t="n">
+        <v>32424.6501</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-21870308.83515662</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="C267" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="D267" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="E267" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="F267" t="n">
+        <v>1508477.8679</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-23378786.70305661</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="C268" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="D268" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="E268" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="F268" t="n">
+        <v>36671.7576</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-23378786.70305661</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="C269" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="D269" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="E269" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="F269" t="n">
+        <v>14000</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-23378786.70305661</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="C270" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="D270" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="E270" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="F270" t="n">
+        <v>1325780.5944</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-22053006.10865662</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>2.229</v>
+      </c>
+      <c r="C271" t="n">
+        <v>2.229</v>
+      </c>
+      <c r="D271" t="n">
+        <v>2.229</v>
+      </c>
+      <c r="E271" t="n">
+        <v>2.229</v>
+      </c>
+      <c r="F271" t="n">
+        <v>250</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-22053256.10865662</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>2.229</v>
+      </c>
+      <c r="C272" t="n">
+        <v>2.229</v>
+      </c>
+      <c r="D272" t="n">
+        <v>2.229</v>
+      </c>
+      <c r="E272" t="n">
+        <v>2.229</v>
+      </c>
+      <c r="F272" t="n">
+        <v>35850</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-22053256.10865662</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>2.219</v>
+      </c>
+      <c r="C273" t="n">
+        <v>2.219</v>
+      </c>
+      <c r="D273" t="n">
+        <v>2.219</v>
+      </c>
+      <c r="E273" t="n">
+        <v>2.219</v>
+      </c>
+      <c r="F273" t="n">
+        <v>225.5252</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-22053481.63385661</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="C274" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="D274" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="E274" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="F274" t="n">
+        <v>424967.9681</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-21628513.66575661</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="C275" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="D275" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="E275" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="F275" t="n">
+        <v>11108.1257</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-21628513.66575661</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="C276" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="D276" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="E276" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="F276" t="n">
+        <v>392.1001</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-21628121.56565661</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>2.245</v>
+      </c>
+      <c r="C277" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="D277" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="E277" t="n">
+        <v>2.245</v>
+      </c>
+      <c r="F277" t="n">
+        <v>666</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-21627455.56565661</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>2.249</v>
+      </c>
+      <c r="C278" t="n">
+        <v>2.249</v>
+      </c>
+      <c r="D278" t="n">
+        <v>2.249</v>
+      </c>
+      <c r="E278" t="n">
+        <v>2.249</v>
+      </c>
+      <c r="F278" t="n">
+        <v>334</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-21627121.56565661</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>2.245</v>
+      </c>
+      <c r="C279" t="n">
+        <v>2.245</v>
+      </c>
+      <c r="D279" t="n">
+        <v>2.245</v>
+      </c>
+      <c r="E279" t="n">
+        <v>2.245</v>
+      </c>
+      <c r="F279" t="n">
+        <v>44886.212</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-21672007.77765661</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="C280" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="D280" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="E280" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="F280" t="n">
+        <v>7391.4682</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-21679399.24585661</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>2.245</v>
+      </c>
+      <c r="C281" t="n">
+        <v>2.245</v>
+      </c>
+      <c r="D281" t="n">
+        <v>2.245</v>
+      </c>
+      <c r="E281" t="n">
+        <v>2.245</v>
+      </c>
+      <c r="F281" t="n">
+        <v>75882.63860000001</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-21603516.60725661</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>2.245</v>
+      </c>
+      <c r="C282" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D282" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E282" t="n">
+        <v>2.245</v>
+      </c>
+      <c r="F282" t="n">
+        <v>71730</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-21531786.60725661</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>2.228</v>
+      </c>
+      <c r="C283" t="n">
+        <v>2.225</v>
+      </c>
+      <c r="D283" t="n">
+        <v>2.228</v>
+      </c>
+      <c r="E283" t="n">
+        <v>2.225</v>
+      </c>
+      <c r="F283" t="n">
+        <v>384133.8475</v>
+      </c>
+      <c r="G283" t="n">
+        <v>-21915920.45475661</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>2.224</v>
+      </c>
+      <c r="C284" t="n">
+        <v>2.224</v>
+      </c>
+      <c r="D284" t="n">
+        <v>2.224</v>
+      </c>
+      <c r="E284" t="n">
+        <v>2.224</v>
+      </c>
+      <c r="F284" t="n">
+        <v>52334.3464</v>
+      </c>
+      <c r="G284" t="n">
+        <v>-21968254.80115661</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>2.248</v>
+      </c>
+      <c r="C285" t="n">
+        <v>2.248</v>
+      </c>
+      <c r="D285" t="n">
+        <v>2.248</v>
+      </c>
+      <c r="E285" t="n">
+        <v>2.248</v>
+      </c>
+      <c r="F285" t="n">
+        <v>250</v>
+      </c>
+      <c r="G285" t="n">
+        <v>-21968004.80115661</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="C286" t="n">
+        <v>2.248</v>
+      </c>
+      <c r="D286" t="n">
+        <v>2.248</v>
+      </c>
+      <c r="E286" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="F286" t="n">
+        <v>34611.4615</v>
+      </c>
+      <c r="G286" t="n">
+        <v>-21968004.80115661</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="C287" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="D287" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="E287" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="F287" t="n">
+        <v>18246.8049</v>
+      </c>
+      <c r="G287" t="n">
+        <v>-21986251.60605662</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="C288" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="D288" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="E288" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="F288" t="n">
+        <v>225</v>
+      </c>
+      <c r="G288" t="n">
+        <v>-21986026.60605662</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="C289" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="D289" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="E289" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="F289" t="n">
+        <v>244</v>
+      </c>
+      <c r="G289" t="n">
+        <v>-21986026.60605662</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="C290" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="D290" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="E290" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="F290" t="n">
+        <v>83079.96520000001</v>
+      </c>
+      <c r="G290" t="n">
+        <v>-21986026.60605662</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="C291" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="D291" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="E291" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="F291" t="n">
+        <v>164760.9248</v>
+      </c>
+      <c r="G291" t="n">
+        <v>-22150787.53085662</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="C292" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="D292" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="E292" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="F292" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G292" t="n">
+        <v>-22120787.53085662</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>2.225</v>
+      </c>
+      <c r="C293" t="n">
+        <v>2.224</v>
+      </c>
+      <c r="D293" t="n">
+        <v>2.225</v>
+      </c>
+      <c r="E293" t="n">
+        <v>2.224</v>
+      </c>
+      <c r="F293" t="n">
+        <v>543981.1777</v>
+      </c>
+      <c r="G293" t="n">
+        <v>-22664768.70855662</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="C294" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="D294" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="E294" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="F294" t="n">
+        <v>240</v>
+      </c>
+      <c r="G294" t="n">
+        <v>-22664528.70855662</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="C295" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="D295" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="E295" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="F295" t="n">
+        <v>505000</v>
+      </c>
+      <c r="G295" t="n">
+        <v>-22664528.70855662</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>2.237</v>
+      </c>
+      <c r="C296" t="n">
+        <v>2.232</v>
+      </c>
+      <c r="D296" t="n">
+        <v>2.237</v>
+      </c>
+      <c r="E296" t="n">
+        <v>2.232</v>
+      </c>
+      <c r="F296" t="n">
+        <v>180000</v>
+      </c>
+      <c r="G296" t="n">
+        <v>-22844528.70855662</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>2.232</v>
+      </c>
+      <c r="C297" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="D297" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="E297" t="n">
+        <v>2.232</v>
+      </c>
+      <c r="F297" t="n">
+        <v>42673</v>
+      </c>
+      <c r="G297" t="n">
+        <v>-22801855.70855662</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>2.232</v>
+      </c>
+      <c r="C298" t="n">
+        <v>2.224</v>
+      </c>
+      <c r="D298" t="n">
+        <v>2.232</v>
+      </c>
+      <c r="E298" t="n">
+        <v>2.224</v>
+      </c>
+      <c r="F298" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G298" t="n">
+        <v>-22821855.70855662</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="C299" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="E299" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="F299" t="n">
+        <v>244</v>
+      </c>
+      <c r="G299" t="n">
+        <v>-22821611.70855662</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>2.224</v>
+      </c>
+      <c r="C300" t="n">
+        <v>2.224</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2.224</v>
+      </c>
+      <c r="E300" t="n">
+        <v>2.224</v>
+      </c>
+      <c r="F300" t="n">
+        <v>704755.2665</v>
+      </c>
+      <c r="G300" t="n">
+        <v>-23526366.97505662</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="C301" t="n">
+        <v>2.219</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="E301" t="n">
+        <v>2.219</v>
+      </c>
+      <c r="F301" t="n">
+        <v>774465.6132</v>
+      </c>
+      <c r="G301" t="n">
+        <v>-24300832.58825662</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>2.233</v>
+      </c>
+      <c r="C302" t="n">
+        <v>2.233</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2.233</v>
+      </c>
+      <c r="E302" t="n">
+        <v>2.233</v>
+      </c>
+      <c r="F302" t="n">
+        <v>444</v>
+      </c>
+      <c r="G302" t="n">
+        <v>-24300388.58825662</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>2.226</v>
+      </c>
+      <c r="C303" t="n">
+        <v>2.226</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2.226</v>
+      </c>
+      <c r="E303" t="n">
+        <v>2.226</v>
+      </c>
+      <c r="F303" t="n">
+        <v>444</v>
+      </c>
+      <c r="G303" t="n">
+        <v>-24300832.58825662</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>2.238</v>
+      </c>
+      <c r="C304" t="n">
+        <v>2.238</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2.238</v>
+      </c>
+      <c r="E304" t="n">
+        <v>2.238</v>
+      </c>
+      <c r="F304" t="n">
+        <v>14792.389</v>
+      </c>
+      <c r="G304" t="n">
+        <v>-24286040.19925662</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>2.238</v>
+      </c>
+      <c r="C305" t="n">
+        <v>2.238</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2.238</v>
+      </c>
+      <c r="E305" t="n">
+        <v>2.238</v>
+      </c>
+      <c r="F305" t="n">
+        <v>244</v>
+      </c>
+      <c r="G305" t="n">
+        <v>-24286040.19925662</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>2.234</v>
+      </c>
+      <c r="C306" t="n">
+        <v>2.234</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2.234</v>
+      </c>
+      <c r="E306" t="n">
+        <v>2.234</v>
+      </c>
+      <c r="F306" t="n">
+        <v>444</v>
+      </c>
+      <c r="G306" t="n">
+        <v>-24286484.19925662</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>2.226</v>
+      </c>
+      <c r="C307" t="n">
+        <v>2.216</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2.226</v>
+      </c>
+      <c r="E307" t="n">
+        <v>2.216</v>
+      </c>
+      <c r="F307" t="n">
+        <v>63566.0765</v>
+      </c>
+      <c r="G307" t="n">
+        <v>-24350050.27575662</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>2.238</v>
+      </c>
+      <c r="C308" t="n">
+        <v>2.238</v>
+      </c>
+      <c r="D308" t="n">
+        <v>2.238</v>
+      </c>
+      <c r="E308" t="n">
+        <v>2.238</v>
+      </c>
+      <c r="F308" t="n">
+        <v>240</v>
+      </c>
+      <c r="G308" t="n">
+        <v>-24349810.27575662</v>
+      </c>
+      <c r="H308" t="n">
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>2.216</v>
+      </c>
+      <c r="J308" t="n">
+        <v>2.216</v>
+      </c>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>2.238</v>
+      </c>
+      <c r="C309" t="n">
+        <v>2.237</v>
+      </c>
+      <c r="D309" t="n">
+        <v>2.238</v>
+      </c>
+      <c r="E309" t="n">
+        <v>2.216</v>
+      </c>
+      <c r="F309" t="n">
+        <v>22686.3358</v>
+      </c>
+      <c r="G309" t="n">
+        <v>-24372496.61155662</v>
+      </c>
+      <c r="H309" t="n">
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>2.238</v>
+      </c>
+      <c r="J309" t="n">
+        <v>2.216</v>
+      </c>
+      <c r="K309" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="C252" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="D252" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="E252" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="F252" t="n">
-        <v>31765.9989</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-21728065.77735662</v>
-      </c>
-      <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>2.219</v>
-      </c>
-      <c r="J252" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="C253" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="D253" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="E253" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="F253" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-21723065.77735662</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="C254" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="D254" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="E254" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="F254" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-21723065.77735662</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="C255" t="n">
-        <v>2.257</v>
-      </c>
-      <c r="D255" t="n">
-        <v>2.257</v>
-      </c>
-      <c r="E255" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="F255" t="n">
-        <v>125000</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-21598065.77735662</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>2.257</v>
-      </c>
-      <c r="C256" t="n">
-        <v>2.258</v>
-      </c>
-      <c r="D256" t="n">
-        <v>2.258</v>
-      </c>
-      <c r="E256" t="n">
-        <v>2.257</v>
-      </c>
-      <c r="F256" t="n">
-        <v>288000</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-21310065.77735662</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="C257" t="n">
-        <v>2.257</v>
-      </c>
-      <c r="D257" t="n">
-        <v>2.257</v>
-      </c>
-      <c r="E257" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="F257" t="n">
-        <v>484940.1927</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-21795005.97005662</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="C258" t="n">
-        <v>2.257</v>
-      </c>
-      <c r="D258" t="n">
-        <v>2.257</v>
-      </c>
-      <c r="E258" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="F258" t="n">
-        <v>47294.0641</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-21795005.97005662</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="C259" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="D259" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="E259" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="F259" t="n">
-        <v>21893.6011</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-21816899.57115662</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="C260" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="D260" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="E260" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="F260" t="n">
-        <v>87865.4436</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-21816899.57115662</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="C261" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="D261" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="E261" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="F261" t="n">
-        <v>328121.3801</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-21816899.57115662</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="C262" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="D262" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="E262" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="F262" t="n">
-        <v>21284.6139</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-21838184.18505662</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="C263" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="D263" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="E263" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="F263" t="n">
-        <v>198000</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-21838184.18505662</v>
-      </c>
-      <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="J263" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>2.254</v>
-      </c>
-      <c r="C264" t="n">
-        <v>2.254</v>
-      </c>
-      <c r="D264" t="n">
-        <v>2.254</v>
-      </c>
-      <c r="E264" t="n">
-        <v>2.254</v>
-      </c>
-      <c r="F264" t="n">
-        <v>300</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-21837884.18505662</v>
-      </c>
-      <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="J264" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>2.254</v>
-      </c>
-      <c r="C265" t="n">
-        <v>2.254</v>
-      </c>
-      <c r="D265" t="n">
-        <v>2.254</v>
-      </c>
-      <c r="E265" t="n">
-        <v>2.254</v>
-      </c>
-      <c r="F265" t="n">
-        <v>443.6557231588287</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-21837884.18505662</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="C266" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="D266" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="E266" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="F266" t="n">
-        <v>32424.6501</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-21870308.83515662</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="C267" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="D267" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="E267" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="F267" t="n">
-        <v>1508477.8679</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-23378786.70305661</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="J267" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="C268" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="D268" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="E268" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="F268" t="n">
-        <v>36671.7576</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-23378786.70305661</v>
-      </c>
-      <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="J268" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="C269" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="D269" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="E269" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="F269" t="n">
-        <v>14000</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-23378786.70305661</v>
-      </c>
-      <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="J269" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="C270" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="D270" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="E270" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="F270" t="n">
-        <v>1325780.5944</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-22053006.10865662</v>
-      </c>
-      <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="J270" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>2.229</v>
-      </c>
-      <c r="C271" t="n">
-        <v>2.229</v>
-      </c>
-      <c r="D271" t="n">
-        <v>2.229</v>
-      </c>
-      <c r="E271" t="n">
-        <v>2.229</v>
-      </c>
-      <c r="F271" t="n">
-        <v>250</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-22053256.10865662</v>
-      </c>
-      <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="J271" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>2.229</v>
-      </c>
-      <c r="C272" t="n">
-        <v>2.229</v>
-      </c>
-      <c r="D272" t="n">
-        <v>2.229</v>
-      </c>
-      <c r="E272" t="n">
-        <v>2.229</v>
-      </c>
-      <c r="F272" t="n">
-        <v>35850</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-22053256.10865662</v>
-      </c>
-      <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>2.229</v>
-      </c>
-      <c r="J272" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>2.219</v>
-      </c>
-      <c r="C273" t="n">
-        <v>2.219</v>
-      </c>
-      <c r="D273" t="n">
-        <v>2.219</v>
-      </c>
-      <c r="E273" t="n">
-        <v>2.219</v>
-      </c>
-      <c r="F273" t="n">
-        <v>225.5252</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-22053481.63385661</v>
-      </c>
-      <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>2.229</v>
-      </c>
-      <c r="J273" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="C274" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="D274" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="E274" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="F274" t="n">
-        <v>424967.9681</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-21628513.66575661</v>
-      </c>
-      <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>2.219</v>
-      </c>
-      <c r="J274" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="C275" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="D275" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="E275" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="F275" t="n">
-        <v>11108.1257</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-21628513.66575661</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="C276" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="D276" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="E276" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="F276" t="n">
-        <v>392.1001</v>
-      </c>
-      <c r="G276" t="n">
-        <v>-21628121.56565661</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>2.245</v>
-      </c>
-      <c r="C277" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="D277" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="E277" t="n">
-        <v>2.245</v>
-      </c>
-      <c r="F277" t="n">
-        <v>666</v>
-      </c>
-      <c r="G277" t="n">
-        <v>-21627455.56565661</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>2.249</v>
-      </c>
-      <c r="C278" t="n">
-        <v>2.249</v>
-      </c>
-      <c r="D278" t="n">
-        <v>2.249</v>
-      </c>
-      <c r="E278" t="n">
-        <v>2.249</v>
-      </c>
-      <c r="F278" t="n">
-        <v>334</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-21627121.56565661</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>2.245</v>
-      </c>
-      <c r="C279" t="n">
-        <v>2.245</v>
-      </c>
-      <c r="D279" t="n">
-        <v>2.245</v>
-      </c>
-      <c r="E279" t="n">
-        <v>2.245</v>
-      </c>
-      <c r="F279" t="n">
-        <v>44886.212</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-21672007.77765661</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="C280" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="D280" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="E280" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="F280" t="n">
-        <v>7391.4682</v>
-      </c>
-      <c r="G280" t="n">
-        <v>-21679399.24585661</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>2.245</v>
-      </c>
-      <c r="C281" t="n">
-        <v>2.245</v>
-      </c>
-      <c r="D281" t="n">
-        <v>2.245</v>
-      </c>
-      <c r="E281" t="n">
-        <v>2.245</v>
-      </c>
-      <c r="F281" t="n">
-        <v>75882.63860000001</v>
-      </c>
-      <c r="G281" t="n">
-        <v>-21603516.60725661</v>
-      </c>
-      <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="J281" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>2.245</v>
-      </c>
-      <c r="C282" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="D282" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="E282" t="n">
-        <v>2.245</v>
-      </c>
-      <c r="F282" t="n">
-        <v>71730</v>
-      </c>
-      <c r="G282" t="n">
-        <v>-21531786.60725661</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>2.228</v>
-      </c>
-      <c r="C283" t="n">
-        <v>2.225</v>
-      </c>
-      <c r="D283" t="n">
-        <v>2.228</v>
-      </c>
-      <c r="E283" t="n">
-        <v>2.225</v>
-      </c>
-      <c r="F283" t="n">
-        <v>384133.8475</v>
-      </c>
-      <c r="G283" t="n">
-        <v>-21915920.45475661</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>2.224</v>
-      </c>
-      <c r="C284" t="n">
-        <v>2.224</v>
-      </c>
-      <c r="D284" t="n">
-        <v>2.224</v>
-      </c>
-      <c r="E284" t="n">
-        <v>2.224</v>
-      </c>
-      <c r="F284" t="n">
-        <v>52334.3464</v>
-      </c>
-      <c r="G284" t="n">
-        <v>-21968254.80115661</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>2.248</v>
-      </c>
-      <c r="C285" t="n">
-        <v>2.248</v>
-      </c>
-      <c r="D285" t="n">
-        <v>2.248</v>
-      </c>
-      <c r="E285" t="n">
-        <v>2.248</v>
-      </c>
-      <c r="F285" t="n">
-        <v>250</v>
-      </c>
-      <c r="G285" t="n">
-        <v>-21968004.80115661</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="C286" t="n">
-        <v>2.248</v>
-      </c>
-      <c r="D286" t="n">
-        <v>2.248</v>
-      </c>
-      <c r="E286" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="F286" t="n">
-        <v>34611.4615</v>
-      </c>
-      <c r="G286" t="n">
-        <v>-21968004.80115661</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="C287" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="D287" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="E287" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="F287" t="n">
-        <v>18246.8049</v>
-      </c>
-      <c r="G287" t="n">
-        <v>-21986251.60605662</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="C288" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="D288" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="E288" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="F288" t="n">
-        <v>225</v>
-      </c>
-      <c r="G288" t="n">
-        <v>-21986026.60605662</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="C289" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="D289" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="E289" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="F289" t="n">
-        <v>244</v>
-      </c>
-      <c r="G289" t="n">
-        <v>-21986026.60605662</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="C290" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="D290" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="E290" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="F290" t="n">
-        <v>83079.96520000001</v>
-      </c>
-      <c r="G290" t="n">
-        <v>-21986026.60605662</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="C291" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="D291" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="E291" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="F291" t="n">
-        <v>164760.9248</v>
-      </c>
-      <c r="G291" t="n">
-        <v>-22150787.53085662</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="C292" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="D292" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="E292" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="F292" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G292" t="n">
-        <v>-22120787.53085662</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>2.225</v>
-      </c>
-      <c r="C293" t="n">
-        <v>2.224</v>
-      </c>
-      <c r="D293" t="n">
-        <v>2.225</v>
-      </c>
-      <c r="E293" t="n">
-        <v>2.224</v>
-      </c>
-      <c r="F293" t="n">
-        <v>543981.1777</v>
-      </c>
-      <c r="G293" t="n">
-        <v>-22664768.70855662</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="C294" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="D294" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="E294" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="F294" t="n">
-        <v>240</v>
-      </c>
-      <c r="G294" t="n">
-        <v>-22664528.70855662</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="C295" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="D295" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="E295" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="F295" t="n">
-        <v>505000</v>
-      </c>
-      <c r="G295" t="n">
-        <v>-22664528.70855662</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>2.237</v>
-      </c>
-      <c r="C296" t="n">
-        <v>2.232</v>
-      </c>
-      <c r="D296" t="n">
-        <v>2.237</v>
-      </c>
-      <c r="E296" t="n">
-        <v>2.232</v>
-      </c>
-      <c r="F296" t="n">
-        <v>180000</v>
-      </c>
-      <c r="G296" t="n">
-        <v>-22844528.70855662</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>2.232</v>
-      </c>
-      <c r="C297" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="D297" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="E297" t="n">
-        <v>2.232</v>
-      </c>
-      <c r="F297" t="n">
-        <v>42673</v>
-      </c>
-      <c r="G297" t="n">
-        <v>-22801855.70855662</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>2.232</v>
-      </c>
-      <c r="C298" t="n">
-        <v>2.224</v>
-      </c>
-      <c r="D298" t="n">
-        <v>2.232</v>
-      </c>
-      <c r="E298" t="n">
-        <v>2.224</v>
-      </c>
-      <c r="F298" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G298" t="n">
-        <v>-22821855.70855662</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="C299" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="D299" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="E299" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="F299" t="n">
-        <v>244</v>
-      </c>
-      <c r="G299" t="n">
-        <v>-22821611.70855662</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>2.224</v>
-      </c>
-      <c r="C300" t="n">
-        <v>2.224</v>
-      </c>
-      <c r="D300" t="n">
-        <v>2.224</v>
-      </c>
-      <c r="E300" t="n">
-        <v>2.224</v>
-      </c>
-      <c r="F300" t="n">
-        <v>704755.2665</v>
-      </c>
-      <c r="G300" t="n">
-        <v>-23526366.97505662</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="C301" t="n">
-        <v>2.219</v>
-      </c>
-      <c r="D301" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="E301" t="n">
-        <v>2.219</v>
-      </c>
-      <c r="F301" t="n">
-        <v>774465.6132</v>
-      </c>
-      <c r="G301" t="n">
-        <v>-24300832.58825662</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>2.233</v>
-      </c>
-      <c r="C302" t="n">
-        <v>2.233</v>
-      </c>
-      <c r="D302" t="n">
-        <v>2.233</v>
-      </c>
-      <c r="E302" t="n">
-        <v>2.233</v>
-      </c>
-      <c r="F302" t="n">
-        <v>444</v>
-      </c>
-      <c r="G302" t="n">
-        <v>-24300388.58825662</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>2.226</v>
-      </c>
-      <c r="C303" t="n">
-        <v>2.226</v>
-      </c>
-      <c r="D303" t="n">
-        <v>2.226</v>
-      </c>
-      <c r="E303" t="n">
-        <v>2.226</v>
-      </c>
-      <c r="F303" t="n">
-        <v>444</v>
-      </c>
-      <c r="G303" t="n">
-        <v>-24300832.58825662</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>2.238</v>
-      </c>
-      <c r="C304" t="n">
-        <v>2.238</v>
-      </c>
-      <c r="D304" t="n">
-        <v>2.238</v>
-      </c>
-      <c r="E304" t="n">
-        <v>2.238</v>
-      </c>
-      <c r="F304" t="n">
-        <v>14792.389</v>
-      </c>
-      <c r="G304" t="n">
-        <v>-24286040.19925662</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>2.238</v>
-      </c>
-      <c r="C305" t="n">
-        <v>2.238</v>
-      </c>
-      <c r="D305" t="n">
-        <v>2.238</v>
-      </c>
-      <c r="E305" t="n">
-        <v>2.238</v>
-      </c>
-      <c r="F305" t="n">
-        <v>244</v>
-      </c>
-      <c r="G305" t="n">
-        <v>-24286040.19925662</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>2.234</v>
-      </c>
-      <c r="C306" t="n">
-        <v>2.234</v>
-      </c>
-      <c r="D306" t="n">
-        <v>2.234</v>
-      </c>
-      <c r="E306" t="n">
-        <v>2.234</v>
-      </c>
-      <c r="F306" t="n">
-        <v>444</v>
-      </c>
-      <c r="G306" t="n">
-        <v>-24286484.19925662</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>2.226</v>
-      </c>
-      <c r="C307" t="n">
-        <v>2.216</v>
-      </c>
-      <c r="D307" t="n">
-        <v>2.226</v>
-      </c>
-      <c r="E307" t="n">
-        <v>2.216</v>
-      </c>
-      <c r="F307" t="n">
-        <v>63566.0765</v>
-      </c>
-      <c r="G307" t="n">
-        <v>-24350050.27575662</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>2.238</v>
-      </c>
-      <c r="C308" t="n">
-        <v>2.238</v>
-      </c>
-      <c r="D308" t="n">
-        <v>2.238</v>
-      </c>
-      <c r="E308" t="n">
-        <v>2.238</v>
-      </c>
-      <c r="F308" t="n">
-        <v>240</v>
-      </c>
-      <c r="G308" t="n">
-        <v>-24349810.27575662</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>2.238</v>
-      </c>
-      <c r="C309" t="n">
-        <v>2.237</v>
-      </c>
-      <c r="D309" t="n">
-        <v>2.238</v>
-      </c>
-      <c r="E309" t="n">
-        <v>2.216</v>
-      </c>
-      <c r="F309" t="n">
-        <v>22686.3358</v>
-      </c>
-      <c r="G309" t="n">
-        <v>-24372496.61155662</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11023,7 +10991,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>2.23</v>
+        <v>2.216</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11058,11 +11026,13 @@
         <v>-24372940.61155662</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>2.236</v>
+      </c>
       <c r="J311" t="n">
-        <v>2.23</v>
+        <v>2.216</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11101,7 +11071,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>2.23</v>
+        <v>2.216</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11140,7 +11110,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>2.23</v>
+        <v>2.216</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11179,7 +11149,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>2.23</v>
+        <v>2.216</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11218,7 +11188,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>2.23</v>
+        <v>2.216</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11257,7 +11227,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>2.23</v>
+        <v>2.216</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11296,7 +11266,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>2.23</v>
+        <v>2.216</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11335,7 +11305,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>2.23</v>
+        <v>2.216</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11374,7 +11344,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>2.23</v>
+        <v>2.216</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11413,7 +11383,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>2.23</v>
+        <v>2.216</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11452,7 +11422,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>2.23</v>
+        <v>2.216</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11487,13 +11457,11 @@
         <v>-28362150.61915662</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>2.232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>2.23</v>
+        <v>2.216</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11532,7 +11500,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>2.23</v>
+        <v>2.216</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11545,6 +11513,6 @@
       <c r="M323" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest FNB.xlsx
+++ b/BackTest/2020-01-22 BackTest FNB.xlsx
@@ -2794,7 +2794,7 @@
         <v>-15562314.1904</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-15562070.1904</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-15562958.1904</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-15562958.1904</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-14050850.5169</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-14075850.5169</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-14055388.4985</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-14055388.4985</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -4741,14 +4741,10 @@
         <v>-13406606.60319776</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="J132" t="n">
-        <v>2.221</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
@@ -4781,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4820,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4859,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4895,19 +4873,11 @@
         <v>-10899999.64399776</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>2.229</v>
-      </c>
-      <c r="J136" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4939,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4978,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5017,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5056,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5095,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5134,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5173,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5212,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5251,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5290,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5329,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5368,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5407,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5446,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5485,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5524,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5563,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5602,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5641,14 +5503,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5680,14 +5536,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5719,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5758,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5797,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5836,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5875,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5911,17 +5731,11 @@
         <v>-11995104.69455663</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5950,17 +5764,11 @@
         <v>-13436209.72795663</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5989,17 +5797,11 @@
         <v>-13436209.72795663</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6031,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6070,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6109,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6148,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6187,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6226,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6262,17 +6028,11 @@
         <v>-12405310.98075663</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6301,17 +6061,11 @@
         <v>-12405310.98075663</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6340,17 +6094,11 @@
         <v>-12622001.07375663</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6382,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6421,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6460,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6499,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6538,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6577,14 +6295,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6616,14 +6328,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6655,14 +6361,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6694,14 +6394,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6733,14 +6427,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6772,14 +6460,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6808,19 +6490,13 @@
         <v>-18599904.49885663</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
-        <v>1.005805943268798</v>
+        <v>1</v>
       </c>
       <c r="M185" t="inlineStr"/>
     </row>
@@ -6847,7 +6523,7 @@
         <v>-18599660.49885663</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -8233,10 +7909,14 @@
         <v>-20529651.27685662</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>2.219</v>
+      </c>
+      <c r="J228" t="n">
+        <v>2.219</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
@@ -8266,11 +7946,19 @@
         <v>-20529651.27685662</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>2.219</v>
+      </c>
+      <c r="J229" t="n">
+        <v>2.219</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8307,7 +7995,11 @@
       <c r="J230" t="n">
         <v>2.219</v>
       </c>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8344,11 +8036,7 @@
       <c r="J231" t="n">
         <v>2.219</v>
       </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8421,8 +8109,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>2.219</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8847,10 +8541,14 @@
         <v>-20326935.75515661</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="J246" t="n">
+        <v>2.247</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
@@ -8880,11 +8578,19 @@
         <v>-21126767.92405662</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="J247" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8913,11 +8619,19 @@
         <v>-21546065.77735662</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>2.235</v>
+      </c>
+      <c r="J248" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8946,11 +8660,19 @@
         <v>-21546065.77735662</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="J249" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8979,11 +8701,19 @@
         <v>-21546065.77735662</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="J250" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9012,11 +8742,19 @@
         <v>-21759831.77625662</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="J251" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9051,9 +8789,13 @@
         <v>2.219</v>
       </c>
       <c r="J252" t="n">
-        <v>2.219</v>
-      </c>
-      <c r="K252" t="inlineStr"/>
+        <v>2.247</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9082,386 +8824,460 @@
         <v>-21723065.77735662</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>2.24</v>
+      </c>
       <c r="J253" t="n">
-        <v>2.219</v>
+        <v>2.247</v>
       </c>
       <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="C254" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="D254" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="E254" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="F254" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-21723065.77735662</v>
+      </c>
+      <c r="H254" t="n">
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="J254" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="C255" t="n">
+        <v>2.257</v>
+      </c>
+      <c r="D255" t="n">
+        <v>2.257</v>
+      </c>
+      <c r="E255" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="F255" t="n">
+        <v>125000</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-21598065.77735662</v>
+      </c>
+      <c r="H255" t="n">
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="J255" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>2.257</v>
+      </c>
+      <c r="C256" t="n">
+        <v>2.258</v>
+      </c>
+      <c r="D256" t="n">
+        <v>2.258</v>
+      </c>
+      <c r="E256" t="n">
+        <v>2.257</v>
+      </c>
+      <c r="F256" t="n">
+        <v>288000</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-21310065.77735662</v>
+      </c>
+      <c r="H256" t="n">
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>2.257</v>
+      </c>
+      <c r="J256" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="C257" t="n">
+        <v>2.257</v>
+      </c>
+      <c r="D257" t="n">
+        <v>2.257</v>
+      </c>
+      <c r="E257" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="F257" t="n">
+        <v>484940.1927</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-21795005.97005662</v>
+      </c>
+      <c r="H257" t="n">
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>2.258</v>
+      </c>
+      <c r="J257" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="C258" t="n">
+        <v>2.257</v>
+      </c>
+      <c r="D258" t="n">
+        <v>2.257</v>
+      </c>
+      <c r="E258" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="F258" t="n">
+        <v>47294.0641</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-21795005.97005662</v>
+      </c>
+      <c r="H258" t="n">
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>2.257</v>
+      </c>
+      <c r="J258" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="C259" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="D259" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="E259" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="F259" t="n">
+        <v>21893.6011</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-21816899.57115662</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="C260" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="D260" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="E260" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="F260" t="n">
+        <v>87865.4436</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-21816899.57115662</v>
+      </c>
+      <c r="H260" t="n">
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="J260" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="C261" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="D261" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="E261" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="F261" t="n">
+        <v>328121.3801</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-21816899.57115662</v>
+      </c>
+      <c r="H261" t="n">
+        <v>2</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L261" t="n">
+        <v>0.9990053404539386</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="C262" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="D262" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="E262" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="F262" t="n">
+        <v>21284.6139</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-21838184.18505662</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="K262" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="C254" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="D254" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="E254" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="F254" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-21723065.77735662</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>2.219</v>
-      </c>
-      <c r="K254" t="inlineStr">
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="C263" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="D263" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="E263" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="F263" t="n">
+        <v>198000</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-21838184.18505662</v>
+      </c>
+      <c r="H263" t="n">
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="J263" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>2.254</v>
+      </c>
+      <c r="C264" t="n">
+        <v>2.254</v>
+      </c>
+      <c r="D264" t="n">
+        <v>2.254</v>
+      </c>
+      <c r="E264" t="n">
+        <v>2.254</v>
+      </c>
+      <c r="F264" t="n">
+        <v>300</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-21837884.18505662</v>
+      </c>
+      <c r="H264" t="n">
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="J264" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="K264" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="C255" t="n">
-        <v>2.257</v>
-      </c>
-      <c r="D255" t="n">
-        <v>2.257</v>
-      </c>
-      <c r="E255" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="F255" t="n">
-        <v>125000</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-21598065.77735662</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>2.257</v>
-      </c>
-      <c r="C256" t="n">
-        <v>2.258</v>
-      </c>
-      <c r="D256" t="n">
-        <v>2.258</v>
-      </c>
-      <c r="E256" t="n">
-        <v>2.257</v>
-      </c>
-      <c r="F256" t="n">
-        <v>288000</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-21310065.77735662</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="C257" t="n">
-        <v>2.257</v>
-      </c>
-      <c r="D257" t="n">
-        <v>2.257</v>
-      </c>
-      <c r="E257" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="F257" t="n">
-        <v>484940.1927</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-21795005.97005662</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="C258" t="n">
-        <v>2.257</v>
-      </c>
-      <c r="D258" t="n">
-        <v>2.257</v>
-      </c>
-      <c r="E258" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="F258" t="n">
-        <v>47294.0641</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-21795005.97005662</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="C259" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="D259" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="E259" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="F259" t="n">
-        <v>21893.6011</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-21816899.57115662</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="C260" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="D260" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="E260" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="F260" t="n">
-        <v>87865.4436</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-21816899.57115662</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="C261" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="D261" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="E261" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="F261" t="n">
-        <v>328121.3801</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-21816899.57115662</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="C262" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="D262" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="E262" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="F262" t="n">
-        <v>21284.6139</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-21838184.18505662</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="C263" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="D263" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="E263" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="F263" t="n">
-        <v>198000</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-21838184.18505662</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>2.254</v>
-      </c>
-      <c r="C264" t="n">
-        <v>2.254</v>
-      </c>
-      <c r="D264" t="n">
-        <v>2.254</v>
-      </c>
-      <c r="E264" t="n">
-        <v>2.254</v>
-      </c>
-      <c r="F264" t="n">
-        <v>300</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-21837884.18505662</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9493,8 +9309,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9556,11 +9378,17 @@
         <v>-23378786.70305661</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>2.23</v>
+      </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9589,11 +9417,17 @@
         <v>-23378786.70305661</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>2.22</v>
+      </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9622,11 +9456,17 @@
         <v>-23378786.70305661</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>2.22</v>
+      </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9655,11 +9495,17 @@
         <v>-22053006.10865662</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>2.22</v>
+      </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9688,11 +9534,17 @@
         <v>-22053256.10865662</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>2.23</v>
+      </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9721,11 +9573,17 @@
         <v>-22053256.10865662</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>2.229</v>
+      </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9754,11 +9612,17 @@
         <v>-22053481.63385661</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>2.229</v>
+      </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9787,11 +9651,17 @@
         <v>-21628513.66575661</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>2.219</v>
+      </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9824,7 +9694,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9857,7 +9731,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9890,7 +9768,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9923,7 +9805,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9956,7 +9842,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9985,11 +9875,17 @@
         <v>-21679399.24585661</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>2.245</v>
+      </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10018,11 +9914,17 @@
         <v>-21603516.60725661</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>2.23</v>
+      </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10051,11 +9953,17 @@
         <v>-21531786.60725661</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>2.245</v>
+      </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10088,7 +9996,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10117,11 +10029,17 @@
         <v>-21968254.80115661</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>2.225</v>
+      </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10150,11 +10068,17 @@
         <v>-21968004.80115661</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>2.224</v>
+      </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10187,7 +10111,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10220,7 +10148,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10253,7 +10185,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10286,7 +10222,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10319,7 +10259,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10352,7 +10296,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10385,7 +10333,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10418,7 +10370,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10451,7 +10407,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10484,7 +10444,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10517,7 +10481,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10550,7 +10518,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10583,7 +10555,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10616,7 +10592,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10649,7 +10629,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10682,7 +10666,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10715,7 +10703,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10748,7 +10740,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10781,7 +10777,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10814,7 +10814,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10847,7 +10851,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10880,7 +10888,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10909,15 +10921,15 @@
         <v>-24349810.27575662</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>2.216</v>
-      </c>
-      <c r="J308" t="n">
-        <v>2.216</v>
-      </c>
-      <c r="K308" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10946,17 +10958,13 @@
         <v>-24372496.61155662</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>2.238</v>
-      </c>
-      <c r="J309" t="n">
-        <v>2.216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L309" t="n">
@@ -10990,9 +10998,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>2.216</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11026,14 +11032,10 @@
         <v>-24372940.61155662</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>2.236</v>
-      </c>
-      <c r="J311" t="n">
-        <v>2.216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11070,9 +11072,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>2.216</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11109,9 +11109,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>2.216</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11148,9 +11146,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>2.216</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11187,9 +11183,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>2.216</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11226,9 +11220,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>2.216</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11265,9 +11257,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>2.216</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11304,9 +11294,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>2.216</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11343,9 +11331,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>2.216</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11379,12 +11365,12 @@
         <v>-28362394.61915662</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>2.216</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11418,12 +11404,12 @@
         <v>-28362150.61915662</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>2.216</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11457,12 +11443,12 @@
         <v>-28362150.61915662</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>2.216</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>2.232</v>
+      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11496,12 +11482,12 @@
         <v>-28362150.61915662</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>2.216</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>2.232</v>
+      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-22 BackTest FNB.xlsx
+++ b/BackTest/2020-01-22 BackTest FNB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M323"/>
+  <dimension ref="A1:L323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>33679.255</v>
       </c>
       <c r="G2" t="n">
-        <v>-638043.3093999998</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>18819.7125</v>
       </c>
       <c r="G3" t="n">
-        <v>-638043.3093999998</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>218551.4836</v>
       </c>
       <c r="G4" t="n">
-        <v>-856594.7929999998</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>2063097.2019</v>
       </c>
       <c r="G5" t="n">
-        <v>-2919691.9949</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>95191.90979999999</v>
       </c>
       <c r="G6" t="n">
-        <v>-2919691.9949</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>1519557.0006</v>
       </c>
       <c r="G7" t="n">
-        <v>-2919691.9949</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>226.0125</v>
       </c>
       <c r="G8" t="n">
-        <v>-2919465.9824</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>226.0125</v>
       </c>
       <c r="G9" t="n">
-        <v>-2919239.969899999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>5805930.812</v>
       </c>
       <c r="G10" t="n">
-        <v>-8725170.7819</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>912497.8125</v>
       </c>
       <c r="G11" t="n">
-        <v>-9637668.5944</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>169628.6778</v>
       </c>
       <c r="G12" t="n">
-        <v>-9637668.5944</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>300</v>
       </c>
       <c r="G13" t="n">
-        <v>-9637368.5944</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>657394.6997</v>
       </c>
       <c r="G14" t="n">
-        <v>-10294763.2941</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>23000</v>
       </c>
       <c r="G15" t="n">
-        <v>-10271763.2941</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>408984.4813</v>
       </c>
       <c r="G16" t="n">
-        <v>-10271763.2941</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,19 @@
         <v>12401.3116</v>
       </c>
       <c r="G17" t="n">
-        <v>-10259361.9825</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>2.193</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.193</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +927,21 @@
         <v>1818</v>
       </c>
       <c r="G18" t="n">
-        <v>-10261179.9825</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>2.193</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +963,21 @@
         <v>430166.4813</v>
       </c>
       <c r="G19" t="n">
-        <v>-10261179.9825</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>2.193</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +999,19 @@
         <v>240</v>
       </c>
       <c r="G20" t="n">
-        <v>-10260939.9825</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>2.192</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.192</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1033,21 @@
         <v>260</v>
       </c>
       <c r="G21" t="n">
-        <v>-10261199.9825</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>2.192</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1069,23 @@
         <v>240</v>
       </c>
       <c r="G22" t="n">
-        <v>-10261439.9825</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>2.222</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.192</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1107,15 @@
         <v>95814.69409999999</v>
       </c>
       <c r="G23" t="n">
-        <v>-10357254.6766</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1137,15 @@
         <v>824.3969</v>
       </c>
       <c r="G24" t="n">
-        <v>-10357254.6766</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1167,15 @@
         <v>105730.8366</v>
       </c>
       <c r="G25" t="n">
-        <v>-10251523.84</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1197,15 @@
         <v>289917.2731</v>
       </c>
       <c r="G26" t="n">
-        <v>-10541441.1131</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1227,21 @@
         <v>2000000</v>
       </c>
       <c r="G27" t="n">
-        <v>-12541441.1131</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2.193</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1263,19 @@
         <v>72445.8343</v>
       </c>
       <c r="G28" t="n">
-        <v>-12468995.2788</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1297,21 @@
         <v>2516.8811</v>
       </c>
       <c r="G29" t="n">
-        <v>-12466478.3977</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.192</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1333,19 @@
         <v>367.9935</v>
       </c>
       <c r="G30" t="n">
-        <v>-12466478.3977</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1367,21 @@
         <v>108375.1007</v>
       </c>
       <c r="G31" t="n">
-        <v>-12466478.3977</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2.209</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1403,19 @@
         <v>94181.4017</v>
       </c>
       <c r="G32" t="n">
-        <v>-12466478.3977</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1437,19 @@
         <v>76622.8417</v>
       </c>
       <c r="G33" t="n">
-        <v>-12543101.2394</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1471,19 @@
         <v>540943.6040000001</v>
       </c>
       <c r="G34" t="n">
-        <v>-12002157.6354</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1505,19 @@
         <v>417845.5197</v>
       </c>
       <c r="G35" t="n">
-        <v>-12002157.6354</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1539,19 @@
         <v>42063.908</v>
       </c>
       <c r="G36" t="n">
-        <v>-12002157.6354</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1573,19 @@
         <v>240</v>
       </c>
       <c r="G37" t="n">
-        <v>-12001917.6354</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1607,19 @@
         <v>730</v>
       </c>
       <c r="G38" t="n">
-        <v>-12001187.6354</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1641,19 @@
         <v>270</v>
       </c>
       <c r="G39" t="n">
-        <v>-12001187.6354</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1675,19 @@
         <v>226142.017</v>
       </c>
       <c r="G40" t="n">
-        <v>-12227329.6524</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1709,19 @@
         <v>250</v>
       </c>
       <c r="G41" t="n">
-        <v>-12227079.6524</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1743,19 @@
         <v>366498.7761</v>
       </c>
       <c r="G42" t="n">
-        <v>-12593578.4285</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1777,19 @@
         <v>734880.1335</v>
       </c>
       <c r="G43" t="n">
-        <v>-12593578.4285</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1811,19 @@
         <v>32710.0313</v>
       </c>
       <c r="G44" t="n">
-        <v>-12560868.3972</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1845,19 @@
         <v>40954.2632</v>
       </c>
       <c r="G45" t="n">
-        <v>-12560868.3972</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1879,19 @@
         <v>126616.4031</v>
       </c>
       <c r="G46" t="n">
-        <v>-12687484.8003</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1913,19 @@
         <v>12870.7566</v>
       </c>
       <c r="G47" t="n">
-        <v>-12687484.8003</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1947,19 @@
         <v>444</v>
       </c>
       <c r="G48" t="n">
-        <v>-12687040.8003</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1981,19 @@
         <v>240</v>
       </c>
       <c r="G49" t="n">
-        <v>-12687040.8003</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2015,19 @@
         <v>683399.9031</v>
       </c>
       <c r="G50" t="n">
-        <v>-13370440.7034</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2049,19 @@
         <v>28599.2267</v>
       </c>
       <c r="G51" t="n">
-        <v>-13370440.7034</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2083,19 @@
         <v>534489.7045</v>
       </c>
       <c r="G52" t="n">
-        <v>-13370440.7034</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2117,21 @@
         <v>8895.603300000001</v>
       </c>
       <c r="G53" t="n">
-        <v>-13370440.7034</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2.203</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2153,19 @@
         <v>64771.1797</v>
       </c>
       <c r="G54" t="n">
-        <v>-13305669.5237</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2187,19 @@
         <v>32834.1438</v>
       </c>
       <c r="G55" t="n">
-        <v>-13305669.5237</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2221,19 @@
         <v>43788.6979</v>
       </c>
       <c r="G56" t="n">
-        <v>-13305669.5237</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2255,19 @@
         <v>230</v>
       </c>
       <c r="G57" t="n">
-        <v>-13305439.5237</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2289,19 @@
         <v>143529.962</v>
       </c>
       <c r="G58" t="n">
-        <v>-13448969.4857</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2323,19 @@
         <v>143529.962</v>
       </c>
       <c r="G59" t="n">
-        <v>-13592499.4477</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2357,19 @@
         <v>2664010.3888</v>
       </c>
       <c r="G60" t="n">
-        <v>-16256509.8365</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2391,19 @@
         <v>239560.124</v>
       </c>
       <c r="G61" t="n">
-        <v>-16256509.8365</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2425,19 @@
         <v>38664.1758</v>
       </c>
       <c r="G62" t="n">
-        <v>-16295174.0123</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2459,19 @@
         <v>383982.1009</v>
       </c>
       <c r="G63" t="n">
-        <v>-15911191.9114</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2493,19 @@
         <v>12308.0477</v>
       </c>
       <c r="G64" t="n">
-        <v>-15898883.86369999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2527,19 @@
         <v>240</v>
       </c>
       <c r="G65" t="n">
-        <v>-15898643.86369999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2561,19 @@
         <v>240</v>
       </c>
       <c r="G66" t="n">
-        <v>-15898883.86369999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2595,19 @@
         <v>20480</v>
       </c>
       <c r="G67" t="n">
-        <v>-15919363.86369999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2629,19 @@
         <v>137478.2193</v>
       </c>
       <c r="G68" t="n">
-        <v>-15781885.64439999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2663,19 @@
         <v>109627.9142</v>
       </c>
       <c r="G69" t="n">
-        <v>-15672257.73019999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2697,19 @@
         <v>2272.0481</v>
       </c>
       <c r="G70" t="n">
-        <v>-15672257.73019999</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2731,19 @@
         <v>72693.2531</v>
       </c>
       <c r="G71" t="n">
-        <v>-15744950.98329999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2765,19 @@
         <v>240</v>
       </c>
       <c r="G72" t="n">
-        <v>-15744710.98329999</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2799,19 @@
         <v>182396.7929</v>
       </c>
       <c r="G73" t="n">
-        <v>-15562314.1904</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2833,19 @@
         <v>244</v>
       </c>
       <c r="G74" t="n">
-        <v>-15562070.1904</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2867,19 @@
         <v>444</v>
       </c>
       <c r="G75" t="n">
-        <v>-15562514.1904</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2901,19 @@
         <v>444</v>
       </c>
       <c r="G76" t="n">
-        <v>-15562958.1904</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2935,19 @@
         <v>36981.1765</v>
       </c>
       <c r="G77" t="n">
-        <v>-15562958.1904</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2969,19 @@
         <v>20051.0695</v>
       </c>
       <c r="G78" t="n">
-        <v>-15562958.1904</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +3003,19 @@
         <v>1512107.6735</v>
       </c>
       <c r="G79" t="n">
-        <v>-14050850.5169</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3037,19 @@
         <v>25000</v>
       </c>
       <c r="G80" t="n">
-        <v>-14075850.5169</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3071,19 @@
         <v>20462.0184</v>
       </c>
       <c r="G81" t="n">
-        <v>-14055388.4985</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3105,19 @@
         <v>260592.1767</v>
       </c>
       <c r="G82" t="n">
-        <v>-14055388.4985</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3139,19 @@
         <v>480</v>
       </c>
       <c r="G83" t="n">
-        <v>-14054908.4985</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3173,19 @@
         <v>225591.2251</v>
       </c>
       <c r="G84" t="n">
-        <v>-13829317.2734</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3207,19 @@
         <v>250</v>
       </c>
       <c r="G85" t="n">
-        <v>-13829567.2734</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3241,17 @@
         <v>844866.8533</v>
       </c>
       <c r="G86" t="n">
-        <v>-12984700.4201</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3273,15 @@
         <v>320738.0135</v>
       </c>
       <c r="G87" t="n">
-        <v>-13305438.4336</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3303,15 @@
         <v>230</v>
       </c>
       <c r="G88" t="n">
-        <v>-13305208.4336</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3333,15 @@
         <v>325931.6475</v>
       </c>
       <c r="G89" t="n">
-        <v>-12979276.78609999</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3363,15 @@
         <v>460</v>
       </c>
       <c r="G90" t="n">
-        <v>-12979736.78609999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3393,15 @@
         <v>15161.7829</v>
       </c>
       <c r="G91" t="n">
-        <v>-12994898.56899999</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3423,15 @@
         <v>335912.128</v>
       </c>
       <c r="G92" t="n">
-        <v>-13330810.697</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3453,15 @@
         <v>230</v>
       </c>
       <c r="G93" t="n">
-        <v>-13330810.697</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3483,15 @@
         <v>560049.1161</v>
       </c>
       <c r="G94" t="n">
-        <v>-13330810.697</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3513,15 @@
         <v>3877.0436</v>
       </c>
       <c r="G95" t="n">
-        <v>-13326933.65339999</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3543,15 @@
         <v>20000</v>
       </c>
       <c r="G96" t="n">
-        <v>-13306933.65339999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3573,15 @@
         <v>1644</v>
       </c>
       <c r="G97" t="n">
-        <v>-13306933.65339999</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3603,15 @@
         <v>80240</v>
       </c>
       <c r="G98" t="n">
-        <v>-13306933.65339999</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3633,15 @@
         <v>46214.7599</v>
       </c>
       <c r="G99" t="n">
-        <v>-13353148.41329999</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3663,15 @@
         <v>3740</v>
       </c>
       <c r="G100" t="n">
-        <v>-13356888.41329999</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3693,15 @@
         <v>41893.0992</v>
       </c>
       <c r="G101" t="n">
-        <v>-13398781.51249999</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3723,15 @@
         <v>310848.4761</v>
       </c>
       <c r="G102" t="n">
-        <v>-13709629.98859999</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3753,15 @@
         <v>230</v>
       </c>
       <c r="G103" t="n">
-        <v>-13709859.98859999</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3783,15 @@
         <v>26221.0744</v>
       </c>
       <c r="G104" t="n">
-        <v>-13683638.91419999</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3813,15 @@
         <v>430210.5599</v>
       </c>
       <c r="G105" t="n">
-        <v>-13253428.35429999</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3843,15 @@
         <v>230</v>
       </c>
       <c r="G106" t="n">
-        <v>-13253658.35429999</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3873,15 @@
         <v>70798.6679</v>
       </c>
       <c r="G107" t="n">
-        <v>-13324457.02219999</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3903,15 @@
         <v>696</v>
       </c>
       <c r="G108" t="n">
-        <v>-13324457.02219999</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3933,15 @@
         <v>230</v>
       </c>
       <c r="G109" t="n">
-        <v>-13324227.02219999</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3963,15 @@
         <v>230</v>
       </c>
       <c r="G110" t="n">
-        <v>-13324457.02219999</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3993,15 @@
         <v>806.2804</v>
       </c>
       <c r="G111" t="n">
-        <v>-13323650.74179999</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +4023,15 @@
         <v>2449.850497772828</v>
       </c>
       <c r="G112" t="n">
-        <v>-13326100.59229776</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +4053,15 @@
         <v>230</v>
       </c>
       <c r="G113" t="n">
-        <v>-13326330.59229776</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4083,15 @@
         <v>250</v>
       </c>
       <c r="G114" t="n">
-        <v>-13326080.59229776</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4113,15 @@
         <v>230</v>
       </c>
       <c r="G115" t="n">
-        <v>-13326310.59229776</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4143,15 @@
         <v>250</v>
       </c>
       <c r="G116" t="n">
-        <v>-13326060.59229776</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4173,15 @@
         <v>227</v>
       </c>
       <c r="G117" t="n">
-        <v>-13326287.59229776</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4203,15 @@
         <v>1167.8387</v>
       </c>
       <c r="G118" t="n">
-        <v>-13326287.59229776</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4233,15 @@
         <v>21110.2276</v>
       </c>
       <c r="G119" t="n">
-        <v>-13305177.36469776</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4263,15 @@
         <v>230</v>
       </c>
       <c r="G120" t="n">
-        <v>-13305407.36469776</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4293,15 @@
         <v>2500</v>
       </c>
       <c r="G121" t="n">
-        <v>-13302907.36469776</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4323,15 @@
         <v>230</v>
       </c>
       <c r="G122" t="n">
-        <v>-13302907.36469776</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4353,15 @@
         <v>6495.9594</v>
       </c>
       <c r="G123" t="n">
-        <v>-13296411.40529776</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4383,15 @@
         <v>2682.139112946429</v>
       </c>
       <c r="G124" t="n">
-        <v>-13293729.26618482</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4413,15 @@
         <v>27482.88848705357</v>
       </c>
       <c r="G125" t="n">
-        <v>-13293729.26618482</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4443,15 @@
         <v>2147.111512946429</v>
       </c>
       <c r="G126" t="n">
-        <v>-13295876.37769776</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4473,15 @@
         <v>670.2637999999999</v>
       </c>
       <c r="G127" t="n">
-        <v>-13295206.11389776</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4503,15 @@
         <v>145539.1444</v>
       </c>
       <c r="G128" t="n">
-        <v>-13440745.25829776</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4533,15 @@
         <v>7693.6809</v>
       </c>
       <c r="G129" t="n">
-        <v>-13448438.93919776</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4563,15 @@
         <v>41832.336</v>
       </c>
       <c r="G130" t="n">
-        <v>-13406606.60319776</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4593,15 @@
         <v>230</v>
       </c>
       <c r="G131" t="n">
-        <v>-13406836.60319776</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4623,15 @@
         <v>230</v>
       </c>
       <c r="G132" t="n">
-        <v>-13406606.60319776</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4653,15 @@
         <v>1700524.5815</v>
       </c>
       <c r="G133" t="n">
-        <v>-11706082.02169777</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4683,15 @@
         <v>1629.8158</v>
       </c>
       <c r="G134" t="n">
-        <v>-11707711.83749777</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4713,15 @@
         <v>712377.5621</v>
       </c>
       <c r="G135" t="n">
-        <v>-10995334.27539776</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4743,15 @@
         <v>95334.6314</v>
       </c>
       <c r="G136" t="n">
-        <v>-10899999.64399776</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4773,15 @@
         <v>371538.0221</v>
       </c>
       <c r="G137" t="n">
-        <v>-11271537.66609776</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4803,15 @@
         <v>1830234.9636</v>
       </c>
       <c r="G138" t="n">
-        <v>-9441302.702497764</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4833,15 @@
         <v>892230.2026</v>
       </c>
       <c r="G139" t="n">
-        <v>-10333532.90509776</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4863,15 @@
         <v>2500</v>
       </c>
       <c r="G140" t="n">
-        <v>-10336032.90509776</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4893,15 @@
         <v>230</v>
       </c>
       <c r="G141" t="n">
-        <v>-10335802.90509776</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4923,15 @@
         <v>4794.955</v>
       </c>
       <c r="G142" t="n">
-        <v>-10340597.86009776</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4953,15 @@
         <v>240</v>
       </c>
       <c r="G143" t="n">
-        <v>-10340357.86009776</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4983,15 @@
         <v>3832.6851</v>
       </c>
       <c r="G144" t="n">
-        <v>-10344190.54519776</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +5013,15 @@
         <v>64234.6807</v>
       </c>
       <c r="G145" t="n">
-        <v>-10408425.22589776</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +5043,15 @@
         <v>83275.455</v>
       </c>
       <c r="G146" t="n">
-        <v>-10408425.22589776</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +5073,15 @@
         <v>166822.2323</v>
       </c>
       <c r="G147" t="n">
-        <v>-10575247.45819777</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +5103,15 @@
         <v>9350.4146</v>
       </c>
       <c r="G148" t="n">
-        <v>-10565897.04359777</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +5133,15 @@
         <v>444</v>
       </c>
       <c r="G149" t="n">
-        <v>-10566341.04359777</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +5163,15 @@
         <v>998810.8617</v>
       </c>
       <c r="G150" t="n">
-        <v>-11565151.90529777</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5193,15 @@
         <v>52069.2409</v>
       </c>
       <c r="G151" t="n">
-        <v>-11617221.14619777</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5223,15 @@
         <v>1196876.9486</v>
       </c>
       <c r="G152" t="n">
-        <v>-12814098.09479777</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5253,15 @@
         <v>3383.8637</v>
       </c>
       <c r="G153" t="n">
-        <v>-12817481.95849777</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5283,15 @@
         <v>716306.3293</v>
       </c>
       <c r="G154" t="n">
-        <v>-12101175.62919777</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5313,15 @@
         <v>114999.6511</v>
       </c>
       <c r="G155" t="n">
-        <v>-12216175.28029777</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5343,15 @@
         <v>2918.0456</v>
       </c>
       <c r="G156" t="n">
-        <v>-12213257.23469777</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5373,15 @@
         <v>178550.6979</v>
       </c>
       <c r="G157" t="n">
-        <v>-12034706.53679777</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5403,15 @@
         <v>183951.5553</v>
       </c>
       <c r="G158" t="n">
-        <v>-12034706.53679777</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5433,15 @@
         <v>2689.8504</v>
       </c>
       <c r="G159" t="n">
-        <v>-12037396.38719777</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5463,15 @@
         <v>44482.00624114286</v>
       </c>
       <c r="G160" t="n">
-        <v>-11992914.38095663</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5493,15 @@
         <v>240</v>
       </c>
       <c r="G161" t="n">
-        <v>-11993154.38095663</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5523,15 @@
         <v>1950.3136</v>
       </c>
       <c r="G162" t="n">
-        <v>-11995104.69455663</v>
-      </c>
-      <c r="H162" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5553,15 @@
         <v>1441105.0334</v>
       </c>
       <c r="G163" t="n">
-        <v>-13436209.72795663</v>
-      </c>
-      <c r="H163" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5583,15 @@
         <v>444</v>
       </c>
       <c r="G164" t="n">
-        <v>-13436209.72795663</v>
-      </c>
-      <c r="H164" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5613,15 @@
         <v>444</v>
       </c>
       <c r="G165" t="n">
-        <v>-13435765.72795663</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5643,15 @@
         <v>1200</v>
       </c>
       <c r="G166" t="n">
-        <v>-13436965.72795663</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5673,15 @@
         <v>240</v>
       </c>
       <c r="G167" t="n">
-        <v>-13436725.72795663</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5703,15 @@
         <v>8869.179700000001</v>
       </c>
       <c r="G168" t="n">
-        <v>-13436725.72795663</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5733,15 @@
         <v>39845.6626</v>
       </c>
       <c r="G169" t="n">
-        <v>-13436725.72795663</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5763,15 @@
         <v>1031414.7472</v>
       </c>
       <c r="G170" t="n">
-        <v>-12405310.98075663</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5793,15 @@
         <v>29750</v>
       </c>
       <c r="G171" t="n">
-        <v>-12405310.98075663</v>
-      </c>
-      <c r="H171" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5823,15 @@
         <v>0.9125</v>
       </c>
       <c r="G172" t="n">
-        <v>-12405310.98075663</v>
-      </c>
-      <c r="H172" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5853,15 @@
         <v>216690.093</v>
       </c>
       <c r="G173" t="n">
-        <v>-12622001.07375663</v>
-      </c>
-      <c r="H173" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5883,15 @@
         <v>4920169.138</v>
       </c>
       <c r="G174" t="n">
-        <v>-17542170.21175663</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5913,15 @@
         <v>222222</v>
       </c>
       <c r="G175" t="n">
-        <v>-17764392.21175663</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5943,15 @@
         <v>240</v>
       </c>
       <c r="G176" t="n">
-        <v>-17764152.21175663</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5973,15 @@
         <v>240</v>
       </c>
       <c r="G177" t="n">
-        <v>-17764152.21175663</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +6003,15 @@
         <v>113922.0258</v>
       </c>
       <c r="G178" t="n">
-        <v>-17650230.18595663</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +6033,15 @@
         <v>226.0121</v>
       </c>
       <c r="G179" t="n">
-        <v>-17650456.19805663</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +6063,15 @@
         <v>32171.0443</v>
       </c>
       <c r="G180" t="n">
-        <v>-17618285.15375663</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +6093,15 @@
         <v>14710.1206</v>
       </c>
       <c r="G181" t="n">
-        <v>-17618285.15375663</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +6123,15 @@
         <v>981415.3451</v>
       </c>
       <c r="G182" t="n">
-        <v>-18599700.49885663</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +6153,15 @@
         <v>240</v>
       </c>
       <c r="G183" t="n">
-        <v>-18599460.49885663</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +6183,15 @@
         <v>444</v>
       </c>
       <c r="G184" t="n">
-        <v>-18599904.49885663</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +6213,15 @@
         <v>240</v>
       </c>
       <c r="G185" t="n">
-        <v>-18599904.49885663</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6243,15 @@
         <v>244</v>
       </c>
       <c r="G186" t="n">
-        <v>-18599660.49885663</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6273,15 @@
         <v>19566.3916</v>
       </c>
       <c r="G187" t="n">
-        <v>-18599660.49885663</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6303,15 @@
         <v>240</v>
       </c>
       <c r="G188" t="n">
-        <v>-18599420.49885663</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6333,15 @@
         <v>244</v>
       </c>
       <c r="G189" t="n">
-        <v>-18599664.49885663</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6363,15 @@
         <v>192029.8373</v>
       </c>
       <c r="G190" t="n">
-        <v>-18791694.33615663</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6393,15 @@
         <v>240</v>
       </c>
       <c r="G191" t="n">
-        <v>-18791694.33615663</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6423,15 @@
         <v>225.2525</v>
       </c>
       <c r="G192" t="n">
-        <v>-18791919.58865663</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6453,15 @@
         <v>240</v>
       </c>
       <c r="G193" t="n">
-        <v>-18791679.58865663</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6483,15 @@
         <v>1644</v>
       </c>
       <c r="G194" t="n">
-        <v>-18793323.58865663</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6513,15 @@
         <v>240</v>
       </c>
       <c r="G195" t="n">
-        <v>-18793083.58865663</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6543,15 @@
         <v>3240</v>
       </c>
       <c r="G196" t="n">
-        <v>-18793083.58865663</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6573,15 @@
         <v>180693.2127</v>
       </c>
       <c r="G197" t="n">
-        <v>-18973776.80135662</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6603,15 @@
         <v>240</v>
       </c>
       <c r="G198" t="n">
-        <v>-18973536.80135662</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6633,15 @@
         <v>5521.1032</v>
       </c>
       <c r="G199" t="n">
-        <v>-18973536.80135662</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6663,15 @@
         <v>29316.534</v>
       </c>
       <c r="G200" t="n">
-        <v>-18973536.80135662</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6693,15 @@
         <v>551811.6326</v>
       </c>
       <c r="G201" t="n">
-        <v>-19525348.43395662</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6723,15 @@
         <v>200240</v>
       </c>
       <c r="G202" t="n">
-        <v>-19325108.43395662</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6753,15 @@
         <v>670.1251</v>
       </c>
       <c r="G203" t="n">
-        <v>-19325778.55905662</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6783,15 @@
         <v>240</v>
       </c>
       <c r="G204" t="n">
-        <v>-19325538.55905662</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6813,15 @@
         <v>13351.1737</v>
       </c>
       <c r="G205" t="n">
-        <v>-19325538.55905662</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6843,15 @@
         <v>240</v>
       </c>
       <c r="G206" t="n">
-        <v>-19325778.55905662</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6873,15 @@
         <v>480</v>
       </c>
       <c r="G207" t="n">
-        <v>-19325778.55905662</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6903,15 @@
         <v>240</v>
       </c>
       <c r="G208" t="n">
-        <v>-19325778.55905662</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6933,15 @@
         <v>8968.609899999999</v>
       </c>
       <c r="G209" t="n">
-        <v>-19325778.55905662</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6963,15 @@
         <v>240</v>
       </c>
       <c r="G210" t="n">
-        <v>-19326018.55905662</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6993,15 @@
         <v>41000</v>
       </c>
       <c r="G211" t="n">
-        <v>-19326018.55905662</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +7023,15 @@
         <v>240</v>
       </c>
       <c r="G212" t="n">
-        <v>-19325778.55905662</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +7053,15 @@
         <v>139645.0909</v>
       </c>
       <c r="G213" t="n">
-        <v>-19465423.64995662</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +7083,15 @@
         <v>244</v>
       </c>
       <c r="G214" t="n">
-        <v>-19465423.64995662</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +7113,15 @@
         <v>57070.5601</v>
       </c>
       <c r="G215" t="n">
-        <v>-19408353.08985662</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +7143,15 @@
         <v>240.0125</v>
       </c>
       <c r="G216" t="n">
-        <v>-19408593.10235662</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +7173,15 @@
         <v>250</v>
       </c>
       <c r="G217" t="n">
-        <v>-19408343.10235662</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +7203,15 @@
         <v>51717.1507</v>
       </c>
       <c r="G218" t="n">
-        <v>-19356625.95165662</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +7233,15 @@
         <v>444</v>
       </c>
       <c r="G219" t="n">
-        <v>-19357069.95165662</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +7263,15 @@
         <v>245135.4295</v>
       </c>
       <c r="G220" t="n">
-        <v>-19602205.38115662</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7293,15 @@
         <v>109556</v>
       </c>
       <c r="G221" t="n">
-        <v>-19492649.38115662</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7323,15 @@
         <v>386846.8595</v>
       </c>
       <c r="G222" t="n">
-        <v>-19879496.24065662</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7353,15 @@
         <v>536.4075</v>
       </c>
       <c r="G223" t="n">
-        <v>-19878959.83315662</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7383,15 @@
         <v>181818</v>
       </c>
       <c r="G224" t="n">
-        <v>-20060777.83315662</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7413,15 @@
         <v>83928.2319</v>
       </c>
       <c r="G225" t="n">
-        <v>-20060777.83315662</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7443,15 @@
         <v>52170.924</v>
       </c>
       <c r="G226" t="n">
-        <v>-20112948.75715662</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7473,15 @@
         <v>416702.5197</v>
       </c>
       <c r="G227" t="n">
-        <v>-20529651.27685662</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,22 +7503,15 @@
         <v>244</v>
       </c>
       <c r="G228" t="n">
-        <v>-20529651.27685662</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>2.219</v>
-      </c>
-      <c r="J228" t="n">
-        <v>2.219</v>
-      </c>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7943,26 +7533,15 @@
         <v>45097.7468</v>
       </c>
       <c r="G229" t="n">
-        <v>-20529651.27685662</v>
-      </c>
-      <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>2.219</v>
-      </c>
-      <c r="J229" t="n">
-        <v>2.219</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7984,26 +7563,15 @@
         <v>173206.9478</v>
       </c>
       <c r="G230" t="n">
-        <v>-20529651.27685662</v>
-      </c>
-      <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>2.219</v>
-      </c>
-      <c r="J230" t="n">
-        <v>2.219</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8025,22 +7593,15 @@
         <v>4959.7681</v>
       </c>
       <c r="G231" t="n">
-        <v>-20524691.50875662</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>2.219</v>
-      </c>
-      <c r="J231" t="n">
-        <v>2.219</v>
-      </c>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8062,26 +7623,15 @@
         <v>51197.5373</v>
       </c>
       <c r="G232" t="n">
-        <v>-20473493.97145662</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="J232" t="n">
-        <v>2.219</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8103,24 +7653,15 @@
         <v>1802.4627</v>
       </c>
       <c r="G233" t="n">
-        <v>-20473493.97145662</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>2.219</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8142,18 +7683,15 @@
         <v>32684</v>
       </c>
       <c r="G234" t="n">
-        <v>-20506177.97145662</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8175,18 +7713,15 @@
         <v>53031.6824</v>
       </c>
       <c r="G235" t="n">
-        <v>-20559209.65385662</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8208,18 +7743,15 @@
         <v>314661.5027</v>
       </c>
       <c r="G236" t="n">
-        <v>-20559209.65385662</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8241,18 +7773,15 @@
         <v>223.1251</v>
       </c>
       <c r="G237" t="n">
-        <v>-20558986.52875661</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8274,18 +7803,15 @@
         <v>115792.7071</v>
       </c>
       <c r="G238" t="n">
-        <v>-20674779.23585662</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8307,18 +7833,15 @@
         <v>325704.3131</v>
       </c>
       <c r="G239" t="n">
-        <v>-20349074.92275662</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8340,18 +7863,15 @@
         <v>26741.566</v>
       </c>
       <c r="G240" t="n">
-        <v>-20349074.92275662</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8373,18 +7893,15 @@
         <v>22020.3358</v>
       </c>
       <c r="G241" t="n">
-        <v>-20327054.58695662</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8406,18 +7923,15 @@
         <v>444.505</v>
       </c>
       <c r="G242" t="n">
-        <v>-20327054.58695662</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8439,18 +7953,15 @@
         <v>770.3846</v>
       </c>
       <c r="G243" t="n">
-        <v>-20327824.97155662</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8472,18 +7983,15 @@
         <v>889.2164</v>
       </c>
       <c r="G244" t="n">
-        <v>-20326935.75515661</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8505,18 +8013,15 @@
         <v>553.7474999999999</v>
       </c>
       <c r="G245" t="n">
-        <v>-20326935.75515661</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8538,22 +8043,15 @@
         <v>77566.7041</v>
       </c>
       <c r="G246" t="n">
-        <v>-20326935.75515661</v>
-      </c>
-      <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="J246" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8575,26 +8073,15 @@
         <v>799832.1689</v>
       </c>
       <c r="G247" t="n">
-        <v>-21126767.92405662</v>
-      </c>
-      <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="J247" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8616,26 +8103,15 @@
         <v>419297.8533</v>
       </c>
       <c r="G248" t="n">
-        <v>-21546065.77735662</v>
-      </c>
-      <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>2.235</v>
-      </c>
-      <c r="J248" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8657,26 +8133,15 @@
         <v>67713.0045</v>
       </c>
       <c r="G249" t="n">
-        <v>-21546065.77735662</v>
-      </c>
-      <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="J249" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8698,26 +8163,15 @@
         <v>395412.0156</v>
       </c>
       <c r="G250" t="n">
-        <v>-21546065.77735662</v>
-      </c>
-      <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="J250" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8739,26 +8193,15 @@
         <v>213765.9989</v>
       </c>
       <c r="G251" t="n">
-        <v>-21759831.77625662</v>
-      </c>
-      <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="J251" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8780,26 +8223,15 @@
         <v>31765.9989</v>
       </c>
       <c r="G252" t="n">
-        <v>-21728065.77735662</v>
-      </c>
-      <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>2.219</v>
-      </c>
-      <c r="J252" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8821,26 +8253,15 @@
         <v>5000</v>
       </c>
       <c r="G253" t="n">
-        <v>-21723065.77735662</v>
-      </c>
-      <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="J253" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8862,26 +8283,15 @@
         <v>5000</v>
       </c>
       <c r="G254" t="n">
-        <v>-21723065.77735662</v>
-      </c>
-      <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="J254" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8903,26 +8313,15 @@
         <v>125000</v>
       </c>
       <c r="G255" t="n">
-        <v>-21598065.77735662</v>
-      </c>
-      <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="J255" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8944,26 +8343,15 @@
         <v>288000</v>
       </c>
       <c r="G256" t="n">
-        <v>-21310065.77735662</v>
-      </c>
-      <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>2.257</v>
-      </c>
-      <c r="J256" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8985,26 +8373,15 @@
         <v>484940.1927</v>
       </c>
       <c r="G257" t="n">
-        <v>-21795005.97005662</v>
-      </c>
-      <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>2.258</v>
-      </c>
-      <c r="J257" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9026,26 +8403,15 @@
         <v>47294.0641</v>
       </c>
       <c r="G258" t="n">
-        <v>-21795005.97005662</v>
-      </c>
-      <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>2.257</v>
-      </c>
-      <c r="J258" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9067,24 +8433,15 @@
         <v>21893.6011</v>
       </c>
       <c r="G259" t="n">
-        <v>-21816899.57115662</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9106,26 +8463,15 @@
         <v>87865.4436</v>
       </c>
       <c r="G260" t="n">
-        <v>-21816899.57115662</v>
-      </c>
-      <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="J260" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9147,24 +8493,15 @@
         <v>328121.3801</v>
       </c>
       <c r="G261" t="n">
-        <v>-21816899.57115662</v>
-      </c>
-      <c r="H261" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>0.9990053404539386</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9186,24 +8523,15 @@
         <v>21284.6139</v>
       </c>
       <c r="G262" t="n">
-        <v>-21838184.18505662</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9225,22 +8553,15 @@
         <v>198000</v>
       </c>
       <c r="G263" t="n">
-        <v>-21838184.18505662</v>
-      </c>
-      <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="J263" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9262,26 +8583,15 @@
         <v>300</v>
       </c>
       <c r="G264" t="n">
-        <v>-21837884.18505662</v>
-      </c>
-      <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="J264" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9303,24 +8613,15 @@
         <v>443.6557231588287</v>
       </c>
       <c r="G265" t="n">
-        <v>-21837884.18505662</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9342,18 +8643,15 @@
         <v>32424.6501</v>
       </c>
       <c r="G266" t="n">
-        <v>-21870308.83515662</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9375,24 +8673,15 @@
         <v>1508477.8679</v>
       </c>
       <c r="G267" t="n">
-        <v>-23378786.70305661</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>2.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9414,24 +8703,15 @@
         <v>36671.7576</v>
       </c>
       <c r="G268" t="n">
-        <v>-23378786.70305661</v>
-      </c>
-      <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>2.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9453,24 +8733,15 @@
         <v>14000</v>
       </c>
       <c r="G269" t="n">
-        <v>-23378786.70305661</v>
-      </c>
-      <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>2.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9492,24 +8763,15 @@
         <v>1325780.5944</v>
       </c>
       <c r="G270" t="n">
-        <v>-22053006.10865662</v>
-      </c>
-      <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>2.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9531,24 +8793,15 @@
         <v>250</v>
       </c>
       <c r="G271" t="n">
-        <v>-22053256.10865662</v>
-      </c>
-      <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>2.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9570,24 +8823,15 @@
         <v>35850</v>
       </c>
       <c r="G272" t="n">
-        <v>-22053256.10865662</v>
-      </c>
-      <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>2.229</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9609,24 +8853,15 @@
         <v>225.5252</v>
       </c>
       <c r="G273" t="n">
-        <v>-22053481.63385661</v>
-      </c>
-      <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>2.229</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9648,24 +8883,15 @@
         <v>424967.9681</v>
       </c>
       <c r="G274" t="n">
-        <v>-21628513.66575661</v>
-      </c>
-      <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>2.219</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9687,22 +8913,15 @@
         <v>11108.1257</v>
       </c>
       <c r="G275" t="n">
-        <v>-21628513.66575661</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9724,22 +8943,15 @@
         <v>392.1001</v>
       </c>
       <c r="G276" t="n">
-        <v>-21628121.56565661</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9761,22 +8973,15 @@
         <v>666</v>
       </c>
       <c r="G277" t="n">
-        <v>-21627455.56565661</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9798,22 +9003,15 @@
         <v>334</v>
       </c>
       <c r="G278" t="n">
-        <v>-21627121.56565661</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9835,22 +9033,15 @@
         <v>44886.212</v>
       </c>
       <c r="G279" t="n">
-        <v>-21672007.77765661</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9872,24 +9063,15 @@
         <v>7391.4682</v>
       </c>
       <c r="G280" t="n">
-        <v>-21679399.24585661</v>
-      </c>
-      <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>2.245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9911,24 +9093,15 @@
         <v>75882.63860000001</v>
       </c>
       <c r="G281" t="n">
-        <v>-21603516.60725661</v>
-      </c>
-      <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>2.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9950,24 +9123,15 @@
         <v>71730</v>
       </c>
       <c r="G282" t="n">
-        <v>-21531786.60725661</v>
-      </c>
-      <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>2.245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9989,22 +9153,15 @@
         <v>384133.8475</v>
       </c>
       <c r="G283" t="n">
-        <v>-21915920.45475661</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10026,24 +9183,15 @@
         <v>52334.3464</v>
       </c>
       <c r="G284" t="n">
-        <v>-21968254.80115661</v>
-      </c>
-      <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>2.225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10065,24 +9213,15 @@
         <v>250</v>
       </c>
       <c r="G285" t="n">
-        <v>-21968004.80115661</v>
-      </c>
-      <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>2.224</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10104,22 +9243,15 @@
         <v>34611.4615</v>
       </c>
       <c r="G286" t="n">
-        <v>-21968004.80115661</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10141,22 +9273,15 @@
         <v>18246.8049</v>
       </c>
       <c r="G287" t="n">
-        <v>-21986251.60605662</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10178,22 +9303,15 @@
         <v>225</v>
       </c>
       <c r="G288" t="n">
-        <v>-21986026.60605662</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10215,22 +9333,15 @@
         <v>244</v>
       </c>
       <c r="G289" t="n">
-        <v>-21986026.60605662</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10252,22 +9363,15 @@
         <v>83079.96520000001</v>
       </c>
       <c r="G290" t="n">
-        <v>-21986026.60605662</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10289,22 +9393,15 @@
         <v>164760.9248</v>
       </c>
       <c r="G291" t="n">
-        <v>-22150787.53085662</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10326,22 +9423,15 @@
         <v>30000</v>
       </c>
       <c r="G292" t="n">
-        <v>-22120787.53085662</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10363,22 +9453,15 @@
         <v>543981.1777</v>
       </c>
       <c r="G293" t="n">
-        <v>-22664768.70855662</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10400,22 +9483,15 @@
         <v>240</v>
       </c>
       <c r="G294" t="n">
-        <v>-22664528.70855662</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10437,22 +9513,15 @@
         <v>505000</v>
       </c>
       <c r="G295" t="n">
-        <v>-22664528.70855662</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10474,22 +9543,15 @@
         <v>180000</v>
       </c>
       <c r="G296" t="n">
-        <v>-22844528.70855662</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10511,22 +9573,15 @@
         <v>42673</v>
       </c>
       <c r="G297" t="n">
-        <v>-22801855.70855662</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10548,22 +9603,15 @@
         <v>20000</v>
       </c>
       <c r="G298" t="n">
-        <v>-22821855.70855662</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10585,22 +9633,15 @@
         <v>244</v>
       </c>
       <c r="G299" t="n">
-        <v>-22821611.70855662</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10622,22 +9663,15 @@
         <v>704755.2665</v>
       </c>
       <c r="G300" t="n">
-        <v>-23526366.97505662</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10659,22 +9693,15 @@
         <v>774465.6132</v>
       </c>
       <c r="G301" t="n">
-        <v>-24300832.58825662</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10696,22 +9723,15 @@
         <v>444</v>
       </c>
       <c r="G302" t="n">
-        <v>-24300388.58825662</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10733,22 +9753,15 @@
         <v>444</v>
       </c>
       <c r="G303" t="n">
-        <v>-24300832.58825662</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10770,22 +9783,15 @@
         <v>14792.389</v>
       </c>
       <c r="G304" t="n">
-        <v>-24286040.19925662</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10807,22 +9813,15 @@
         <v>244</v>
       </c>
       <c r="G305" t="n">
-        <v>-24286040.19925662</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10844,22 +9843,15 @@
         <v>444</v>
       </c>
       <c r="G306" t="n">
-        <v>-24286484.19925662</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -10881,22 +9873,15 @@
         <v>63566.0765</v>
       </c>
       <c r="G307" t="n">
-        <v>-24350050.27575662</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -10918,22 +9903,15 @@
         <v>240</v>
       </c>
       <c r="G308" t="n">
-        <v>-24349810.27575662</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -10955,22 +9933,15 @@
         <v>22686.3358</v>
       </c>
       <c r="G309" t="n">
-        <v>-24372496.61155662</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -10992,22 +9963,15 @@
         <v>444</v>
       </c>
       <c r="G310" t="n">
-        <v>-24372940.61155662</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11029,22 +9993,15 @@
         <v>1000386.0117</v>
       </c>
       <c r="G311" t="n">
-        <v>-24372940.61155662</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11066,22 +10023,15 @@
         <v>1634202.5101</v>
       </c>
       <c r="G312" t="n">
-        <v>-26007143.12165662</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11103,22 +10053,15 @@
         <v>444</v>
       </c>
       <c r="G313" t="n">
-        <v>-26007587.12165662</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11140,22 +10083,15 @@
         <v>244</v>
       </c>
       <c r="G314" t="n">
-        <v>-26007343.12165662</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11177,22 +10113,15 @@
         <v>50244</v>
       </c>
       <c r="G315" t="n">
-        <v>-26007343.12165662</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11214,22 +10143,15 @@
         <v>444</v>
       </c>
       <c r="G316" t="n">
-        <v>-26007787.12165662</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11251,22 +10173,15 @@
         <v>44590.0481</v>
       </c>
       <c r="G317" t="n">
-        <v>-26052377.16975662</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -11288,22 +10203,15 @@
         <v>2310497.4494</v>
       </c>
       <c r="G318" t="n">
-        <v>-28362874.61915662</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -11325,22 +10233,15 @@
         <v>480</v>
       </c>
       <c r="G319" t="n">
-        <v>-28362394.61915662</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -11362,24 +10263,15 @@
         <v>167259.116</v>
       </c>
       <c r="G320" t="n">
-        <v>-28362394.61915662</v>
-      </c>
-      <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>2.231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H320" t="inlineStr"/>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -11401,24 +10293,15 @@
         <v>244</v>
       </c>
       <c r="G321" t="n">
-        <v>-28362150.61915662</v>
-      </c>
-      <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>2.231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H321" t="inlineStr"/>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11440,24 +10323,15 @@
         <v>244</v>
       </c>
       <c r="G322" t="n">
-        <v>-28362150.61915662</v>
-      </c>
-      <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>2.232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H322" t="inlineStr"/>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -11479,24 +10353,15 @@
         <v>112314.1331</v>
       </c>
       <c r="G323" t="n">
-        <v>-28362150.61915662</v>
-      </c>
-      <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>2.232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H323" t="inlineStr"/>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
